--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09C9D55-C1A9-4135-AC72-878A56CA3AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C881A6-7872-4D74-BDF3-71B567969911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -2362,7 +2362,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -2678,8 +2678,8 @@
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15412,8 +15412,8 @@
   <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46:C46"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16359,9 +16359,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026E85B2-FC1D-44AC-B9B9-EC8A0A781258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B58728-4B22-4022-8B56-DB8BF05B24D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -6952,8 +6952,8 @@
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F88E42-4F3C-486E-80CF-25D5ECDC9CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807011A-2F18-41C2-9A8B-6A9AFFB39ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8797" uniqueCount="2003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8800" uniqueCount="2004">
   <si>
     <t>Name</t>
   </si>
@@ -6098,6 +6098,34 @@
     <t>Data/Commodore 128/310378/Scope baseline/Images/U63_14_PAL.png</t>
   </si>
   <si>
+    <t>74F32</t>
+  </si>
+  <si>
+    <t>PAL specific</t>
+  </si>
+  <si>
+    <t>NTSC specific</t>
+  </si>
+  <si>
+    <t>Contains four independent gates, each of which performs a logic OR function.</t>
+  </si>
+  <si>
+    <t>Video chip (PAL)</t>
+  </si>
+  <si>
+    <t>Video chip (NTSC)</t>
+  </si>
+  <si>
+    <t>* Text mode: 40x25, 16 colors
+* Graphics modes: 160x200, 320x200
+* 8 hardware sprites
+* 2K x 4-bit color RAM, otherwise uses main memory as video RAM
+Memory location: $D000</t>
+  </si>
+  <si>
+    <t>Can someone help with this?</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -6110,33 +6138,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-7</t>
+      <t>2025-July-11</t>
     </r>
-  </si>
-  <si>
-    <t>74F32</t>
-  </si>
-  <si>
-    <t>PAL specific</t>
-  </si>
-  <si>
-    <t>NTSC specific</t>
-  </si>
-  <si>
-    <t>Contains four independent gates, each of which performs a logic OR function.</t>
-  </si>
-  <si>
-    <t>Video chip (PAL)</t>
-  </si>
-  <si>
-    <t>Video chip (NTSC)</t>
-  </si>
-  <si>
-    <t>* Text mode: 40x25, 16 colors
-* Graphics modes: 160x200, 320x200
-* 8 hardware sprites
-* 2K x 4-bit color RAM, otherwise uses main memory as video RAM
-Memory location: $D000</t>
   </si>
 </sst>
 </file>
@@ -6710,7 +6713,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -6737,7 +6740,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>1995</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6998,9 +7001,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9157,7 +9160,7 @@
         <v>488</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -9165,7 +9168,7 @@
         <v>69</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C156" s="14" t="s">
         <v>352</v>
@@ -9177,7 +9180,7 @@
         <v>983</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -9368,7 +9371,7 @@
         <v>488</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -9388,7 +9391,7 @@
         <v>983</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -10285,8 +10288,8 @@
   <dimension ref="A1:H1414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15494,7 +15497,7 @@
         <v>630</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="268" spans="1:7" customFormat="1">
@@ -21171,7 +21174,7 @@
         <v>639</v>
       </c>
       <c r="G551" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -48247,7 +48250,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E391290-0ED9-4ADB-83F5-886DBA0F69FB}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -48346,6 +48349,18 @@
         <v>998</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>997</v>
+      </c>
+      <c r="B12" t="s">
+        <v>983</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D12" s="42"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{E11FEC90-D134-4CEF-9FF9-B7C35CD5FCCD}"/>

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB74E2F-FD64-43C0-8823-050AA5E154D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90DA5B1-49B2-4614-9EB2-1B6778470166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="4" activeTab="8" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -6132,6 +6132,19 @@
 Compatible part-number: MOS 7701</t>
   </si>
   <si>
+    <t>Do note that you maybe will not be able to measure directly on the crystal, as the signal may be too fragile for that, and the system may stall (harmless, but requires a power-recycle).
+Try measuring with a 10X or even 100X attenuation oscilloscope probe.</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Will someone help with this? :-)</t>
+  </si>
+  <si>
+    <t>Oscilloscope baseline measurement</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -6144,21 +6157,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-13</t>
+      <t>2025-August-1</t>
     </r>
-  </si>
-  <si>
-    <t>Do note that you maybe will not be able to measure directly on the crystal, as the signal may be too fragile for that, and the system may stall (harmless, but requires a power-recycle).
-Try measuring with a 10X or even 100X attenuation oscilloscope probe.</t>
-  </si>
-  <si>
-    <t>Timer</t>
-  </si>
-  <si>
-    <t>Will someone help with this? :-)</t>
-  </si>
-  <si>
-    <t>Oscilloscope baseline measurement</t>
   </si>
 </sst>
 </file>
@@ -6732,7 +6732,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7021,8 +7021,8 @@
   <dimension ref="A1:F303"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C175" sqref="C175"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9504,7 +9504,7 @@
         <v>556</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>167</v>
@@ -10326,10 +10326,10 @@
   <dimension ref="A1:H1414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E158" sqref="E158"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -37231,7 +37231,7 @@
       </c>
       <c r="E1354" s="1"/>
       <c r="G1354" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1355" spans="1:7" s="14" customFormat="1" ht="72">
@@ -37244,7 +37244,7 @@
       </c>
       <c r="E1355" s="1"/>
       <c r="G1355" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1356" spans="1:7" s="14" customFormat="1">
@@ -48322,9 +48322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E391290-0ED9-4ADB-83F5-886DBA0F69FB}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -48407,7 +48407,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B11" t="s">
         <v>475</v>
@@ -48421,13 +48421,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B12" t="s">
         <v>968</v>
       </c>
       <c r="C12" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D12" s="42"/>
     </row>

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB0CFEE-517A-4073-8763-29BC66A91E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00092B4-ADE6-418D-8331-0ED373C6D214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -6331,7 +6331,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-September-15</t>
+      <t>2025-September-16</t>
     </r>
   </si>
 </sst>
@@ -12304,10 +12304,10 @@
         <v>12</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>641</v>
+        <v>508</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="F98" s="14" t="s">
         <v>971</v>
@@ -12324,10 +12324,10 @@
         <v>12</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>641</v>
+        <v>508</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="F99" s="14" t="s">
         <v>2060</v>
@@ -12384,10 +12384,10 @@
         <v>14</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>328</v>
+        <v>508</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="F102" s="14" t="s">
         <v>973</v>
@@ -12404,10 +12404,10 @@
         <v>14</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>328</v>
+        <v>508</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="F103" s="14" t="s">
         <v>2062</v>
@@ -12467,7 +12467,7 @@
         <v>456</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>606</v>
+        <v>2065</v>
       </c>
       <c r="F106" s="14" t="s">
         <v>975</v>
@@ -12487,7 +12487,7 @@
         <v>456</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>2065</v>
+        <v>478</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>2064</v>

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578961D1-481F-4DB1-9347-39FCACE1B046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2182BD98-8C57-4233-BDCA-1560FB128E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12084" uniqueCount="2434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12084" uniqueCount="2436">
   <si>
     <t>Name</t>
   </si>
@@ -7514,6 +7514,12 @@
       </rPr>
       <t>2025-October-12</t>
     </r>
+  </si>
+  <si>
+    <t>985.228 kHz</t>
+  </si>
+  <si>
+    <t>1.97046 MHz</t>
   </si>
 </sst>
 </file>
@@ -7649,7 +7655,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7782,6 +7788,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8102,7 +8111,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -11695,11 +11704,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2044"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B1969" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="E1983" sqref="E1983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -49498,7 +49507,7 @@
         <v>622</v>
       </c>
       <c r="E1875" s="1" t="s">
-        <v>473</v>
+        <v>2434</v>
       </c>
       <c r="F1875" s="14" t="s">
         <v>1874</v>
@@ -49618,7 +49627,7 @@
         <v>627</v>
       </c>
       <c r="E1881" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F1881" s="14" t="s">
         <v>1880</v>
@@ -49658,7 +49667,7 @@
         <v>629</v>
       </c>
       <c r="E1883" s="1" t="s">
-        <v>473</v>
+        <v>2435</v>
       </c>
       <c r="F1883" s="14" t="s">
         <v>1882</v>
@@ -49678,7 +49687,7 @@
         <v>630</v>
       </c>
       <c r="E1884" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F1884" s="14" t="s">
         <v>1883</v>
@@ -49718,7 +49727,7 @@
         <v>456</v>
       </c>
       <c r="E1886" s="37" t="s">
-        <v>477</v>
+        <v>601</v>
       </c>
       <c r="F1886" s="14" t="s">
         <v>1885</v>
@@ -50011,7 +50020,7 @@
         <v>456</v>
       </c>
       <c r="E1901" s="37" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F1901" s="14" t="s">
         <v>1900</v>
@@ -50070,7 +50079,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="1905" spans="1:6">
+    <row r="1905" spans="1:7">
       <c r="A1905" s="14" t="s">
         <v>162</v>
       </c>
@@ -50090,7 +50099,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="1906" spans="1:6">
+    <row r="1906" spans="1:7">
       <c r="A1906" s="14" t="s">
         <v>162</v>
       </c>
@@ -50110,7 +50119,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="1907" spans="1:6">
+    <row r="1907" spans="1:7">
       <c r="A1907" s="14" t="s">
         <v>162</v>
       </c>
@@ -50130,7 +50139,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="1908" spans="1:6">
+    <row r="1908" spans="1:7">
       <c r="A1908" s="14" t="s">
         <v>162</v>
       </c>
@@ -50150,7 +50159,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="1909" spans="1:6">
+    <row r="1909" spans="1:7">
       <c r="A1909" s="14" t="s">
         <v>162</v>
       </c>
@@ -50170,7 +50179,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="1910" spans="1:6">
+    <row r="1910" spans="1:7">
       <c r="A1910" s="14" t="s">
         <v>162</v>
       </c>
@@ -50190,7 +50199,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="1911" spans="1:6">
+    <row r="1911" spans="1:7">
       <c r="A1911" s="14" t="s">
         <v>162</v>
       </c>
@@ -50210,7 +50219,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="1912" spans="1:6">
+    <row r="1912" spans="1:7">
       <c r="A1912" s="14" t="s">
         <v>162</v>
       </c>
@@ -50230,7 +50239,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="1913" spans="1:6">
+    <row r="1913" spans="1:7">
       <c r="A1913" s="14" t="s">
         <v>162</v>
       </c>
@@ -50250,7 +50259,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="1914" spans="1:6">
+    <row r="1914" spans="1:7">
       <c r="A1914" s="14" t="s">
         <v>162</v>
       </c>
@@ -50270,7 +50279,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="1915" spans="1:6">
+    <row r="1915" spans="1:7">
       <c r="A1915" s="14" t="s">
         <v>162</v>
       </c>
@@ -50290,7 +50299,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="1916" spans="1:6">
+    <row r="1916" spans="1:7">
       <c r="A1916" s="14" t="s">
         <v>162</v>
       </c>
@@ -50304,13 +50313,13 @@
         <v>456</v>
       </c>
       <c r="E1916" s="37" t="s">
-        <v>477</v>
+        <v>601</v>
       </c>
       <c r="F1916" s="14" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="1917" spans="1:6">
+    <row r="1917" spans="1:7">
       <c r="A1917" s="14" t="s">
         <v>82</v>
       </c>
@@ -50322,8 +50331,9 @@
       <c r="F1917" s="14" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="1918" spans="1:6">
+      <c r="G1917" s="49"/>
+    </row>
+    <row r="1918" spans="1:7">
       <c r="A1918" s="14" t="s">
         <v>83</v>
       </c>
@@ -50336,7 +50346,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="1919" spans="1:6">
+    <row r="1919" spans="1:7">
       <c r="A1919" s="14" t="s">
         <v>83</v>
       </c>
@@ -50356,7 +50366,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="1920" spans="1:6">
+    <row r="1920" spans="1:7">
       <c r="A1920" s="14" t="s">
         <v>83</v>
       </c>
@@ -50610,7 +50620,7 @@
         <v>456</v>
       </c>
       <c r="E1932" s="37" t="s">
-        <v>477</v>
+        <v>601</v>
       </c>
       <c r="F1932" s="14" t="s">
         <v>1930</v>
@@ -50906,7 +50916,7 @@
         <v>456</v>
       </c>
       <c r="E1947" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F1947" s="14" t="s">
         <v>1944</v>
@@ -51232,8 +51242,8 @@
       <c r="D1963" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="E1963" s="38" t="s">
-        <v>666</v>
+      <c r="E1963" s="49" t="s">
+        <v>473</v>
       </c>
       <c r="F1963" s="14" t="s">
         <v>1959</v>
@@ -51338,7 +51348,7 @@
         <v>456</v>
       </c>
       <c r="E1968" s="37" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F1968" s="14" t="s">
         <v>1964</v>
@@ -51635,7 +51645,7 @@
         <v>456</v>
       </c>
       <c r="E1983" s="37" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F1983" s="14" t="s">
         <v>1978</v>

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2182BD98-8C57-4233-BDCA-1560FB128E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DF8F11-C4A4-4D15-AC3A-3279EC7FD971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12084" uniqueCount="2436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12083" uniqueCount="2435">
   <si>
     <t>Name</t>
   </si>
@@ -7130,9 +7130,6 @@
   </si>
   <si>
     <t>THIS IS ALL HIGH - SHOULDN'T THIS BE PULSING?</t>
-  </si>
-  <si>
-    <t>THIS IS ALL LOW - SHOULD'N IT PULSING????</t>
   </si>
   <si>
     <t>Commodore 128/310378/Scope baseline/Images/U38-U53_1_NTSC.png</t>
@@ -8111,7 +8108,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -8138,7 +8135,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -11704,11 +11701,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H2044"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B1969" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E1983" sqref="E1983"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24650,9 +24647,7 @@
       <c r="F647" s="14" t="s">
         <v>2272</v>
       </c>
-      <c r="G647" s="38" t="s">
-        <v>2337</v>
-      </c>
+      <c r="G647" s="49"/>
     </row>
     <row r="648" spans="1:7">
       <c r="A648" s="14" t="s">
@@ -26697,7 +26692,7 @@
         <v>473</v>
       </c>
       <c r="F744" s="14" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="G744" s="37"/>
     </row>
@@ -26739,7 +26734,7 @@
         <v>473</v>
       </c>
       <c r="F746" s="14" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="G746" s="37"/>
     </row>
@@ -26781,7 +26776,7 @@
         <v>473</v>
       </c>
       <c r="F748" s="14" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="G748" s="37"/>
     </row>
@@ -26823,7 +26818,7 @@
         <v>473</v>
       </c>
       <c r="F750" s="14" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="G750" s="37"/>
     </row>
@@ -26865,7 +26860,7 @@
         <v>473</v>
       </c>
       <c r="F752" s="14" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="G752" s="37"/>
     </row>
@@ -26907,7 +26902,7 @@
         <v>473</v>
       </c>
       <c r="F754" s="14" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="G754" s="37"/>
     </row>
@@ -26949,7 +26944,7 @@
         <v>473</v>
       </c>
       <c r="F756" s="14" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="G756" s="37"/>
     </row>
@@ -26991,7 +26986,7 @@
         <v>474</v>
       </c>
       <c r="F758" s="14" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="G758" s="37"/>
     </row>
@@ -27033,7 +27028,7 @@
         <v>473</v>
       </c>
       <c r="F760" s="14" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="G760" s="37"/>
     </row>
@@ -27075,7 +27070,7 @@
         <v>473</v>
       </c>
       <c r="F762" s="14" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="G762" s="37"/>
     </row>
@@ -27117,7 +27112,7 @@
         <v>473</v>
       </c>
       <c r="F764" s="14" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="G764" s="37"/>
     </row>
@@ -27159,7 +27154,7 @@
         <v>473</v>
       </c>
       <c r="F766" s="14" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="G766" s="37"/>
     </row>
@@ -27201,7 +27196,7 @@
         <v>473</v>
       </c>
       <c r="F768" s="14" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="G768" s="37"/>
     </row>
@@ -27243,7 +27238,7 @@
         <v>473</v>
       </c>
       <c r="F770" s="14" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="G770" s="37"/>
     </row>
@@ -27285,7 +27280,7 @@
         <v>473</v>
       </c>
       <c r="F772" s="14" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="G772" s="37"/>
     </row>
@@ -27327,7 +27322,7 @@
         <v>477</v>
       </c>
       <c r="F774" s="14" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="G774" s="37"/>
     </row>
@@ -27385,7 +27380,7 @@
         <v>473</v>
       </c>
       <c r="F777" s="14" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="G777" s="37"/>
     </row>
@@ -27427,7 +27422,7 @@
         <v>473</v>
       </c>
       <c r="F779" s="14" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="G779" s="37"/>
     </row>
@@ -27469,7 +27464,7 @@
         <v>473</v>
       </c>
       <c r="F781" s="14" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="G781" s="37"/>
     </row>
@@ -27511,7 +27506,7 @@
         <v>473</v>
       </c>
       <c r="F783" s="14" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="G783" s="37"/>
     </row>
@@ -27553,7 +27548,7 @@
         <v>473</v>
       </c>
       <c r="F785" s="14" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="G785" s="37"/>
     </row>
@@ -27595,7 +27590,7 @@
         <v>473</v>
       </c>
       <c r="F787" s="14" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="G787" s="37"/>
     </row>
@@ -27637,7 +27632,7 @@
         <v>473</v>
       </c>
       <c r="F789" s="14" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="G789" s="37"/>
     </row>
@@ -27679,7 +27674,7 @@
         <v>474</v>
       </c>
       <c r="F791" s="14" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="G791" s="37"/>
     </row>
@@ -27721,7 +27716,7 @@
         <v>473</v>
       </c>
       <c r="F793" s="14" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="G793" s="37"/>
     </row>
@@ -27763,7 +27758,7 @@
         <v>473</v>
       </c>
       <c r="F795" s="14" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="G795" s="37"/>
     </row>
@@ -27805,7 +27800,7 @@
         <v>473</v>
       </c>
       <c r="F797" s="14" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="G797" s="37"/>
     </row>
@@ -27847,7 +27842,7 @@
         <v>473</v>
       </c>
       <c r="F799" s="14" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="G799" s="37"/>
     </row>
@@ -27889,7 +27884,7 @@
         <v>473</v>
       </c>
       <c r="F801" s="14" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="G801" s="37"/>
     </row>
@@ -27931,7 +27926,7 @@
         <v>473</v>
       </c>
       <c r="F803" s="14" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="G803" s="37"/>
     </row>
@@ -27973,7 +27968,7 @@
         <v>473</v>
       </c>
       <c r="F805" s="14" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="G805" s="37"/>
     </row>
@@ -28015,7 +28010,7 @@
         <v>477</v>
       </c>
       <c r="F807" s="14" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="G807" s="37"/>
     </row>
@@ -28069,7 +28064,7 @@
         <v>472</v>
       </c>
       <c r="F810" s="14" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="811" spans="1:7">
@@ -28109,7 +28104,7 @@
         <v>488</v>
       </c>
       <c r="F812" s="14" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="813" spans="1:7">
@@ -28149,7 +28144,7 @@
         <v>472</v>
       </c>
       <c r="F814" s="14" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="815" spans="1:7">
@@ -28189,7 +28184,7 @@
         <v>488</v>
       </c>
       <c r="F816" s="14" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="817" spans="1:6">
@@ -28229,7 +28224,7 @@
         <v>473</v>
       </c>
       <c r="F818" s="14" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="819" spans="1:6">
@@ -28269,7 +28264,7 @@
         <v>473</v>
       </c>
       <c r="F820" s="14" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="821" spans="1:6">
@@ -28309,7 +28304,7 @@
         <v>474</v>
       </c>
       <c r="F822" s="14" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="823" spans="1:6">
@@ -28349,7 +28344,7 @@
         <v>488</v>
       </c>
       <c r="F824" s="14" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="825" spans="1:6">
@@ -28389,7 +28384,7 @@
         <v>472</v>
       </c>
       <c r="F826" s="14" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="827" spans="1:6">
@@ -28429,7 +28424,7 @@
         <v>488</v>
       </c>
       <c r="F828" s="14" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="829" spans="1:6">
@@ -28469,7 +28464,7 @@
         <v>472</v>
       </c>
       <c r="F830" s="14" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="831" spans="1:6">
@@ -28509,7 +28504,7 @@
         <v>472</v>
       </c>
       <c r="F832" s="14" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -28549,7 +28544,7 @@
         <v>488</v>
       </c>
       <c r="F834" s="14" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -28589,7 +28584,7 @@
         <v>477</v>
       </c>
       <c r="F836" s="14" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="837" spans="1:6">
@@ -38045,7 +38040,7 @@
         <v>1832</v>
       </c>
       <c r="G1308" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1309" spans="1:7">
@@ -38065,7 +38060,7 @@
         <v>599</v>
       </c>
       <c r="F1309" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1310" spans="1:7">
@@ -38085,7 +38080,7 @@
         <v>599</v>
       </c>
       <c r="F1310" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1311" spans="1:7">
@@ -38105,7 +38100,7 @@
         <v>473</v>
       </c>
       <c r="F1311" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1312" spans="1:7">
@@ -38125,7 +38120,7 @@
         <v>473</v>
       </c>
       <c r="F1312" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1313" spans="1:7" ht="28.8">
@@ -38145,10 +38140,10 @@
         <v>473</v>
       </c>
       <c r="F1313" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1313" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1314" spans="1:7" ht="28.8">
@@ -38168,10 +38163,10 @@
         <v>473</v>
       </c>
       <c r="F1314" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1314" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1315" spans="1:7" ht="28.8">
@@ -38191,10 +38186,10 @@
         <v>473</v>
       </c>
       <c r="F1315" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1315" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1316" spans="1:7" ht="28.8">
@@ -38214,10 +38209,10 @@
         <v>473</v>
       </c>
       <c r="F1316" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1316" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1317" spans="1:7">
@@ -38237,7 +38232,7 @@
         <v>473</v>
       </c>
       <c r="F1317" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1318" spans="1:7">
@@ -38257,7 +38252,7 @@
         <v>473</v>
       </c>
       <c r="F1318" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1319" spans="1:7">
@@ -38277,7 +38272,7 @@
         <v>473</v>
       </c>
       <c r="F1319" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1320" spans="1:7">
@@ -38297,7 +38292,7 @@
         <v>473</v>
       </c>
       <c r="F1320" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1321" spans="1:7">
@@ -38317,7 +38312,7 @@
         <v>473</v>
       </c>
       <c r="F1321" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1322" spans="1:7">
@@ -38337,7 +38332,7 @@
         <v>473</v>
       </c>
       <c r="F1322" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1323" spans="1:7">
@@ -38357,7 +38352,7 @@
         <v>601</v>
       </c>
       <c r="F1323" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1324" spans="1:7">
@@ -38377,7 +38372,7 @@
         <v>477</v>
       </c>
       <c r="F1324" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1325" spans="1:7">
@@ -38397,7 +38392,7 @@
         <v>473</v>
       </c>
       <c r="F1325" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1326" spans="1:7">
@@ -38417,7 +38412,7 @@
         <v>473</v>
       </c>
       <c r="F1326" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1327" spans="1:7">
@@ -38437,7 +38432,7 @@
         <v>473</v>
       </c>
       <c r="F1327" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1328" spans="1:7">
@@ -38457,7 +38452,7 @@
         <v>473</v>
       </c>
       <c r="F1328" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1329" spans="1:7">
@@ -38477,7 +38472,7 @@
         <v>473</v>
       </c>
       <c r="F1329" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1330" spans="1:7">
@@ -38497,7 +38492,7 @@
         <v>473</v>
       </c>
       <c r="F1330" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1331" spans="1:7">
@@ -38517,7 +38512,7 @@
         <v>473</v>
       </c>
       <c r="F1331" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1332" spans="1:7">
@@ -38537,7 +38532,7 @@
         <v>473</v>
       </c>
       <c r="F1332" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1333" spans="1:7">
@@ -38557,7 +38552,7 @@
         <v>473</v>
       </c>
       <c r="F1333" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1334" spans="1:7">
@@ -38577,7 +38572,7 @@
         <v>473</v>
       </c>
       <c r="F1334" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1335" spans="1:7">
@@ -38597,7 +38592,7 @@
         <v>473</v>
       </c>
       <c r="F1335" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1336" spans="1:7">
@@ -38617,7 +38612,7 @@
         <v>473</v>
       </c>
       <c r="F1336" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1337" spans="1:7">
@@ -38657,7 +38652,7 @@
         <v>473</v>
       </c>
       <c r="F1338" s="14" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1339" spans="1:7">
@@ -38677,7 +38672,7 @@
         <v>474</v>
       </c>
       <c r="F1339" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1340" spans="1:7">
@@ -38697,7 +38692,7 @@
         <v>474</v>
       </c>
       <c r="F1340" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1341" spans="1:7" ht="115.2">
@@ -38713,7 +38708,7 @@
         <v>1832</v>
       </c>
       <c r="G1341" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1342" spans="1:7">
@@ -38733,7 +38728,7 @@
         <v>599</v>
       </c>
       <c r="F1342" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1343" spans="1:7">
@@ -38753,7 +38748,7 @@
         <v>599</v>
       </c>
       <c r="F1343" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1344" spans="1:7">
@@ -38773,7 +38768,7 @@
         <v>473</v>
       </c>
       <c r="F1344" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1345" spans="1:7">
@@ -38793,7 +38788,7 @@
         <v>473</v>
       </c>
       <c r="F1345" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1346" spans="1:7" ht="28.8">
@@ -38813,10 +38808,10 @@
         <v>473</v>
       </c>
       <c r="F1346" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1346" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1347" spans="1:7" ht="28.8">
@@ -38836,10 +38831,10 @@
         <v>473</v>
       </c>
       <c r="F1347" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1347" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1348" spans="1:7" ht="28.8">
@@ -38859,10 +38854,10 @@
         <v>473</v>
       </c>
       <c r="F1348" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1348" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1349" spans="1:7" ht="28.8">
@@ -38882,10 +38877,10 @@
         <v>473</v>
       </c>
       <c r="F1349" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1349" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1350" spans="1:7">
@@ -38905,7 +38900,7 @@
         <v>473</v>
       </c>
       <c r="F1350" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1351" spans="1:7">
@@ -38925,7 +38920,7 @@
         <v>473</v>
       </c>
       <c r="F1351" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1352" spans="1:7">
@@ -38945,7 +38940,7 @@
         <v>473</v>
       </c>
       <c r="F1352" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1353" spans="1:7">
@@ -38965,7 +38960,7 @@
         <v>473</v>
       </c>
       <c r="F1353" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1354" spans="1:7">
@@ -38985,7 +38980,7 @@
         <v>473</v>
       </c>
       <c r="F1354" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1355" spans="1:7">
@@ -39005,7 +39000,7 @@
         <v>473</v>
       </c>
       <c r="F1355" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1356" spans="1:7">
@@ -39025,7 +39020,7 @@
         <v>601</v>
       </c>
       <c r="F1356" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1357" spans="1:7">
@@ -39045,7 +39040,7 @@
         <v>477</v>
       </c>
       <c r="F1357" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1358" spans="1:7">
@@ -39065,7 +39060,7 @@
         <v>473</v>
       </c>
       <c r="F1358" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1359" spans="1:7">
@@ -39085,7 +39080,7 @@
         <v>473</v>
       </c>
       <c r="F1359" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1360" spans="1:7">
@@ -39105,7 +39100,7 @@
         <v>473</v>
       </c>
       <c r="F1360" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1361" spans="1:7">
@@ -39125,7 +39120,7 @@
         <v>473</v>
       </c>
       <c r="F1361" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1362" spans="1:7">
@@ -39145,7 +39140,7 @@
         <v>473</v>
       </c>
       <c r="F1362" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1363" spans="1:7">
@@ -39165,7 +39160,7 @@
         <v>473</v>
       </c>
       <c r="F1363" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1364" spans="1:7">
@@ -39185,7 +39180,7 @@
         <v>473</v>
       </c>
       <c r="F1364" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1365" spans="1:7">
@@ -39205,7 +39200,7 @@
         <v>473</v>
       </c>
       <c r="F1365" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1366" spans="1:7">
@@ -39225,7 +39220,7 @@
         <v>473</v>
       </c>
       <c r="F1366" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1367" spans="1:7">
@@ -39245,7 +39240,7 @@
         <v>473</v>
       </c>
       <c r="F1367" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1368" spans="1:7">
@@ -39265,7 +39260,7 @@
         <v>473</v>
       </c>
       <c r="F1368" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1369" spans="1:7">
@@ -39285,7 +39280,7 @@
         <v>473</v>
       </c>
       <c r="F1369" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1370" spans="1:7">
@@ -39325,7 +39320,7 @@
         <v>473</v>
       </c>
       <c r="F1371" s="14" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1372" spans="1:7">
@@ -39345,7 +39340,7 @@
         <v>474</v>
       </c>
       <c r="F1372" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1373" spans="1:7">
@@ -39365,7 +39360,7 @@
         <v>474</v>
       </c>
       <c r="F1373" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1374" spans="1:7" ht="115.2">
@@ -39381,7 +39376,7 @@
         <v>1832</v>
       </c>
       <c r="G1374" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1375" spans="1:7">
@@ -39401,7 +39396,7 @@
         <v>599</v>
       </c>
       <c r="F1375" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1376" spans="1:7">
@@ -39421,7 +39416,7 @@
         <v>599</v>
       </c>
       <c r="F1376" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1377" spans="1:7">
@@ -39441,7 +39436,7 @@
         <v>473</v>
       </c>
       <c r="F1377" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1378" spans="1:7">
@@ -39461,7 +39456,7 @@
         <v>473</v>
       </c>
       <c r="F1378" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1379" spans="1:7" ht="28.8">
@@ -39481,10 +39476,10 @@
         <v>473</v>
       </c>
       <c r="F1379" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1379" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1380" spans="1:7" ht="28.8">
@@ -39504,10 +39499,10 @@
         <v>473</v>
       </c>
       <c r="F1380" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1380" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1381" spans="1:7" ht="28.8">
@@ -39527,10 +39522,10 @@
         <v>473</v>
       </c>
       <c r="F1381" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1381" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1382" spans="1:7" ht="28.8">
@@ -39550,10 +39545,10 @@
         <v>473</v>
       </c>
       <c r="F1382" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1382" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1383" spans="1:7">
@@ -39573,7 +39568,7 @@
         <v>473</v>
       </c>
       <c r="F1383" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1384" spans="1:7">
@@ -39593,7 +39588,7 @@
         <v>473</v>
       </c>
       <c r="F1384" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1385" spans="1:7">
@@ -39613,7 +39608,7 @@
         <v>473</v>
       </c>
       <c r="F1385" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1386" spans="1:7">
@@ -39633,7 +39628,7 @@
         <v>473</v>
       </c>
       <c r="F1386" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1387" spans="1:7">
@@ -39653,7 +39648,7 @@
         <v>473</v>
       </c>
       <c r="F1387" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1388" spans="1:7">
@@ -39673,7 +39668,7 @@
         <v>473</v>
       </c>
       <c r="F1388" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1389" spans="1:7">
@@ -39693,7 +39688,7 @@
         <v>601</v>
       </c>
       <c r="F1389" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1390" spans="1:7">
@@ -39713,7 +39708,7 @@
         <v>477</v>
       </c>
       <c r="F1390" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1391" spans="1:7">
@@ -39733,7 +39728,7 @@
         <v>473</v>
       </c>
       <c r="F1391" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1392" spans="1:7">
@@ -39753,7 +39748,7 @@
         <v>473</v>
       </c>
       <c r="F1392" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1393" spans="1:7">
@@ -39773,7 +39768,7 @@
         <v>473</v>
       </c>
       <c r="F1393" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1394" spans="1:7">
@@ -39793,7 +39788,7 @@
         <v>473</v>
       </c>
       <c r="F1394" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1395" spans="1:7">
@@ -39813,7 +39808,7 @@
         <v>473</v>
       </c>
       <c r="F1395" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1396" spans="1:7">
@@ -39833,7 +39828,7 @@
         <v>473</v>
       </c>
       <c r="F1396" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1397" spans="1:7">
@@ -39853,7 +39848,7 @@
         <v>473</v>
       </c>
       <c r="F1397" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1398" spans="1:7">
@@ -39873,7 +39868,7 @@
         <v>473</v>
       </c>
       <c r="F1398" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1399" spans="1:7">
@@ -39893,7 +39888,7 @@
         <v>473</v>
       </c>
       <c r="F1399" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1400" spans="1:7">
@@ -39913,7 +39908,7 @@
         <v>473</v>
       </c>
       <c r="F1400" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1401" spans="1:7">
@@ -39933,7 +39928,7 @@
         <v>473</v>
       </c>
       <c r="F1401" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1402" spans="1:7">
@@ -39953,7 +39948,7 @@
         <v>473</v>
       </c>
       <c r="F1402" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1403" spans="1:7">
@@ -39993,7 +39988,7 @@
         <v>473</v>
       </c>
       <c r="F1404" s="14" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1405" spans="1:7">
@@ -40013,7 +40008,7 @@
         <v>474</v>
       </c>
       <c r="F1405" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1406" spans="1:7">
@@ -40033,7 +40028,7 @@
         <v>474</v>
       </c>
       <c r="F1406" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1407" spans="1:7" ht="115.2">
@@ -40049,7 +40044,7 @@
         <v>1832</v>
       </c>
       <c r="G1407" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1408" spans="1:7">
@@ -40069,7 +40064,7 @@
         <v>599</v>
       </c>
       <c r="F1408" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1409" spans="1:7">
@@ -40089,7 +40084,7 @@
         <v>599</v>
       </c>
       <c r="F1409" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1410" spans="1:7">
@@ -40109,7 +40104,7 @@
         <v>473</v>
       </c>
       <c r="F1410" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1411" spans="1:7">
@@ -40129,7 +40124,7 @@
         <v>473</v>
       </c>
       <c r="F1411" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1412" spans="1:7" ht="28.8">
@@ -40149,10 +40144,10 @@
         <v>473</v>
       </c>
       <c r="F1412" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1412" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1413" spans="1:7" ht="28.8">
@@ -40172,10 +40167,10 @@
         <v>473</v>
       </c>
       <c r="F1413" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1413" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1414" spans="1:7" ht="28.8">
@@ -40195,10 +40190,10 @@
         <v>473</v>
       </c>
       <c r="F1414" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1414" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1415" spans="1:7" ht="28.8">
@@ -40218,10 +40213,10 @@
         <v>473</v>
       </c>
       <c r="F1415" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1415" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1416" spans="1:7">
@@ -40241,7 +40236,7 @@
         <v>473</v>
       </c>
       <c r="F1416" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1417" spans="1:7">
@@ -40261,7 +40256,7 @@
         <v>473</v>
       </c>
       <c r="F1417" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1418" spans="1:7">
@@ -40281,7 +40276,7 @@
         <v>473</v>
       </c>
       <c r="F1418" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1419" spans="1:7">
@@ -40301,7 +40296,7 @@
         <v>473</v>
       </c>
       <c r="F1419" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1420" spans="1:7">
@@ -40321,7 +40316,7 @@
         <v>473</v>
       </c>
       <c r="F1420" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1421" spans="1:7">
@@ -40341,7 +40336,7 @@
         <v>473</v>
       </c>
       <c r="F1421" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1422" spans="1:7">
@@ -40361,7 +40356,7 @@
         <v>601</v>
       </c>
       <c r="F1422" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1423" spans="1:7">
@@ -40381,7 +40376,7 @@
         <v>477</v>
       </c>
       <c r="F1423" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1424" spans="1:7">
@@ -40401,7 +40396,7 @@
         <v>473</v>
       </c>
       <c r="F1424" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1425" spans="1:7">
@@ -40421,7 +40416,7 @@
         <v>473</v>
       </c>
       <c r="F1425" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1426" spans="1:7">
@@ -40441,7 +40436,7 @@
         <v>473</v>
       </c>
       <c r="F1426" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1427" spans="1:7">
@@ -40461,7 +40456,7 @@
         <v>473</v>
       </c>
       <c r="F1427" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1428" spans="1:7">
@@ -40481,7 +40476,7 @@
         <v>473</v>
       </c>
       <c r="F1428" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1429" spans="1:7">
@@ -40501,7 +40496,7 @@
         <v>473</v>
       </c>
       <c r="F1429" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1430" spans="1:7">
@@ -40521,7 +40516,7 @@
         <v>473</v>
       </c>
       <c r="F1430" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1431" spans="1:7">
@@ -40541,7 +40536,7 @@
         <v>473</v>
       </c>
       <c r="F1431" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1432" spans="1:7">
@@ -40561,7 +40556,7 @@
         <v>473</v>
       </c>
       <c r="F1432" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1433" spans="1:7">
@@ -40581,7 +40576,7 @@
         <v>473</v>
       </c>
       <c r="F1433" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1434" spans="1:7">
@@ -40601,7 +40596,7 @@
         <v>473</v>
       </c>
       <c r="F1434" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1435" spans="1:7">
@@ -40621,7 +40616,7 @@
         <v>473</v>
       </c>
       <c r="F1435" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1436" spans="1:7">
@@ -40661,7 +40656,7 @@
         <v>473</v>
       </c>
       <c r="F1437" s="14" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1438" spans="1:7">
@@ -40681,7 +40676,7 @@
         <v>474</v>
       </c>
       <c r="F1438" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1439" spans="1:7">
@@ -40701,7 +40696,7 @@
         <v>474</v>
       </c>
       <c r="F1439" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1440" spans="1:7" ht="115.2">
@@ -40717,7 +40712,7 @@
         <v>1832</v>
       </c>
       <c r="G1440" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1441" spans="1:7">
@@ -40737,7 +40732,7 @@
         <v>599</v>
       </c>
       <c r="F1441" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1442" spans="1:7">
@@ -40757,7 +40752,7 @@
         <v>599</v>
       </c>
       <c r="F1442" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1443" spans="1:7">
@@ -40777,7 +40772,7 @@
         <v>473</v>
       </c>
       <c r="F1443" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1444" spans="1:7">
@@ -40797,7 +40792,7 @@
         <v>473</v>
       </c>
       <c r="F1444" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1445" spans="1:7" ht="28.8">
@@ -40817,10 +40812,10 @@
         <v>473</v>
       </c>
       <c r="F1445" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1445" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1446" spans="1:7" ht="28.8">
@@ -40840,10 +40835,10 @@
         <v>473</v>
       </c>
       <c r="F1446" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1446" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1447" spans="1:7" ht="28.8">
@@ -40863,10 +40858,10 @@
         <v>473</v>
       </c>
       <c r="F1447" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1447" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1448" spans="1:7" ht="28.8">
@@ -40886,10 +40881,10 @@
         <v>473</v>
       </c>
       <c r="F1448" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1448" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1449" spans="1:7">
@@ -40909,7 +40904,7 @@
         <v>473</v>
       </c>
       <c r="F1449" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1450" spans="1:7">
@@ -40929,7 +40924,7 @@
         <v>473</v>
       </c>
       <c r="F1450" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1451" spans="1:7">
@@ -40949,7 +40944,7 @@
         <v>473</v>
       </c>
       <c r="F1451" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1452" spans="1:7">
@@ -40969,7 +40964,7 @@
         <v>473</v>
       </c>
       <c r="F1452" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1453" spans="1:7">
@@ -40989,7 +40984,7 @@
         <v>473</v>
       </c>
       <c r="F1453" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1454" spans="1:7">
@@ -41009,7 +41004,7 @@
         <v>473</v>
       </c>
       <c r="F1454" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1455" spans="1:7">
@@ -41029,7 +41024,7 @@
         <v>601</v>
       </c>
       <c r="F1455" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1456" spans="1:7">
@@ -41049,7 +41044,7 @@
         <v>477</v>
       </c>
       <c r="F1456" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1457" spans="1:6">
@@ -41069,7 +41064,7 @@
         <v>473</v>
       </c>
       <c r="F1457" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1458" spans="1:6">
@@ -41089,7 +41084,7 @@
         <v>473</v>
       </c>
       <c r="F1458" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1459" spans="1:6">
@@ -41109,7 +41104,7 @@
         <v>473</v>
       </c>
       <c r="F1459" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1460" spans="1:6">
@@ -41129,7 +41124,7 @@
         <v>473</v>
       </c>
       <c r="F1460" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1461" spans="1:6">
@@ -41149,7 +41144,7 @@
         <v>473</v>
       </c>
       <c r="F1461" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1462" spans="1:6">
@@ -41169,7 +41164,7 @@
         <v>473</v>
       </c>
       <c r="F1462" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1463" spans="1:6">
@@ -41189,7 +41184,7 @@
         <v>473</v>
       </c>
       <c r="F1463" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1464" spans="1:6">
@@ -41209,7 +41204,7 @@
         <v>473</v>
       </c>
       <c r="F1464" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1465" spans="1:6">
@@ -41229,7 +41224,7 @@
         <v>473</v>
       </c>
       <c r="F1465" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1466" spans="1:6">
@@ -41249,7 +41244,7 @@
         <v>473</v>
       </c>
       <c r="F1466" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1467" spans="1:6">
@@ -41269,7 +41264,7 @@
         <v>473</v>
       </c>
       <c r="F1467" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1468" spans="1:6">
@@ -41289,7 +41284,7 @@
         <v>473</v>
       </c>
       <c r="F1468" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1469" spans="1:6">
@@ -41329,7 +41324,7 @@
         <v>473</v>
       </c>
       <c r="F1470" s="14" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1471" spans="1:6">
@@ -41349,7 +41344,7 @@
         <v>474</v>
       </c>
       <c r="F1471" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1472" spans="1:6">
@@ -41369,7 +41364,7 @@
         <v>474</v>
       </c>
       <c r="F1472" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1473" spans="1:7" ht="115.2">
@@ -41385,7 +41380,7 @@
         <v>1832</v>
       </c>
       <c r="G1473" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1474" spans="1:7">
@@ -41405,7 +41400,7 @@
         <v>599</v>
       </c>
       <c r="F1474" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1475" spans="1:7">
@@ -41425,7 +41420,7 @@
         <v>599</v>
       </c>
       <c r="F1475" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1476" spans="1:7">
@@ -41445,7 +41440,7 @@
         <v>473</v>
       </c>
       <c r="F1476" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1477" spans="1:7">
@@ -41465,7 +41460,7 @@
         <v>473</v>
       </c>
       <c r="F1477" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1478" spans="1:7" ht="28.8">
@@ -41485,10 +41480,10 @@
         <v>473</v>
       </c>
       <c r="F1478" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1478" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1479" spans="1:7" ht="28.8">
@@ -41508,10 +41503,10 @@
         <v>473</v>
       </c>
       <c r="F1479" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1479" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1480" spans="1:7" ht="28.8">
@@ -41531,10 +41526,10 @@
         <v>473</v>
       </c>
       <c r="F1480" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1480" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1481" spans="1:7" ht="28.8">
@@ -41554,10 +41549,10 @@
         <v>473</v>
       </c>
       <c r="F1481" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1481" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1482" spans="1:7">
@@ -41577,7 +41572,7 @@
         <v>473</v>
       </c>
       <c r="F1482" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1483" spans="1:7">
@@ -41597,7 +41592,7 @@
         <v>473</v>
       </c>
       <c r="F1483" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1484" spans="1:7">
@@ -41617,7 +41612,7 @@
         <v>473</v>
       </c>
       <c r="F1484" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1485" spans="1:7">
@@ -41637,7 +41632,7 @@
         <v>473</v>
       </c>
       <c r="F1485" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1486" spans="1:7">
@@ -41657,7 +41652,7 @@
         <v>473</v>
       </c>
       <c r="F1486" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1487" spans="1:7">
@@ -41677,7 +41672,7 @@
         <v>473</v>
       </c>
       <c r="F1487" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1488" spans="1:7">
@@ -41697,7 +41692,7 @@
         <v>601</v>
       </c>
       <c r="F1488" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1489" spans="1:6">
@@ -41717,7 +41712,7 @@
         <v>477</v>
       </c>
       <c r="F1489" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1490" spans="1:6">
@@ -41737,7 +41732,7 @@
         <v>473</v>
       </c>
       <c r="F1490" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1491" spans="1:6">
@@ -41757,7 +41752,7 @@
         <v>473</v>
       </c>
       <c r="F1491" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1492" spans="1:6">
@@ -41777,7 +41772,7 @@
         <v>473</v>
       </c>
       <c r="F1492" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1493" spans="1:6">
@@ -41797,7 +41792,7 @@
         <v>473</v>
       </c>
       <c r="F1493" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1494" spans="1:6">
@@ -41817,7 +41812,7 @@
         <v>473</v>
       </c>
       <c r="F1494" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1495" spans="1:6">
@@ -41837,7 +41832,7 @@
         <v>473</v>
       </c>
       <c r="F1495" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1496" spans="1:6">
@@ -41857,7 +41852,7 @@
         <v>473</v>
       </c>
       <c r="F1496" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1497" spans="1:6">
@@ -41877,7 +41872,7 @@
         <v>473</v>
       </c>
       <c r="F1497" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1498" spans="1:6">
@@ -41897,7 +41892,7 @@
         <v>473</v>
       </c>
       <c r="F1498" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1499" spans="1:6">
@@ -41917,7 +41912,7 @@
         <v>473</v>
       </c>
       <c r="F1499" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1500" spans="1:6">
@@ -41937,7 +41932,7 @@
         <v>473</v>
       </c>
       <c r="F1500" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1501" spans="1:6">
@@ -41957,7 +41952,7 @@
         <v>473</v>
       </c>
       <c r="F1501" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1502" spans="1:6">
@@ -41997,7 +41992,7 @@
         <v>473</v>
       </c>
       <c r="F1503" s="14" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1504" spans="1:6">
@@ -42017,7 +42012,7 @@
         <v>474</v>
       </c>
       <c r="F1504" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1505" spans="1:7">
@@ -42037,7 +42032,7 @@
         <v>474</v>
       </c>
       <c r="F1505" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1506" spans="1:7" ht="115.2">
@@ -42053,7 +42048,7 @@
         <v>1832</v>
       </c>
       <c r="G1506" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1507" spans="1:7">
@@ -42073,7 +42068,7 @@
         <v>599</v>
       </c>
       <c r="F1507" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1508" spans="1:7">
@@ -42093,7 +42088,7 @@
         <v>599</v>
       </c>
       <c r="F1508" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1509" spans="1:7">
@@ -42113,7 +42108,7 @@
         <v>473</v>
       </c>
       <c r="F1509" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1510" spans="1:7">
@@ -42133,7 +42128,7 @@
         <v>473</v>
       </c>
       <c r="F1510" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1511" spans="1:7" ht="28.8">
@@ -42153,10 +42148,10 @@
         <v>473</v>
       </c>
       <c r="F1511" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1511" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1512" spans="1:7" ht="28.8">
@@ -42176,10 +42171,10 @@
         <v>473</v>
       </c>
       <c r="F1512" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1512" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1513" spans="1:7" ht="28.8">
@@ -42199,10 +42194,10 @@
         <v>473</v>
       </c>
       <c r="F1513" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1513" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1514" spans="1:7" ht="28.8">
@@ -42222,10 +42217,10 @@
         <v>473</v>
       </c>
       <c r="F1514" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1514" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1515" spans="1:7">
@@ -42245,7 +42240,7 @@
         <v>473</v>
       </c>
       <c r="F1515" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1516" spans="1:7">
@@ -42265,7 +42260,7 @@
         <v>473</v>
       </c>
       <c r="F1516" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1517" spans="1:7">
@@ -42285,7 +42280,7 @@
         <v>473</v>
       </c>
       <c r="F1517" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1518" spans="1:7">
@@ -42305,7 +42300,7 @@
         <v>473</v>
       </c>
       <c r="F1518" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1519" spans="1:7">
@@ -42325,7 +42320,7 @@
         <v>473</v>
       </c>
       <c r="F1519" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1520" spans="1:7">
@@ -42345,7 +42340,7 @@
         <v>473</v>
       </c>
       <c r="F1520" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1521" spans="1:6">
@@ -42365,7 +42360,7 @@
         <v>601</v>
       </c>
       <c r="F1521" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1522" spans="1:6">
@@ -42385,7 +42380,7 @@
         <v>477</v>
       </c>
       <c r="F1522" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1523" spans="1:6">
@@ -42405,7 +42400,7 @@
         <v>473</v>
       </c>
       <c r="F1523" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1524" spans="1:6">
@@ -42425,7 +42420,7 @@
         <v>473</v>
       </c>
       <c r="F1524" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1525" spans="1:6">
@@ -42445,7 +42440,7 @@
         <v>473</v>
       </c>
       <c r="F1525" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1526" spans="1:6">
@@ -42465,7 +42460,7 @@
         <v>473</v>
       </c>
       <c r="F1526" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1527" spans="1:6">
@@ -42485,7 +42480,7 @@
         <v>473</v>
       </c>
       <c r="F1527" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1528" spans="1:6">
@@ -42505,7 +42500,7 @@
         <v>473</v>
       </c>
       <c r="F1528" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1529" spans="1:6">
@@ -42525,7 +42520,7 @@
         <v>473</v>
       </c>
       <c r="F1529" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1530" spans="1:6">
@@ -42545,7 +42540,7 @@
         <v>473</v>
       </c>
       <c r="F1530" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1531" spans="1:6">
@@ -42565,7 +42560,7 @@
         <v>473</v>
       </c>
       <c r="F1531" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1532" spans="1:6">
@@ -42585,7 +42580,7 @@
         <v>473</v>
       </c>
       <c r="F1532" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1533" spans="1:6">
@@ -42605,7 +42600,7 @@
         <v>473</v>
       </c>
       <c r="F1533" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1534" spans="1:6">
@@ -42625,7 +42620,7 @@
         <v>473</v>
       </c>
       <c r="F1534" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1535" spans="1:6">
@@ -42665,7 +42660,7 @@
         <v>473</v>
       </c>
       <c r="F1536" s="14" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1537" spans="1:7">
@@ -42685,7 +42680,7 @@
         <v>474</v>
       </c>
       <c r="F1537" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1538" spans="1:7">
@@ -42705,7 +42700,7 @@
         <v>474</v>
       </c>
       <c r="F1538" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1539" spans="1:7" ht="115.2">
@@ -42721,7 +42716,7 @@
         <v>1832</v>
       </c>
       <c r="G1539" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1540" spans="1:7">
@@ -42741,7 +42736,7 @@
         <v>599</v>
       </c>
       <c r="F1540" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1541" spans="1:7">
@@ -42761,7 +42756,7 @@
         <v>599</v>
       </c>
       <c r="F1541" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1542" spans="1:7">
@@ -42781,7 +42776,7 @@
         <v>473</v>
       </c>
       <c r="F1542" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1543" spans="1:7">
@@ -42801,7 +42796,7 @@
         <v>473</v>
       </c>
       <c r="F1543" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1544" spans="1:7" ht="28.8">
@@ -42821,10 +42816,10 @@
         <v>473</v>
       </c>
       <c r="F1544" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1544" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1545" spans="1:7" ht="28.8">
@@ -42844,10 +42839,10 @@
         <v>473</v>
       </c>
       <c r="F1545" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1545" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1546" spans="1:7" ht="28.8">
@@ -42867,10 +42862,10 @@
         <v>473</v>
       </c>
       <c r="F1546" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1546" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1547" spans="1:7" ht="28.8">
@@ -42890,10 +42885,10 @@
         <v>473</v>
       </c>
       <c r="F1547" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1547" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1548" spans="1:7">
@@ -42913,7 +42908,7 @@
         <v>473</v>
       </c>
       <c r="F1548" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1549" spans="1:7">
@@ -42933,7 +42928,7 @@
         <v>473</v>
       </c>
       <c r="F1549" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1550" spans="1:7">
@@ -42953,7 +42948,7 @@
         <v>473</v>
       </c>
       <c r="F1550" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1551" spans="1:7">
@@ -42973,7 +42968,7 @@
         <v>473</v>
       </c>
       <c r="F1551" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1552" spans="1:7">
@@ -42993,7 +42988,7 @@
         <v>473</v>
       </c>
       <c r="F1552" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1553" spans="1:6">
@@ -43013,7 +43008,7 @@
         <v>473</v>
       </c>
       <c r="F1553" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1554" spans="1:6">
@@ -43033,7 +43028,7 @@
         <v>601</v>
       </c>
       <c r="F1554" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1555" spans="1:6">
@@ -43053,7 +43048,7 @@
         <v>477</v>
       </c>
       <c r="F1555" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1556" spans="1:6">
@@ -43073,7 +43068,7 @@
         <v>473</v>
       </c>
       <c r="F1556" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1557" spans="1:6">
@@ -43093,7 +43088,7 @@
         <v>473</v>
       </c>
       <c r="F1557" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1558" spans="1:6">
@@ -43113,7 +43108,7 @@
         <v>473</v>
       </c>
       <c r="F1558" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1559" spans="1:6">
@@ -43133,7 +43128,7 @@
         <v>473</v>
       </c>
       <c r="F1559" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1560" spans="1:6">
@@ -43153,7 +43148,7 @@
         <v>473</v>
       </c>
       <c r="F1560" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1561" spans="1:6">
@@ -43173,7 +43168,7 @@
         <v>473</v>
       </c>
       <c r="F1561" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1562" spans="1:6">
@@ -43193,7 +43188,7 @@
         <v>473</v>
       </c>
       <c r="F1562" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1563" spans="1:6">
@@ -43213,7 +43208,7 @@
         <v>473</v>
       </c>
       <c r="F1563" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1564" spans="1:6">
@@ -43233,7 +43228,7 @@
         <v>473</v>
       </c>
       <c r="F1564" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1565" spans="1:6">
@@ -43253,7 +43248,7 @@
         <v>473</v>
       </c>
       <c r="F1565" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1566" spans="1:6">
@@ -43273,7 +43268,7 @@
         <v>473</v>
       </c>
       <c r="F1566" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1567" spans="1:6">
@@ -43293,7 +43288,7 @@
         <v>473</v>
       </c>
       <c r="F1567" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1568" spans="1:6">
@@ -43333,7 +43328,7 @@
         <v>473</v>
       </c>
       <c r="F1569" s="14" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1570" spans="1:7">
@@ -43353,7 +43348,7 @@
         <v>474</v>
       </c>
       <c r="F1570" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1571" spans="1:7">
@@ -43373,7 +43368,7 @@
         <v>474</v>
       </c>
       <c r="F1571" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1572" spans="1:7" ht="115.2">
@@ -43389,7 +43384,7 @@
         <v>1832</v>
       </c>
       <c r="G1572" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1573" spans="1:7">
@@ -43409,7 +43404,7 @@
         <v>599</v>
       </c>
       <c r="F1573" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1574" spans="1:7">
@@ -43429,7 +43424,7 @@
         <v>599</v>
       </c>
       <c r="F1574" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1575" spans="1:7">
@@ -43449,7 +43444,7 @@
         <v>473</v>
       </c>
       <c r="F1575" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1576" spans="1:7">
@@ -43469,7 +43464,7 @@
         <v>473</v>
       </c>
       <c r="F1576" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1577" spans="1:7" ht="28.8">
@@ -43489,10 +43484,10 @@
         <v>473</v>
       </c>
       <c r="F1577" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1577" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1578" spans="1:7" ht="28.8">
@@ -43512,10 +43507,10 @@
         <v>473</v>
       </c>
       <c r="F1578" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1578" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1579" spans="1:7" ht="28.8">
@@ -43535,10 +43530,10 @@
         <v>473</v>
       </c>
       <c r="F1579" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1579" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1580" spans="1:7" ht="28.8">
@@ -43558,10 +43553,10 @@
         <v>473</v>
       </c>
       <c r="F1580" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1580" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1581" spans="1:7">
@@ -43581,7 +43576,7 @@
         <v>473</v>
       </c>
       <c r="F1581" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1582" spans="1:7">
@@ -43601,7 +43596,7 @@
         <v>473</v>
       </c>
       <c r="F1582" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1583" spans="1:7">
@@ -43621,7 +43616,7 @@
         <v>473</v>
       </c>
       <c r="F1583" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1584" spans="1:7">
@@ -43641,7 +43636,7 @@
         <v>473</v>
       </c>
       <c r="F1584" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1585" spans="1:6">
@@ -43661,7 +43656,7 @@
         <v>473</v>
       </c>
       <c r="F1585" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1586" spans="1:6">
@@ -43681,7 +43676,7 @@
         <v>473</v>
       </c>
       <c r="F1586" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1587" spans="1:6">
@@ -43701,7 +43696,7 @@
         <v>601</v>
       </c>
       <c r="F1587" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1588" spans="1:6">
@@ -43721,7 +43716,7 @@
         <v>477</v>
       </c>
       <c r="F1588" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1589" spans="1:6">
@@ -43741,7 +43736,7 @@
         <v>473</v>
       </c>
       <c r="F1589" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1590" spans="1:6">
@@ -43761,7 +43756,7 @@
         <v>473</v>
       </c>
       <c r="F1590" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1591" spans="1:6">
@@ -43781,7 +43776,7 @@
         <v>473</v>
       </c>
       <c r="F1591" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1592" spans="1:6">
@@ -43801,7 +43796,7 @@
         <v>473</v>
       </c>
       <c r="F1592" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1593" spans="1:6">
@@ -43821,7 +43816,7 @@
         <v>473</v>
       </c>
       <c r="F1593" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1594" spans="1:6">
@@ -43841,7 +43836,7 @@
         <v>473</v>
       </c>
       <c r="F1594" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1595" spans="1:6">
@@ -43861,7 +43856,7 @@
         <v>473</v>
       </c>
       <c r="F1595" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1596" spans="1:6">
@@ -43881,7 +43876,7 @@
         <v>473</v>
       </c>
       <c r="F1596" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1597" spans="1:6">
@@ -43901,7 +43896,7 @@
         <v>473</v>
       </c>
       <c r="F1597" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1598" spans="1:6">
@@ -43921,7 +43916,7 @@
         <v>473</v>
       </c>
       <c r="F1598" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1599" spans="1:6">
@@ -43941,7 +43936,7 @@
         <v>473</v>
       </c>
       <c r="F1599" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1600" spans="1:6">
@@ -43961,7 +43956,7 @@
         <v>473</v>
       </c>
       <c r="F1600" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1601" spans="1:7">
@@ -44001,7 +43996,7 @@
         <v>472</v>
       </c>
       <c r="F1602" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1603" spans="1:7">
@@ -44021,7 +44016,7 @@
         <v>474</v>
       </c>
       <c r="F1603" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1604" spans="1:7">
@@ -44041,7 +44036,7 @@
         <v>474</v>
       </c>
       <c r="F1604" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1605" spans="1:7" ht="115.2">
@@ -44057,7 +44052,7 @@
         <v>1832</v>
       </c>
       <c r="G1605" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1606" spans="1:7">
@@ -44077,7 +44072,7 @@
         <v>599</v>
       </c>
       <c r="F1606" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1607" spans="1:7">
@@ -44097,7 +44092,7 @@
         <v>599</v>
       </c>
       <c r="F1607" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1608" spans="1:7">
@@ -44117,7 +44112,7 @@
         <v>473</v>
       </c>
       <c r="F1608" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1609" spans="1:7">
@@ -44137,7 +44132,7 @@
         <v>473</v>
       </c>
       <c r="F1609" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1610" spans="1:7" ht="28.8">
@@ -44157,10 +44152,10 @@
         <v>473</v>
       </c>
       <c r="F1610" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1610" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1611" spans="1:7" ht="28.8">
@@ -44180,10 +44175,10 @@
         <v>473</v>
       </c>
       <c r="F1611" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1611" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1612" spans="1:7" ht="28.8">
@@ -44203,10 +44198,10 @@
         <v>473</v>
       </c>
       <c r="F1612" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1612" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1613" spans="1:7" ht="28.8">
@@ -44226,10 +44221,10 @@
         <v>473</v>
       </c>
       <c r="F1613" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1613" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1614" spans="1:7">
@@ -44249,7 +44244,7 @@
         <v>473</v>
       </c>
       <c r="F1614" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1615" spans="1:7">
@@ -44269,7 +44264,7 @@
         <v>473</v>
       </c>
       <c r="F1615" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1616" spans="1:7">
@@ -44289,7 +44284,7 @@
         <v>473</v>
       </c>
       <c r="F1616" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1617" spans="1:6">
@@ -44309,7 +44304,7 @@
         <v>473</v>
       </c>
       <c r="F1617" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1618" spans="1:6">
@@ -44329,7 +44324,7 @@
         <v>473</v>
       </c>
       <c r="F1618" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1619" spans="1:6">
@@ -44349,7 +44344,7 @@
         <v>473</v>
       </c>
       <c r="F1619" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1620" spans="1:6">
@@ -44369,7 +44364,7 @@
         <v>601</v>
       </c>
       <c r="F1620" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1621" spans="1:6">
@@ -44389,7 +44384,7 @@
         <v>477</v>
       </c>
       <c r="F1621" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1622" spans="1:6">
@@ -44409,7 +44404,7 @@
         <v>473</v>
       </c>
       <c r="F1622" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1623" spans="1:6">
@@ -44429,7 +44424,7 @@
         <v>473</v>
       </c>
       <c r="F1623" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1624" spans="1:6">
@@ -44449,7 +44444,7 @@
         <v>473</v>
       </c>
       <c r="F1624" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1625" spans="1:6">
@@ -44469,7 +44464,7 @@
         <v>473</v>
       </c>
       <c r="F1625" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1626" spans="1:6">
@@ -44489,7 +44484,7 @@
         <v>473</v>
       </c>
       <c r="F1626" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1627" spans="1:6">
@@ -44509,7 +44504,7 @@
         <v>473</v>
       </c>
       <c r="F1627" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1628" spans="1:6">
@@ -44529,7 +44524,7 @@
         <v>473</v>
       </c>
       <c r="F1628" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1629" spans="1:6">
@@ -44549,7 +44544,7 @@
         <v>473</v>
       </c>
       <c r="F1629" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1630" spans="1:6">
@@ -44569,7 +44564,7 @@
         <v>473</v>
       </c>
       <c r="F1630" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1631" spans="1:6">
@@ -44589,7 +44584,7 @@
         <v>473</v>
       </c>
       <c r="F1631" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1632" spans="1:6">
@@ -44609,7 +44604,7 @@
         <v>473</v>
       </c>
       <c r="F1632" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1633" spans="1:7">
@@ -44629,7 +44624,7 @@
         <v>473</v>
       </c>
       <c r="F1633" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1634" spans="1:7">
@@ -44669,7 +44664,7 @@
         <v>472</v>
       </c>
       <c r="F1635" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1636" spans="1:7">
@@ -44689,7 +44684,7 @@
         <v>474</v>
       </c>
       <c r="F1636" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1637" spans="1:7">
@@ -44709,7 +44704,7 @@
         <v>474</v>
       </c>
       <c r="F1637" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1638" spans="1:7" ht="115.2">
@@ -44725,7 +44720,7 @@
         <v>1832</v>
       </c>
       <c r="G1638" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1639" spans="1:7">
@@ -44745,7 +44740,7 @@
         <v>599</v>
       </c>
       <c r="F1639" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1640" spans="1:7">
@@ -44765,7 +44760,7 @@
         <v>599</v>
       </c>
       <c r="F1640" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1641" spans="1:7">
@@ -44785,7 +44780,7 @@
         <v>473</v>
       </c>
       <c r="F1641" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1642" spans="1:7">
@@ -44805,7 +44800,7 @@
         <v>473</v>
       </c>
       <c r="F1642" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1643" spans="1:7" ht="28.8">
@@ -44825,10 +44820,10 @@
         <v>473</v>
       </c>
       <c r="F1643" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1643" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1644" spans="1:7" ht="28.8">
@@ -44848,10 +44843,10 @@
         <v>473</v>
       </c>
       <c r="F1644" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1644" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1645" spans="1:7" ht="28.8">
@@ -44871,10 +44866,10 @@
         <v>473</v>
       </c>
       <c r="F1645" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1645" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1646" spans="1:7" ht="28.8">
@@ -44894,10 +44889,10 @@
         <v>473</v>
       </c>
       <c r="F1646" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1646" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1647" spans="1:7">
@@ -44917,7 +44912,7 @@
         <v>473</v>
       </c>
       <c r="F1647" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1648" spans="1:7">
@@ -44937,7 +44932,7 @@
         <v>473</v>
       </c>
       <c r="F1648" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1649" spans="1:6">
@@ -44957,7 +44952,7 @@
         <v>473</v>
       </c>
       <c r="F1649" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1650" spans="1:6">
@@ -44977,7 +44972,7 @@
         <v>473</v>
       </c>
       <c r="F1650" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1651" spans="1:6">
@@ -44997,7 +44992,7 @@
         <v>473</v>
       </c>
       <c r="F1651" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1652" spans="1:6">
@@ -45017,7 +45012,7 @@
         <v>473</v>
       </c>
       <c r="F1652" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1653" spans="1:6">
@@ -45037,7 +45032,7 @@
         <v>601</v>
       </c>
       <c r="F1653" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1654" spans="1:6">
@@ -45057,7 +45052,7 @@
         <v>477</v>
       </c>
       <c r="F1654" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1655" spans="1:6">
@@ -45077,7 +45072,7 @@
         <v>473</v>
       </c>
       <c r="F1655" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1656" spans="1:6">
@@ -45097,7 +45092,7 @@
         <v>473</v>
       </c>
       <c r="F1656" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1657" spans="1:6">
@@ -45117,7 +45112,7 @@
         <v>473</v>
       </c>
       <c r="F1657" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1658" spans="1:6">
@@ -45137,7 +45132,7 @@
         <v>473</v>
       </c>
       <c r="F1658" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1659" spans="1:6">
@@ -45157,7 +45152,7 @@
         <v>473</v>
       </c>
       <c r="F1659" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1660" spans="1:6">
@@ -45177,7 +45172,7 @@
         <v>473</v>
       </c>
       <c r="F1660" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1661" spans="1:6">
@@ -45197,7 +45192,7 @@
         <v>473</v>
       </c>
       <c r="F1661" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1662" spans="1:6">
@@ -45217,7 +45212,7 @@
         <v>473</v>
       </c>
       <c r="F1662" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1663" spans="1:6">
@@ -45237,7 +45232,7 @@
         <v>473</v>
       </c>
       <c r="F1663" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1664" spans="1:6">
@@ -45257,7 +45252,7 @@
         <v>473</v>
       </c>
       <c r="F1664" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1665" spans="1:7">
@@ -45277,7 +45272,7 @@
         <v>473</v>
       </c>
       <c r="F1665" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1666" spans="1:7">
@@ -45297,7 +45292,7 @@
         <v>473</v>
       </c>
       <c r="F1666" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1667" spans="1:7">
@@ -45337,7 +45332,7 @@
         <v>472</v>
       </c>
       <c r="F1668" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1669" spans="1:7">
@@ -45357,7 +45352,7 @@
         <v>474</v>
       </c>
       <c r="F1669" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1670" spans="1:7">
@@ -45377,7 +45372,7 @@
         <v>474</v>
       </c>
       <c r="F1670" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1671" spans="1:7" ht="115.2">
@@ -45393,7 +45388,7 @@
         <v>1832</v>
       </c>
       <c r="G1671" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1672" spans="1:7">
@@ -45413,7 +45408,7 @@
         <v>599</v>
       </c>
       <c r="F1672" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1673" spans="1:7">
@@ -45433,7 +45428,7 @@
         <v>599</v>
       </c>
       <c r="F1673" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1674" spans="1:7">
@@ -45453,7 +45448,7 @@
         <v>473</v>
       </c>
       <c r="F1674" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1675" spans="1:7">
@@ -45473,7 +45468,7 @@
         <v>473</v>
       </c>
       <c r="F1675" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1676" spans="1:7" ht="28.8">
@@ -45493,10 +45488,10 @@
         <v>473</v>
       </c>
       <c r="F1676" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1676" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1677" spans="1:7" ht="28.8">
@@ -45516,10 +45511,10 @@
         <v>473</v>
       </c>
       <c r="F1677" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1677" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1678" spans="1:7" ht="28.8">
@@ -45539,10 +45534,10 @@
         <v>473</v>
       </c>
       <c r="F1678" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1678" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1679" spans="1:7" ht="28.8">
@@ -45562,10 +45557,10 @@
         <v>473</v>
       </c>
       <c r="F1679" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1679" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1680" spans="1:7">
@@ -45585,7 +45580,7 @@
         <v>473</v>
       </c>
       <c r="F1680" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1681" spans="1:6">
@@ -45605,7 +45600,7 @@
         <v>473</v>
       </c>
       <c r="F1681" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1682" spans="1:6">
@@ -45625,7 +45620,7 @@
         <v>473</v>
       </c>
       <c r="F1682" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1683" spans="1:6">
@@ -45645,7 +45640,7 @@
         <v>473</v>
       </c>
       <c r="F1683" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1684" spans="1:6">
@@ -45665,7 +45660,7 @@
         <v>473</v>
       </c>
       <c r="F1684" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1685" spans="1:6">
@@ -45685,7 +45680,7 @@
         <v>473</v>
       </c>
       <c r="F1685" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1686" spans="1:6">
@@ -45705,7 +45700,7 @@
         <v>601</v>
       </c>
       <c r="F1686" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1687" spans="1:6">
@@ -45725,7 +45720,7 @@
         <v>477</v>
       </c>
       <c r="F1687" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1688" spans="1:6">
@@ -45745,7 +45740,7 @@
         <v>473</v>
       </c>
       <c r="F1688" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1689" spans="1:6">
@@ -45765,7 +45760,7 @@
         <v>473</v>
       </c>
       <c r="F1689" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1690" spans="1:6">
@@ -45785,7 +45780,7 @@
         <v>473</v>
       </c>
       <c r="F1690" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1691" spans="1:6">
@@ -45805,7 +45800,7 @@
         <v>473</v>
       </c>
       <c r="F1691" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1692" spans="1:6">
@@ -45825,7 +45820,7 @@
         <v>473</v>
       </c>
       <c r="F1692" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1693" spans="1:6">
@@ -45845,7 +45840,7 @@
         <v>473</v>
       </c>
       <c r="F1693" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1694" spans="1:6">
@@ -45865,7 +45860,7 @@
         <v>473</v>
       </c>
       <c r="F1694" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1695" spans="1:6">
@@ -45885,7 +45880,7 @@
         <v>473</v>
       </c>
       <c r="F1695" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1696" spans="1:6">
@@ -45905,7 +45900,7 @@
         <v>473</v>
       </c>
       <c r="F1696" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1697" spans="1:7">
@@ -45925,7 +45920,7 @@
         <v>473</v>
       </c>
       <c r="F1697" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1698" spans="1:7">
@@ -45945,7 +45940,7 @@
         <v>473</v>
       </c>
       <c r="F1698" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1699" spans="1:7">
@@ -45965,7 +45960,7 @@
         <v>473</v>
       </c>
       <c r="F1699" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1700" spans="1:7">
@@ -46005,7 +46000,7 @@
         <v>472</v>
       </c>
       <c r="F1701" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1702" spans="1:7">
@@ -46025,7 +46020,7 @@
         <v>474</v>
       </c>
       <c r="F1702" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1703" spans="1:7">
@@ -46045,7 +46040,7 @@
         <v>474</v>
       </c>
       <c r="F1703" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1704" spans="1:7" ht="115.2">
@@ -46061,7 +46056,7 @@
         <v>1832</v>
       </c>
       <c r="G1704" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1705" spans="1:7">
@@ -46081,7 +46076,7 @@
         <v>599</v>
       </c>
       <c r="F1705" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1706" spans="1:7">
@@ -46101,7 +46096,7 @@
         <v>599</v>
       </c>
       <c r="F1706" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1707" spans="1:7">
@@ -46121,7 +46116,7 @@
         <v>473</v>
       </c>
       <c r="F1707" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1708" spans="1:7">
@@ -46141,7 +46136,7 @@
         <v>473</v>
       </c>
       <c r="F1708" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1709" spans="1:7" ht="28.8">
@@ -46161,10 +46156,10 @@
         <v>473</v>
       </c>
       <c r="F1709" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1709" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1710" spans="1:7" ht="28.8">
@@ -46184,10 +46179,10 @@
         <v>473</v>
       </c>
       <c r="F1710" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1710" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1711" spans="1:7" ht="28.8">
@@ -46207,10 +46202,10 @@
         <v>473</v>
       </c>
       <c r="F1711" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1711" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1712" spans="1:7" ht="28.8">
@@ -46230,10 +46225,10 @@
         <v>473</v>
       </c>
       <c r="F1712" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1712" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1713" spans="1:6">
@@ -46253,7 +46248,7 @@
         <v>473</v>
       </c>
       <c r="F1713" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1714" spans="1:6">
@@ -46273,7 +46268,7 @@
         <v>473</v>
       </c>
       <c r="F1714" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1715" spans="1:6">
@@ -46293,7 +46288,7 @@
         <v>473</v>
       </c>
       <c r="F1715" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1716" spans="1:6">
@@ -46313,7 +46308,7 @@
         <v>473</v>
       </c>
       <c r="F1716" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1717" spans="1:6">
@@ -46333,7 +46328,7 @@
         <v>473</v>
       </c>
       <c r="F1717" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1718" spans="1:6">
@@ -46353,7 +46348,7 @@
         <v>473</v>
       </c>
       <c r="F1718" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1719" spans="1:6">
@@ -46373,7 +46368,7 @@
         <v>601</v>
       </c>
       <c r="F1719" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1720" spans="1:6">
@@ -46393,7 +46388,7 @@
         <v>477</v>
       </c>
       <c r="F1720" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1721" spans="1:6">
@@ -46413,7 +46408,7 @@
         <v>473</v>
       </c>
       <c r="F1721" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1722" spans="1:6">
@@ -46433,7 +46428,7 @@
         <v>473</v>
       </c>
       <c r="F1722" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1723" spans="1:6">
@@ -46453,7 +46448,7 @@
         <v>473</v>
       </c>
       <c r="F1723" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1724" spans="1:6">
@@ -46473,7 +46468,7 @@
         <v>473</v>
       </c>
       <c r="F1724" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1725" spans="1:6">
@@ -46493,7 +46488,7 @@
         <v>473</v>
       </c>
       <c r="F1725" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1726" spans="1:6">
@@ -46513,7 +46508,7 @@
         <v>473</v>
       </c>
       <c r="F1726" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1727" spans="1:6">
@@ -46533,7 +46528,7 @@
         <v>473</v>
       </c>
       <c r="F1727" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1728" spans="1:6">
@@ -46553,7 +46548,7 @@
         <v>473</v>
       </c>
       <c r="F1728" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1729" spans="1:7">
@@ -46573,7 +46568,7 @@
         <v>473</v>
       </c>
       <c r="F1729" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1730" spans="1:7">
@@ -46593,7 +46588,7 @@
         <v>473</v>
       </c>
       <c r="F1730" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1731" spans="1:7">
@@ -46613,7 +46608,7 @@
         <v>473</v>
       </c>
       <c r="F1731" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1732" spans="1:7">
@@ -46633,7 +46628,7 @@
         <v>473</v>
       </c>
       <c r="F1732" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1733" spans="1:7">
@@ -46673,7 +46668,7 @@
         <v>472</v>
       </c>
       <c r="F1734" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1735" spans="1:7">
@@ -46693,7 +46688,7 @@
         <v>474</v>
       </c>
       <c r="F1735" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1736" spans="1:7">
@@ -46713,7 +46708,7 @@
         <v>474</v>
       </c>
       <c r="F1736" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1737" spans="1:7" ht="115.2">
@@ -46729,7 +46724,7 @@
         <v>1832</v>
       </c>
       <c r="G1737" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1738" spans="1:7">
@@ -46749,7 +46744,7 @@
         <v>599</v>
       </c>
       <c r="F1738" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1739" spans="1:7">
@@ -46769,7 +46764,7 @@
         <v>599</v>
       </c>
       <c r="F1739" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1740" spans="1:7">
@@ -46789,7 +46784,7 @@
         <v>473</v>
       </c>
       <c r="F1740" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1741" spans="1:7">
@@ -46809,7 +46804,7 @@
         <v>473</v>
       </c>
       <c r="F1741" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1742" spans="1:7" ht="28.8">
@@ -46829,10 +46824,10 @@
         <v>473</v>
       </c>
       <c r="F1742" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1742" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1743" spans="1:7" ht="28.8">
@@ -46852,10 +46847,10 @@
         <v>473</v>
       </c>
       <c r="F1743" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1743" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1744" spans="1:7" ht="28.8">
@@ -46875,10 +46870,10 @@
         <v>473</v>
       </c>
       <c r="F1744" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1744" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1745" spans="1:7" ht="28.8">
@@ -46898,10 +46893,10 @@
         <v>473</v>
       </c>
       <c r="F1745" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1745" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1746" spans="1:7">
@@ -46921,7 +46916,7 @@
         <v>473</v>
       </c>
       <c r="F1746" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1747" spans="1:7">
@@ -46941,7 +46936,7 @@
         <v>473</v>
       </c>
       <c r="F1747" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1748" spans="1:7">
@@ -46961,7 +46956,7 @@
         <v>473</v>
       </c>
       <c r="F1748" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1749" spans="1:7">
@@ -46981,7 +46976,7 @@
         <v>473</v>
       </c>
       <c r="F1749" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1750" spans="1:7">
@@ -47001,7 +46996,7 @@
         <v>473</v>
       </c>
       <c r="F1750" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1751" spans="1:7">
@@ -47021,7 +47016,7 @@
         <v>473</v>
       </c>
       <c r="F1751" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1752" spans="1:7">
@@ -47041,7 +47036,7 @@
         <v>601</v>
       </c>
       <c r="F1752" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1753" spans="1:7">
@@ -47061,7 +47056,7 @@
         <v>477</v>
       </c>
       <c r="F1753" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1754" spans="1:7">
@@ -47081,7 +47076,7 @@
         <v>473</v>
       </c>
       <c r="F1754" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1755" spans="1:7">
@@ -47101,7 +47096,7 @@
         <v>473</v>
       </c>
       <c r="F1755" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1756" spans="1:7">
@@ -47121,7 +47116,7 @@
         <v>473</v>
       </c>
       <c r="F1756" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1757" spans="1:7">
@@ -47141,7 +47136,7 @@
         <v>473</v>
       </c>
       <c r="F1757" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1758" spans="1:7">
@@ -47161,7 +47156,7 @@
         <v>473</v>
       </c>
       <c r="F1758" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1759" spans="1:7">
@@ -47181,7 +47176,7 @@
         <v>473</v>
       </c>
       <c r="F1759" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1760" spans="1:7">
@@ -47201,7 +47196,7 @@
         <v>473</v>
       </c>
       <c r="F1760" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1761" spans="1:7">
@@ -47221,7 +47216,7 @@
         <v>473</v>
       </c>
       <c r="F1761" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1762" spans="1:7">
@@ -47241,7 +47236,7 @@
         <v>473</v>
       </c>
       <c r="F1762" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1763" spans="1:7">
@@ -47261,7 +47256,7 @@
         <v>473</v>
       </c>
       <c r="F1763" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1764" spans="1:7">
@@ -47281,7 +47276,7 @@
         <v>473</v>
       </c>
       <c r="F1764" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1765" spans="1:7">
@@ -47301,7 +47296,7 @@
         <v>473</v>
       </c>
       <c r="F1765" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1766" spans="1:7">
@@ -47341,7 +47336,7 @@
         <v>472</v>
       </c>
       <c r="F1767" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1768" spans="1:7">
@@ -47361,7 +47356,7 @@
         <v>474</v>
       </c>
       <c r="F1768" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1769" spans="1:7">
@@ -47381,7 +47376,7 @@
         <v>474</v>
       </c>
       <c r="F1769" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1770" spans="1:7" ht="115.2">
@@ -47397,7 +47392,7 @@
         <v>1832</v>
       </c>
       <c r="G1770" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1771" spans="1:7">
@@ -47417,7 +47412,7 @@
         <v>599</v>
       </c>
       <c r="F1771" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1772" spans="1:7">
@@ -47437,7 +47432,7 @@
         <v>599</v>
       </c>
       <c r="F1772" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1773" spans="1:7">
@@ -47457,7 +47452,7 @@
         <v>473</v>
       </c>
       <c r="F1773" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1774" spans="1:7">
@@ -47477,7 +47472,7 @@
         <v>473</v>
       </c>
       <c r="F1774" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1775" spans="1:7" ht="28.8">
@@ -47497,10 +47492,10 @@
         <v>473</v>
       </c>
       <c r="F1775" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1775" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1776" spans="1:7" ht="28.8">
@@ -47520,10 +47515,10 @@
         <v>473</v>
       </c>
       <c r="F1776" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1776" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1777" spans="1:7" ht="28.8">
@@ -47543,10 +47538,10 @@
         <v>473</v>
       </c>
       <c r="F1777" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1777" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1778" spans="1:7" ht="28.8">
@@ -47566,10 +47561,10 @@
         <v>473</v>
       </c>
       <c r="F1778" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1778" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1779" spans="1:7">
@@ -47589,7 +47584,7 @@
         <v>473</v>
       </c>
       <c r="F1779" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1780" spans="1:7">
@@ -47609,7 +47604,7 @@
         <v>473</v>
       </c>
       <c r="F1780" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1781" spans="1:7">
@@ -47629,7 +47624,7 @@
         <v>473</v>
       </c>
       <c r="F1781" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1782" spans="1:7">
@@ -47649,7 +47644,7 @@
         <v>473</v>
       </c>
       <c r="F1782" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1783" spans="1:7">
@@ -47669,7 +47664,7 @@
         <v>473</v>
       </c>
       <c r="F1783" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1784" spans="1:7">
@@ -47689,7 +47684,7 @@
         <v>473</v>
       </c>
       <c r="F1784" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1785" spans="1:7">
@@ -47709,7 +47704,7 @@
         <v>601</v>
       </c>
       <c r="F1785" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1786" spans="1:7">
@@ -47729,7 +47724,7 @@
         <v>477</v>
       </c>
       <c r="F1786" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1787" spans="1:7">
@@ -47749,7 +47744,7 @@
         <v>473</v>
       </c>
       <c r="F1787" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1788" spans="1:7">
@@ -47769,7 +47764,7 @@
         <v>473</v>
       </c>
       <c r="F1788" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1789" spans="1:7">
@@ -47789,7 +47784,7 @@
         <v>473</v>
       </c>
       <c r="F1789" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1790" spans="1:7">
@@ -47809,7 +47804,7 @@
         <v>473</v>
       </c>
       <c r="F1790" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1791" spans="1:7">
@@ -47829,7 +47824,7 @@
         <v>473</v>
       </c>
       <c r="F1791" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1792" spans="1:7">
@@ -47849,7 +47844,7 @@
         <v>473</v>
       </c>
       <c r="F1792" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1793" spans="1:7">
@@ -47869,7 +47864,7 @@
         <v>473</v>
       </c>
       <c r="F1793" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1794" spans="1:7">
@@ -47889,7 +47884,7 @@
         <v>473</v>
       </c>
       <c r="F1794" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1795" spans="1:7">
@@ -47909,7 +47904,7 @@
         <v>473</v>
       </c>
       <c r="F1795" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1796" spans="1:7">
@@ -47929,7 +47924,7 @@
         <v>473</v>
       </c>
       <c r="F1796" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1797" spans="1:7">
@@ -47949,7 +47944,7 @@
         <v>473</v>
       </c>
       <c r="F1797" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1798" spans="1:7">
@@ -47969,7 +47964,7 @@
         <v>473</v>
       </c>
       <c r="F1798" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1799" spans="1:7">
@@ -48009,7 +48004,7 @@
         <v>472</v>
       </c>
       <c r="F1800" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1801" spans="1:7">
@@ -48029,7 +48024,7 @@
         <v>474</v>
       </c>
       <c r="F1801" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1802" spans="1:7">
@@ -48049,7 +48044,7 @@
         <v>474</v>
       </c>
       <c r="F1802" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1803" spans="1:7" ht="115.2">
@@ -48065,7 +48060,7 @@
         <v>1832</v>
       </c>
       <c r="G1803" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1804" spans="1:7">
@@ -48085,7 +48080,7 @@
         <v>599</v>
       </c>
       <c r="F1804" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1805" spans="1:7">
@@ -48105,7 +48100,7 @@
         <v>599</v>
       </c>
       <c r="F1805" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1806" spans="1:7">
@@ -48125,7 +48120,7 @@
         <v>473</v>
       </c>
       <c r="F1806" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1807" spans="1:7">
@@ -48145,7 +48140,7 @@
         <v>473</v>
       </c>
       <c r="F1807" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1808" spans="1:7" ht="28.8">
@@ -48165,10 +48160,10 @@
         <v>473</v>
       </c>
       <c r="F1808" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1808" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1809" spans="1:7" ht="28.8">
@@ -48188,10 +48183,10 @@
         <v>473</v>
       </c>
       <c r="F1809" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1809" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1810" spans="1:7" ht="28.8">
@@ -48211,10 +48206,10 @@
         <v>473</v>
       </c>
       <c r="F1810" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G1810" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1811" spans="1:7" ht="28.8">
@@ -48234,10 +48229,10 @@
         <v>473</v>
       </c>
       <c r="F1811" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G1811" s="38" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1812" spans="1:7">
@@ -48257,7 +48252,7 @@
         <v>473</v>
       </c>
       <c r="F1812" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1813" spans="1:7">
@@ -48277,7 +48272,7 @@
         <v>473</v>
       </c>
       <c r="F1813" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1814" spans="1:7">
@@ -48297,7 +48292,7 @@
         <v>473</v>
       </c>
       <c r="F1814" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1815" spans="1:7">
@@ -48317,7 +48312,7 @@
         <v>473</v>
       </c>
       <c r="F1815" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1816" spans="1:7">
@@ -48337,7 +48332,7 @@
         <v>473</v>
       </c>
       <c r="F1816" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1817" spans="1:7">
@@ -48357,7 +48352,7 @@
         <v>473</v>
       </c>
       <c r="F1817" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1818" spans="1:7">
@@ -48377,7 +48372,7 @@
         <v>601</v>
       </c>
       <c r="F1818" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1819" spans="1:7">
@@ -48397,7 +48392,7 @@
         <v>477</v>
       </c>
       <c r="F1819" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1820" spans="1:7">
@@ -48417,7 +48412,7 @@
         <v>473</v>
       </c>
       <c r="F1820" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1821" spans="1:7">
@@ -48437,7 +48432,7 @@
         <v>473</v>
       </c>
       <c r="F1821" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1822" spans="1:7">
@@ -48457,7 +48452,7 @@
         <v>473</v>
       </c>
       <c r="F1822" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1823" spans="1:7">
@@ -48477,7 +48472,7 @@
         <v>473</v>
       </c>
       <c r="F1823" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1824" spans="1:7">
@@ -48497,7 +48492,7 @@
         <v>473</v>
       </c>
       <c r="F1824" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1825" spans="1:7">
@@ -48517,7 +48512,7 @@
         <v>473</v>
       </c>
       <c r="F1825" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1826" spans="1:7">
@@ -48537,7 +48532,7 @@
         <v>473</v>
       </c>
       <c r="F1826" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1827" spans="1:7">
@@ -48557,7 +48552,7 @@
         <v>473</v>
       </c>
       <c r="F1827" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1828" spans="1:7">
@@ -48577,7 +48572,7 @@
         <v>473</v>
       </c>
       <c r="F1828" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1829" spans="1:7">
@@ -48597,7 +48592,7 @@
         <v>473</v>
       </c>
       <c r="F1829" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1830" spans="1:7">
@@ -48617,7 +48612,7 @@
         <v>473</v>
       </c>
       <c r="F1830" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1831" spans="1:7">
@@ -48637,7 +48632,7 @@
         <v>473</v>
       </c>
       <c r="F1831" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1832" spans="1:7">
@@ -48677,7 +48672,7 @@
         <v>472</v>
       </c>
       <c r="F1833" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1834" spans="1:7">
@@ -48697,7 +48692,7 @@
         <v>474</v>
       </c>
       <c r="F1834" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1835" spans="1:7">
@@ -48717,7 +48712,7 @@
         <v>474</v>
       </c>
       <c r="F1835" s="14" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1836" spans="1:7">
@@ -49507,7 +49502,7 @@
         <v>622</v>
       </c>
       <c r="E1875" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="F1875" s="14" t="s">
         <v>1874</v>
@@ -49667,7 +49662,7 @@
         <v>629</v>
       </c>
       <c r="E1883" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="F1883" s="14" t="s">
         <v>1882</v>
@@ -50079,7 +50074,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="1905" spans="1:7">
+    <row r="1905" spans="1:6">
       <c r="A1905" s="14" t="s">
         <v>162</v>
       </c>
@@ -50099,7 +50094,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="1906" spans="1:7">
+    <row r="1906" spans="1:6">
       <c r="A1906" s="14" t="s">
         <v>162</v>
       </c>
@@ -50119,7 +50114,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="1907" spans="1:7">
+    <row r="1907" spans="1:6">
       <c r="A1907" s="14" t="s">
         <v>162</v>
       </c>
@@ -50139,7 +50134,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="1908" spans="1:7">
+    <row r="1908" spans="1:6">
       <c r="A1908" s="14" t="s">
         <v>162</v>
       </c>
@@ -50159,7 +50154,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="1909" spans="1:7">
+    <row r="1909" spans="1:6">
       <c r="A1909" s="14" t="s">
         <v>162</v>
       </c>
@@ -50179,7 +50174,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="1910" spans="1:7">
+    <row r="1910" spans="1:6">
       <c r="A1910" s="14" t="s">
         <v>162</v>
       </c>
@@ -50199,7 +50194,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="1911" spans="1:7">
+    <row r="1911" spans="1:6">
       <c r="A1911" s="14" t="s">
         <v>162</v>
       </c>
@@ -50219,7 +50214,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="1912" spans="1:7">
+    <row r="1912" spans="1:6">
       <c r="A1912" s="14" t="s">
         <v>162</v>
       </c>
@@ -50239,7 +50234,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="1913" spans="1:7">
+    <row r="1913" spans="1:6">
       <c r="A1913" s="14" t="s">
         <v>162</v>
       </c>
@@ -50259,7 +50254,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="1914" spans="1:7">
+    <row r="1914" spans="1:6">
       <c r="A1914" s="14" t="s">
         <v>162</v>
       </c>
@@ -50279,7 +50274,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="1915" spans="1:7">
+    <row r="1915" spans="1:6">
       <c r="A1915" s="14" t="s">
         <v>162</v>
       </c>
@@ -50299,7 +50294,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="1916" spans="1:7">
+    <row r="1916" spans="1:6">
       <c r="A1916" s="14" t="s">
         <v>162</v>
       </c>
@@ -50319,7 +50314,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="1917" spans="1:7">
+    <row r="1917" spans="1:6">
       <c r="A1917" s="14" t="s">
         <v>82</v>
       </c>
@@ -50331,9 +50326,8 @@
       <c r="F1917" s="14" t="s">
         <v>1916</v>
       </c>
-      <c r="G1917" s="49"/>
-    </row>
-    <row r="1918" spans="1:7">
+    </row>
+    <row r="1918" spans="1:6">
       <c r="A1918" s="14" t="s">
         <v>83</v>
       </c>
@@ -50346,7 +50340,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="1919" spans="1:7">
+    <row r="1919" spans="1:6">
       <c r="A1919" s="14" t="s">
         <v>83</v>
       </c>
@@ -50366,7 +50360,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="1920" spans="1:7">
+    <row r="1920" spans="1:6">
       <c r="A1920" s="14" t="s">
         <v>83</v>
       </c>
@@ -51242,7 +51236,7 @@
       <c r="D1963" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="E1963" s="49" t="s">
+      <c r="E1963" s="1" t="s">
         <v>473</v>
       </c>
       <c r="F1963" s="14" t="s">

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD52E24C-238D-4E6B-905A-D9F798C2EC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F48E2E-D463-4F70-A576-7D5231106D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12738" uniqueCount="2572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12737" uniqueCount="2572">
   <si>
     <t>Name</t>
   </si>
@@ -7129,9 +7129,6 @@
     <t>LOW (and floating?)</t>
   </si>
   <si>
-    <t>THIS IS ALL HIGH - SHOULDN'T THIS BE PULSING?</t>
-  </si>
-  <si>
     <t>Commodore 128/310378/Scope baseline/Images/U38-U53_1_NTSC.png</t>
   </si>
   <si>
@@ -7563,9 +7560,6 @@
     <t>Commodore 128/310378/Scope baseline/Images/U17_20_NTSC.png</t>
   </si>
   <si>
-    <t>HAS BIG TEXT IN IMAGE</t>
-  </si>
-  <si>
     <t>Commodore 128/310378/Scope baseline/Images/U18_1_NTSC.png</t>
   </si>
   <si>
@@ -7897,9 +7891,6 @@
   </si>
   <si>
     <t>2.04543 MHz</t>
-  </si>
-  <si>
-    <t>SHOULD THIS BE 2.02xx MHz ???</t>
   </si>
   <si>
     <t>14.3180 MHz</t>
@@ -7926,8 +7917,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-October-14</t>
+      <t>2025-October-15</t>
     </r>
+  </si>
+  <si>
+    <t>Best-practises</t>
+  </si>
+  <si>
+    <t>Commodore 64/128 Best-Practises</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/Commodore 64-128 Best-Practises.txt</t>
   </si>
 </sst>
 </file>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -12110,10 +12110,10 @@
   <dimension ref="A1:H2174"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B642" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="E651" sqref="E651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24916,7 +24916,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:6">
       <c r="A641" s="14" t="s">
         <v>71</v>
       </c>
@@ -24936,7 +24936,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:6">
       <c r="A642" s="14" t="s">
         <v>71</v>
       </c>
@@ -24956,7 +24956,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:6">
       <c r="A643" s="14" t="s">
         <v>71</v>
       </c>
@@ -24976,7 +24976,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:6">
       <c r="A644" s="14" t="s">
         <v>71</v>
       </c>
@@ -24996,7 +24996,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:6">
       <c r="A645" s="14" t="s">
         <v>71</v>
       </c>
@@ -25016,7 +25016,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:6">
       <c r="A646" s="14" t="s">
         <v>71</v>
       </c>
@@ -25036,7 +25036,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:6">
       <c r="A647" s="14" t="s">
         <v>71</v>
       </c>
@@ -25056,7 +25056,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:6">
       <c r="A648" s="14" t="s">
         <v>71</v>
       </c>
@@ -25076,7 +25076,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:6">
       <c r="A649" s="14" t="s">
         <v>71</v>
       </c>
@@ -25096,7 +25096,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:6">
       <c r="A650" s="14" t="s">
         <v>71</v>
       </c>
@@ -25116,7 +25116,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:6">
       <c r="A651" s="14" t="s">
         <v>71</v>
       </c>
@@ -25135,11 +25135,8 @@
       <c r="F651" s="14" t="s">
         <v>2274</v>
       </c>
-      <c r="G651" s="38" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="652" spans="1:7">
+    </row>
+    <row r="652" spans="1:6">
       <c r="A652" s="14" t="s">
         <v>71</v>
       </c>
@@ -25159,7 +25156,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:6">
       <c r="A653" s="14" t="s">
         <v>71</v>
       </c>
@@ -25179,7 +25176,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:6">
       <c r="A654" s="14" t="s">
         <v>71</v>
       </c>
@@ -25199,7 +25196,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:6">
       <c r="A655" s="14" t="s">
         <v>71</v>
       </c>
@@ -25219,7 +25216,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:6">
       <c r="A656" s="14" t="s">
         <v>71</v>
       </c>
@@ -27099,7 +27096,7 @@
         <v>473</v>
       </c>
       <c r="F744" s="14" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="G744" s="37"/>
     </row>
@@ -27141,7 +27138,7 @@
         <v>473</v>
       </c>
       <c r="F746" s="14" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="G746" s="37"/>
     </row>
@@ -27183,7 +27180,7 @@
         <v>473</v>
       </c>
       <c r="F748" s="14" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="G748" s="37"/>
     </row>
@@ -27225,7 +27222,7 @@
         <v>473</v>
       </c>
       <c r="F750" s="14" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="G750" s="37"/>
     </row>
@@ -27267,7 +27264,7 @@
         <v>473</v>
       </c>
       <c r="F752" s="14" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="G752" s="37"/>
     </row>
@@ -27309,7 +27306,7 @@
         <v>473</v>
       </c>
       <c r="F754" s="14" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="G754" s="37"/>
     </row>
@@ -27351,7 +27348,7 @@
         <v>473</v>
       </c>
       <c r="F756" s="14" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="G756" s="37"/>
     </row>
@@ -27393,7 +27390,7 @@
         <v>474</v>
       </c>
       <c r="F758" s="14" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="G758" s="37"/>
     </row>
@@ -27435,7 +27432,7 @@
         <v>473</v>
       </c>
       <c r="F760" s="14" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="G760" s="37"/>
     </row>
@@ -27477,7 +27474,7 @@
         <v>473</v>
       </c>
       <c r="F762" s="14" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="G762" s="37"/>
     </row>
@@ -27519,7 +27516,7 @@
         <v>473</v>
       </c>
       <c r="F764" s="14" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="G764" s="37"/>
     </row>
@@ -27561,7 +27558,7 @@
         <v>473</v>
       </c>
       <c r="F766" s="14" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="G766" s="37"/>
     </row>
@@ -27603,7 +27600,7 @@
         <v>473</v>
       </c>
       <c r="F768" s="14" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="G768" s="37"/>
     </row>
@@ -27645,7 +27642,7 @@
         <v>473</v>
       </c>
       <c r="F770" s="14" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="G770" s="37"/>
     </row>
@@ -27687,7 +27684,7 @@
         <v>473</v>
       </c>
       <c r="F772" s="14" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="G772" s="37"/>
     </row>
@@ -27729,7 +27726,7 @@
         <v>477</v>
       </c>
       <c r="F774" s="14" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="G774" s="37"/>
     </row>
@@ -27787,7 +27784,7 @@
         <v>473</v>
       </c>
       <c r="F777" s="14" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="G777" s="37"/>
     </row>
@@ -27829,7 +27826,7 @@
         <v>473</v>
       </c>
       <c r="F779" s="14" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="G779" s="37"/>
     </row>
@@ -27871,7 +27868,7 @@
         <v>473</v>
       </c>
       <c r="F781" s="14" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="G781" s="37"/>
     </row>
@@ -27913,7 +27910,7 @@
         <v>473</v>
       </c>
       <c r="F783" s="14" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="G783" s="37"/>
     </row>
@@ -27955,7 +27952,7 @@
         <v>473</v>
       </c>
       <c r="F785" s="14" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="G785" s="37"/>
     </row>
@@ -27997,7 +27994,7 @@
         <v>473</v>
       </c>
       <c r="F787" s="14" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="G787" s="37"/>
     </row>
@@ -28039,7 +28036,7 @@
         <v>473</v>
       </c>
       <c r="F789" s="14" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="G789" s="37"/>
     </row>
@@ -28081,7 +28078,7 @@
         <v>474</v>
       </c>
       <c r="F791" s="14" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="G791" s="37"/>
     </row>
@@ -28123,7 +28120,7 @@
         <v>473</v>
       </c>
       <c r="F793" s="14" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="G793" s="37"/>
     </row>
@@ -28165,7 +28162,7 @@
         <v>473</v>
       </c>
       <c r="F795" s="14" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="G795" s="37"/>
     </row>
@@ -28207,7 +28204,7 @@
         <v>473</v>
       </c>
       <c r="F797" s="14" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="G797" s="37"/>
     </row>
@@ -28249,7 +28246,7 @@
         <v>473</v>
       </c>
       <c r="F799" s="14" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="G799" s="37"/>
     </row>
@@ -28291,7 +28288,7 @@
         <v>473</v>
       </c>
       <c r="F801" s="14" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="G801" s="37"/>
     </row>
@@ -28333,7 +28330,7 @@
         <v>473</v>
       </c>
       <c r="F803" s="14" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="G803" s="37"/>
     </row>
@@ -28375,7 +28372,7 @@
         <v>473</v>
       </c>
       <c r="F805" s="14" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="G805" s="37"/>
     </row>
@@ -28417,7 +28414,7 @@
         <v>477</v>
       </c>
       <c r="F807" s="14" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="G807" s="37"/>
     </row>
@@ -28471,7 +28468,7 @@
         <v>472</v>
       </c>
       <c r="F810" s="14" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="811" spans="1:7">
@@ -28511,7 +28508,7 @@
         <v>488</v>
       </c>
       <c r="F812" s="14" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="813" spans="1:7">
@@ -28551,7 +28548,7 @@
         <v>472</v>
       </c>
       <c r="F814" s="14" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="815" spans="1:7">
@@ -28591,7 +28588,7 @@
         <v>488</v>
       </c>
       <c r="F816" s="14" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="817" spans="1:6">
@@ -28631,7 +28628,7 @@
         <v>473</v>
       </c>
       <c r="F818" s="14" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="819" spans="1:6">
@@ -28671,7 +28668,7 @@
         <v>473</v>
       </c>
       <c r="F820" s="14" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="821" spans="1:6">
@@ -28711,7 +28708,7 @@
         <v>474</v>
       </c>
       <c r="F822" s="14" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="823" spans="1:6">
@@ -28751,7 +28748,7 @@
         <v>488</v>
       </c>
       <c r="F824" s="14" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="825" spans="1:6">
@@ -28791,7 +28788,7 @@
         <v>472</v>
       </c>
       <c r="F826" s="14" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="827" spans="1:6">
@@ -28831,7 +28828,7 @@
         <v>488</v>
       </c>
       <c r="F828" s="14" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="829" spans="1:6">
@@ -28871,7 +28868,7 @@
         <v>472</v>
       </c>
       <c r="F830" s="14" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="831" spans="1:6">
@@ -28911,7 +28908,7 @@
         <v>472</v>
       </c>
       <c r="F832" s="14" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -28951,7 +28948,7 @@
         <v>488</v>
       </c>
       <c r="F834" s="14" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -28991,7 +28988,7 @@
         <v>477</v>
       </c>
       <c r="F836" s="14" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="837" spans="1:6">
@@ -29044,7 +29041,7 @@
         <v>473</v>
       </c>
       <c r="F839" s="14" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="840" spans="1:6">
@@ -29084,7 +29081,7 @@
         <v>473</v>
       </c>
       <c r="F841" s="14" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="842" spans="1:6">
@@ -29124,7 +29121,7 @@
         <v>473</v>
       </c>
       <c r="F843" s="14" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="844" spans="1:6">
@@ -29164,7 +29161,7 @@
         <v>473</v>
       </c>
       <c r="F845" s="14" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="846" spans="1:6">
@@ -29204,7 +29201,7 @@
         <v>473</v>
       </c>
       <c r="F847" s="14" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="848" spans="1:6">
@@ -29244,7 +29241,7 @@
         <v>473</v>
       </c>
       <c r="F849" s="14" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="850" spans="1:6">
@@ -29284,7 +29281,7 @@
         <v>473</v>
       </c>
       <c r="F851" s="14" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="852" spans="1:6">
@@ -29324,7 +29321,7 @@
         <v>473</v>
       </c>
       <c r="F853" s="14" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="854" spans="1:6">
@@ -29364,7 +29361,7 @@
         <v>473</v>
       </c>
       <c r="F855" s="14" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="856" spans="1:6">
@@ -29404,7 +29401,7 @@
         <v>474</v>
       </c>
       <c r="F857" s="14" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="858" spans="1:6">
@@ -29444,7 +29441,7 @@
         <v>473</v>
       </c>
       <c r="F859" s="14" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="860" spans="1:6">
@@ -29484,7 +29481,7 @@
         <v>473</v>
       </c>
       <c r="F861" s="14" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="862" spans="1:6">
@@ -29524,7 +29521,7 @@
         <v>473</v>
       </c>
       <c r="F863" s="14" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="864" spans="1:6">
@@ -29564,10 +29561,7 @@
         <v>473</v>
       </c>
       <c r="F865" s="14" t="s">
-        <v>2447</v>
-      </c>
-      <c r="G865" s="38" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="866" spans="1:7">
@@ -29607,7 +29601,7 @@
         <v>473</v>
       </c>
       <c r="F867" s="14" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="868" spans="1:7">
@@ -29647,7 +29641,7 @@
         <v>473</v>
       </c>
       <c r="F869" s="14" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="870" spans="1:7">
@@ -29687,7 +29681,7 @@
         <v>473</v>
       </c>
       <c r="F871" s="14" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="872" spans="1:7">
@@ -29727,7 +29721,7 @@
         <v>473</v>
       </c>
       <c r="F873" s="14" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="874" spans="1:7">
@@ -29767,7 +29761,7 @@
         <v>473</v>
       </c>
       <c r="F875" s="14" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="876" spans="1:7">
@@ -29807,7 +29801,7 @@
         <v>477</v>
       </c>
       <c r="F877" s="14" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="878" spans="1:7" ht="187.2">
@@ -29863,7 +29857,7 @@
         <v>473</v>
       </c>
       <c r="F880" s="14" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="881" spans="1:6">
@@ -29903,7 +29897,7 @@
         <v>473</v>
       </c>
       <c r="F882" s="14" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="883" spans="1:6">
@@ -29943,7 +29937,7 @@
         <v>473</v>
       </c>
       <c r="F884" s="14" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="885" spans="1:6">
@@ -29983,7 +29977,7 @@
         <v>473</v>
       </c>
       <c r="F886" s="14" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="887" spans="1:6">
@@ -30023,7 +30017,7 @@
         <v>473</v>
       </c>
       <c r="F888" s="14" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="889" spans="1:6">
@@ -30063,7 +30057,7 @@
         <v>473</v>
       </c>
       <c r="F890" s="14" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="891" spans="1:6">
@@ -30103,7 +30097,7 @@
         <v>473</v>
       </c>
       <c r="F892" s="14" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -30143,7 +30137,7 @@
         <v>473</v>
       </c>
       <c r="F894" s="14" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="895" spans="1:6">
@@ -30183,7 +30177,7 @@
         <v>473</v>
       </c>
       <c r="F896" s="14" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="897" spans="1:6">
@@ -30223,7 +30217,7 @@
         <v>473</v>
       </c>
       <c r="F898" s="14" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="899" spans="1:6">
@@ -30263,7 +30257,7 @@
         <v>473</v>
       </c>
       <c r="F900" s="14" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -30303,7 +30297,7 @@
         <v>474</v>
       </c>
       <c r="F902" s="14" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="903" spans="1:6">
@@ -30343,7 +30337,7 @@
         <v>473</v>
       </c>
       <c r="F904" s="14" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="905" spans="1:6">
@@ -30383,7 +30377,7 @@
         <v>473</v>
       </c>
       <c r="F906" s="14" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="907" spans="1:6">
@@ -30423,7 +30417,7 @@
         <v>473</v>
       </c>
       <c r="F908" s="14" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="909" spans="1:6">
@@ -30463,7 +30457,7 @@
         <v>473</v>
       </c>
       <c r="F910" s="14" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="911" spans="1:6">
@@ -30503,7 +30497,7 @@
         <v>473</v>
       </c>
       <c r="F912" s="14" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="913" spans="1:6">
@@ -30543,7 +30537,7 @@
         <v>473</v>
       </c>
       <c r="F914" s="14" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="915" spans="1:6">
@@ -30583,7 +30577,7 @@
         <v>473</v>
       </c>
       <c r="F916" s="14" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="917" spans="1:6">
@@ -30623,7 +30617,7 @@
         <v>473</v>
       </c>
       <c r="F918" s="14" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="919" spans="1:6">
@@ -30663,7 +30657,7 @@
         <v>472</v>
       </c>
       <c r="F920" s="14" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="921" spans="1:6">
@@ -30703,7 +30697,7 @@
         <v>473</v>
       </c>
       <c r="F922" s="14" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -30743,7 +30737,7 @@
         <v>473</v>
       </c>
       <c r="F924" s="14" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="925" spans="1:6">
@@ -30783,7 +30777,7 @@
         <v>477</v>
       </c>
       <c r="F926" s="14" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="927" spans="1:6">
@@ -30865,7 +30859,7 @@
         <v>473</v>
       </c>
       <c r="F931" s="14" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="932" spans="1:7">
@@ -30905,7 +30899,7 @@
         <v>473</v>
       </c>
       <c r="F933" s="14" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="934" spans="1:7">
@@ -30945,7 +30939,7 @@
         <v>473</v>
       </c>
       <c r="F935" s="14" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="936" spans="1:7">
@@ -30985,7 +30979,7 @@
         <v>473</v>
       </c>
       <c r="F937" s="14" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="938" spans="1:7">
@@ -31025,7 +31019,7 @@
         <v>473</v>
       </c>
       <c r="F939" s="14" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="940" spans="1:7">
@@ -31065,7 +31059,7 @@
         <v>473</v>
       </c>
       <c r="F941" s="14" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="942" spans="1:7">
@@ -31105,7 +31099,7 @@
         <v>473</v>
       </c>
       <c r="F943" s="14" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="944" spans="1:7">
@@ -31128,7 +31122,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="945" spans="1:7">
+    <row r="945" spans="1:6">
       <c r="A945" s="14" t="s">
         <v>108</v>
       </c>
@@ -31145,10 +31139,10 @@
         <v>473</v>
       </c>
       <c r="F945" s="14" t="s">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="946" spans="1:7">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6">
       <c r="A946" s="14" t="s">
         <v>108</v>
       </c>
@@ -31168,7 +31162,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="947" spans="1:7">
+    <row r="947" spans="1:6">
       <c r="A947" s="14" t="s">
         <v>108</v>
       </c>
@@ -31185,10 +31179,10 @@
         <v>473</v>
       </c>
       <c r="F947" s="14" t="s">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="948" spans="1:7">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6">
       <c r="A948" s="14" t="s">
         <v>108</v>
       </c>
@@ -31208,7 +31202,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="949" spans="1:7">
+    <row r="949" spans="1:6">
       <c r="A949" s="14" t="s">
         <v>108</v>
       </c>
@@ -31225,10 +31219,10 @@
         <v>473</v>
       </c>
       <c r="F949" s="14" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="950" spans="1:7">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6">
       <c r="A950" s="14" t="s">
         <v>108</v>
       </c>
@@ -31248,7 +31242,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="951" spans="1:7">
+    <row r="951" spans="1:6">
       <c r="A951" s="14" t="s">
         <v>108</v>
       </c>
@@ -31265,10 +31259,10 @@
         <v>473</v>
       </c>
       <c r="F951" s="14" t="s">
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="952" spans="1:7">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6">
       <c r="A952" s="14" t="s">
         <v>108</v>
       </c>
@@ -31288,7 +31282,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="953" spans="1:7">
+    <row r="953" spans="1:6">
       <c r="A953" s="14" t="s">
         <v>108</v>
       </c>
@@ -31305,13 +31299,10 @@
         <v>474</v>
       </c>
       <c r="F953" s="14" t="s">
-        <v>2490</v>
-      </c>
-      <c r="G953" s="38" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="954" spans="1:7">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6">
       <c r="A954" s="14" t="s">
         <v>108</v>
       </c>
@@ -31331,7 +31322,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="955" spans="1:7">
+    <row r="955" spans="1:6">
       <c r="A955" s="14" t="s">
         <v>108</v>
       </c>
@@ -31348,10 +31339,10 @@
         <v>473</v>
       </c>
       <c r="F955" s="14" t="s">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="956" spans="1:7">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6">
       <c r="A956" s="14" t="s">
         <v>108</v>
       </c>
@@ -31371,7 +31362,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="957" spans="1:7">
+    <row r="957" spans="1:6">
       <c r="A957" s="14" t="s">
         <v>108</v>
       </c>
@@ -31388,10 +31379,10 @@
         <v>473</v>
       </c>
       <c r="F957" s="14" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="958" spans="1:7">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6">
       <c r="A958" s="14" t="s">
         <v>108</v>
       </c>
@@ -31411,7 +31402,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="959" spans="1:7">
+    <row r="959" spans="1:6">
       <c r="A959" s="14" t="s">
         <v>108</v>
       </c>
@@ -31428,10 +31419,10 @@
         <v>473</v>
       </c>
       <c r="F959" s="14" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="960" spans="1:7">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6">
       <c r="A960" s="14" t="s">
         <v>108</v>
       </c>
@@ -31468,7 +31459,7 @@
         <v>473</v>
       </c>
       <c r="F961" s="14" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="962" spans="1:6">
@@ -31508,7 +31499,7 @@
         <v>473</v>
       </c>
       <c r="F963" s="14" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="964" spans="1:6">
@@ -31548,7 +31539,7 @@
         <v>473</v>
       </c>
       <c r="F965" s="14" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="966" spans="1:6">
@@ -31588,7 +31579,7 @@
         <v>472</v>
       </c>
       <c r="F967" s="14" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="968" spans="1:6">
@@ -31628,7 +31619,7 @@
         <v>473</v>
       </c>
       <c r="F969" s="14" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="970" spans="1:6">
@@ -31668,7 +31659,7 @@
         <v>473</v>
       </c>
       <c r="F971" s="14" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="972" spans="1:6">
@@ -31708,7 +31699,7 @@
         <v>473</v>
       </c>
       <c r="F973" s="14" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="974" spans="1:6">
@@ -31748,7 +31739,7 @@
         <v>473</v>
       </c>
       <c r="F975" s="14" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="976" spans="1:6">
@@ -31788,7 +31779,7 @@
         <v>581</v>
       </c>
       <c r="F977" s="14" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="978" spans="1:7">
@@ -31842,7 +31833,7 @@
         <v>473</v>
       </c>
       <c r="F980" s="14" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="G980" s="37"/>
     </row>
@@ -31884,7 +31875,7 @@
         <v>473</v>
       </c>
       <c r="F982" s="14" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="G982" s="37"/>
     </row>
@@ -31926,7 +31917,7 @@
         <v>473</v>
       </c>
       <c r="F984" s="14" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="G984" s="37"/>
     </row>
@@ -31968,7 +31959,7 @@
         <v>473</v>
       </c>
       <c r="F986" s="14" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="G986" s="37"/>
     </row>
@@ -32010,7 +32001,7 @@
         <v>473</v>
       </c>
       <c r="F988" s="14" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="G988" s="37"/>
     </row>
@@ -32052,7 +32043,7 @@
         <v>473</v>
       </c>
       <c r="F990" s="14" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="G990" s="37"/>
     </row>
@@ -32094,7 +32085,7 @@
         <v>474</v>
       </c>
       <c r="F992" s="14" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="G992" s="37"/>
     </row>
@@ -32136,7 +32127,7 @@
         <v>473</v>
       </c>
       <c r="F994" s="14" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="G994" s="37"/>
     </row>
@@ -32178,7 +32169,7 @@
         <v>473</v>
       </c>
       <c r="F996" s="14" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="G996" s="37"/>
     </row>
@@ -32220,7 +32211,7 @@
         <v>473</v>
       </c>
       <c r="F998" s="14" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="G998" s="37"/>
     </row>
@@ -32262,7 +32253,7 @@
         <v>473</v>
       </c>
       <c r="F1000" s="14" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="G1000" s="37"/>
     </row>
@@ -32304,7 +32295,7 @@
         <v>473</v>
       </c>
       <c r="F1002" s="14" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="G1002" s="37"/>
     </row>
@@ -32346,7 +32337,7 @@
         <v>473</v>
       </c>
       <c r="F1004" s="14" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="G1004" s="37"/>
     </row>
@@ -32388,7 +32379,7 @@
         <v>581</v>
       </c>
       <c r="F1006" s="14" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="G1006" s="37"/>
     </row>
@@ -32445,7 +32436,7 @@
         <v>473</v>
       </c>
       <c r="F1009" s="14" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1010" spans="1:6">
@@ -32485,7 +32476,7 @@
         <v>473</v>
       </c>
       <c r="F1011" s="14" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1012" spans="1:6">
@@ -32525,7 +32516,7 @@
         <v>473</v>
       </c>
       <c r="F1013" s="14" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="1014" spans="1:6">
@@ -32565,7 +32556,7 @@
         <v>473</v>
       </c>
       <c r="F1015" s="14" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="1016" spans="1:6">
@@ -32605,7 +32596,7 @@
         <v>473</v>
       </c>
       <c r="F1017" s="14" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="1018" spans="1:6">
@@ -32645,7 +32636,7 @@
         <v>473</v>
       </c>
       <c r="F1019" s="14" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1020" spans="1:6">
@@ -32685,7 +32676,7 @@
         <v>473</v>
       </c>
       <c r="F1021" s="14" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -32725,7 +32716,7 @@
         <v>473</v>
       </c>
       <c r="F1023" s="14" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="1024" spans="1:6">
@@ -32765,7 +32756,7 @@
         <v>472</v>
       </c>
       <c r="F1025" s="14" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="1026" spans="1:6">
@@ -32805,7 +32796,7 @@
         <v>473</v>
       </c>
       <c r="F1027" s="14" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="1028" spans="1:6">
@@ -32845,7 +32836,7 @@
         <v>472</v>
       </c>
       <c r="F1029" s="14" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1030" spans="1:6">
@@ -32885,7 +32876,7 @@
         <v>473</v>
       </c>
       <c r="F1031" s="14" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="1032" spans="1:6">
@@ -32925,7 +32916,7 @@
         <v>473</v>
       </c>
       <c r="F1033" s="14" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="1034" spans="1:6">
@@ -32965,7 +32956,7 @@
         <v>473</v>
       </c>
       <c r="F1035" s="14" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1036" spans="1:6">
@@ -33005,7 +32996,7 @@
         <v>473</v>
       </c>
       <c r="F1037" s="14" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1038" spans="1:6">
@@ -33045,7 +33036,7 @@
         <v>472</v>
       </c>
       <c r="F1039" s="14" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1040" spans="1:6">
@@ -33085,7 +33076,7 @@
         <v>473</v>
       </c>
       <c r="F1041" s="14" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1042" spans="1:6">
@@ -33125,7 +33116,7 @@
         <v>2160</v>
       </c>
       <c r="F1043" s="14" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1044" spans="1:6">
@@ -33165,7 +33156,7 @@
         <v>473</v>
       </c>
       <c r="F1045" s="14" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1046" spans="1:6">
@@ -33205,7 +33196,7 @@
         <v>473</v>
       </c>
       <c r="F1047" s="14" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1048" spans="1:6">
@@ -33245,7 +33236,7 @@
         <v>473</v>
       </c>
       <c r="F1049" s="14" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1050" spans="1:6">
@@ -33285,7 +33276,7 @@
         <v>473</v>
       </c>
       <c r="F1051" s="14" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1052" spans="1:6">
@@ -33325,7 +33316,7 @@
         <v>2160</v>
       </c>
       <c r="F1053" s="14" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1054" spans="1:6">
@@ -33365,7 +33356,7 @@
         <v>474</v>
       </c>
       <c r="F1055" s="14" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1056" spans="1:6">
@@ -33388,7 +33379,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="1057" spans="1:7">
+    <row r="1057" spans="1:6">
       <c r="A1057" s="14" t="s">
         <v>111</v>
       </c>
@@ -33402,16 +33393,13 @@
         <v>534</v>
       </c>
       <c r="E1057" s="37" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="F1057" s="14" t="s">
-        <v>2541</v>
-      </c>
-      <c r="G1057" s="38" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:7">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6">
       <c r="A1058" s="14" t="s">
         <v>111</v>
       </c>
@@ -33431,7 +33419,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="1059" spans="1:7">
+    <row r="1059" spans="1:6">
       <c r="A1059" s="14" t="s">
         <v>111</v>
       </c>
@@ -33448,10 +33436,10 @@
         <v>488</v>
       </c>
       <c r="F1059" s="14" t="s">
-        <v>2542</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:7">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6">
       <c r="A1060" s="14" t="s">
         <v>111</v>
       </c>
@@ -33471,7 +33459,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="1061" spans="1:7">
+    <row r="1061" spans="1:6">
       <c r="A1061" s="14" t="s">
         <v>111</v>
       </c>
@@ -33488,10 +33476,10 @@
         <v>488</v>
       </c>
       <c r="F1061" s="14" t="s">
-        <v>2543</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:7">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6">
       <c r="A1062" s="14" t="s">
         <v>111</v>
       </c>
@@ -33511,7 +33499,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="1063" spans="1:7">
+    <row r="1063" spans="1:6">
       <c r="A1063" s="14" t="s">
         <v>111</v>
       </c>
@@ -33528,10 +33516,10 @@
         <v>488</v>
       </c>
       <c r="F1063" s="14" t="s">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:7">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6">
       <c r="A1064" s="14" t="s">
         <v>111</v>
       </c>
@@ -33551,7 +33539,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="1065" spans="1:7">
+    <row r="1065" spans="1:6">
       <c r="A1065" s="14" t="s">
         <v>111</v>
       </c>
@@ -33565,13 +33553,13 @@
         <v>538</v>
       </c>
       <c r="E1065" s="37" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="F1065" s="14" t="s">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:7">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6">
       <c r="A1066" s="14" t="s">
         <v>111</v>
       </c>
@@ -33591,7 +33579,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="1067" spans="1:7">
+    <row r="1067" spans="1:6">
       <c r="A1067" s="14" t="s">
         <v>111</v>
       </c>
@@ -33605,13 +33593,13 @@
         <v>539</v>
       </c>
       <c r="E1067" s="37" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="F1067" s="14" t="s">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:7">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6">
       <c r="A1068" s="14" t="s">
         <v>111</v>
       </c>
@@ -33631,7 +33619,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="1069" spans="1:7">
+    <row r="1069" spans="1:6">
       <c r="A1069" s="14" t="s">
         <v>111</v>
       </c>
@@ -33648,10 +33636,10 @@
         <v>473</v>
       </c>
       <c r="F1069" s="14" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:7">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6">
       <c r="A1070" s="14" t="s">
         <v>111</v>
       </c>
@@ -33671,7 +33659,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="1071" spans="1:7">
+    <row r="1071" spans="1:6">
       <c r="A1071" s="14" t="s">
         <v>111</v>
       </c>
@@ -33688,10 +33676,10 @@
         <v>473</v>
       </c>
       <c r="F1071" s="14" t="s">
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:7">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6">
       <c r="A1072" s="14" t="s">
         <v>111</v>
       </c>
@@ -33728,7 +33716,7 @@
         <v>473</v>
       </c>
       <c r="F1073" s="14" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1074" spans="1:6">
@@ -33768,7 +33756,7 @@
         <v>473</v>
       </c>
       <c r="F1075" s="14" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1076" spans="1:6">
@@ -33808,7 +33796,7 @@
         <v>473</v>
       </c>
       <c r="F1077" s="14" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1078" spans="1:6">
@@ -33848,7 +33836,7 @@
         <v>473</v>
       </c>
       <c r="F1079" s="14" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1080" spans="1:6">
@@ -33888,7 +33876,7 @@
         <v>473</v>
       </c>
       <c r="F1081" s="14" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1082" spans="1:6">
@@ -33928,7 +33916,7 @@
         <v>473</v>
       </c>
       <c r="F1083" s="14" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1084" spans="1:6">
@@ -33968,7 +33956,7 @@
         <v>473</v>
       </c>
       <c r="F1085" s="14" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1086" spans="1:6">
@@ -34008,7 +33996,7 @@
         <v>473</v>
       </c>
       <c r="F1087" s="14" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1088" spans="1:6">
@@ -34048,7 +34036,7 @@
         <v>473</v>
       </c>
       <c r="F1089" s="14" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1090" spans="1:7">
@@ -34088,7 +34076,7 @@
         <v>473</v>
       </c>
       <c r="F1091" s="14" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="1092" spans="1:7">
@@ -34128,7 +34116,7 @@
         <v>473</v>
       </c>
       <c r="F1093" s="14" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1094" spans="1:7">
@@ -34168,7 +34156,7 @@
         <v>473</v>
       </c>
       <c r="F1095" s="14" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="1096" spans="1:7">
@@ -34208,7 +34196,7 @@
         <v>473</v>
       </c>
       <c r="F1097" s="14" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="1098" spans="1:7">
@@ -34248,7 +34236,7 @@
         <v>473</v>
       </c>
       <c r="F1099" s="14" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1100" spans="1:7">
@@ -34288,7 +34276,7 @@
         <v>473</v>
       </c>
       <c r="F1101" s="14" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="1102" spans="1:7">
@@ -34328,7 +34316,7 @@
         <v>581</v>
       </c>
       <c r="F1103" s="14" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="1104" spans="1:7">
@@ -34367,7 +34355,7 @@
         <v>1507</v>
       </c>
       <c r="G1105" s="37" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="1106" spans="1:7" customFormat="1">
@@ -34390,7 +34378,7 @@
         <v>1508</v>
       </c>
       <c r="G1106" s="37" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="1107" spans="1:7" customFormat="1">
@@ -41074,7 +41062,7 @@
         <v>1832</v>
       </c>
       <c r="G1438" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1439" spans="1:7">
@@ -41094,7 +41082,7 @@
         <v>599</v>
       </c>
       <c r="F1439" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1440" spans="1:7">
@@ -41114,7 +41102,7 @@
         <v>599</v>
       </c>
       <c r="F1440" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1441" spans="1:7">
@@ -41134,7 +41122,7 @@
         <v>473</v>
       </c>
       <c r="F1441" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1442" spans="1:7">
@@ -41154,7 +41142,7 @@
         <v>473</v>
       </c>
       <c r="F1442" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1443" spans="1:7" ht="28.8">
@@ -41174,10 +41162,10 @@
         <v>473</v>
       </c>
       <c r="F1443" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1443" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1444" spans="1:7" ht="28.8">
@@ -41197,10 +41185,10 @@
         <v>473</v>
       </c>
       <c r="F1444" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1444" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1445" spans="1:7" ht="28.8">
@@ -41220,10 +41208,10 @@
         <v>473</v>
       </c>
       <c r="F1445" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1445" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1446" spans="1:7" ht="28.8">
@@ -41243,10 +41231,10 @@
         <v>473</v>
       </c>
       <c r="F1446" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1446" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1447" spans="1:7">
@@ -41266,7 +41254,7 @@
         <v>473</v>
       </c>
       <c r="F1447" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1448" spans="1:7">
@@ -41286,7 +41274,7 @@
         <v>473</v>
       </c>
       <c r="F1448" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1449" spans="1:7">
@@ -41306,7 +41294,7 @@
         <v>473</v>
       </c>
       <c r="F1449" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1450" spans="1:7">
@@ -41326,7 +41314,7 @@
         <v>473</v>
       </c>
       <c r="F1450" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1451" spans="1:7">
@@ -41346,7 +41334,7 @@
         <v>473</v>
       </c>
       <c r="F1451" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1452" spans="1:7">
@@ -41366,7 +41354,7 @@
         <v>473</v>
       </c>
       <c r="F1452" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1453" spans="1:7">
@@ -41386,7 +41374,7 @@
         <v>601</v>
       </c>
       <c r="F1453" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1454" spans="1:7">
@@ -41406,7 +41394,7 @@
         <v>477</v>
       </c>
       <c r="F1454" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1455" spans="1:7">
@@ -41426,7 +41414,7 @@
         <v>473</v>
       </c>
       <c r="F1455" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1456" spans="1:7">
@@ -41446,7 +41434,7 @@
         <v>473</v>
       </c>
       <c r="F1456" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1457" spans="1:7">
@@ -41466,7 +41454,7 @@
         <v>473</v>
       </c>
       <c r="F1457" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1458" spans="1:7">
@@ -41486,7 +41474,7 @@
         <v>473</v>
       </c>
       <c r="F1458" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1459" spans="1:7">
@@ -41506,7 +41494,7 @@
         <v>473</v>
       </c>
       <c r="F1459" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1460" spans="1:7">
@@ -41526,7 +41514,7 @@
         <v>473</v>
       </c>
       <c r="F1460" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1461" spans="1:7">
@@ -41546,7 +41534,7 @@
         <v>473</v>
       </c>
       <c r="F1461" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1462" spans="1:7">
@@ -41566,7 +41554,7 @@
         <v>473</v>
       </c>
       <c r="F1462" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1463" spans="1:7">
@@ -41586,7 +41574,7 @@
         <v>473</v>
       </c>
       <c r="F1463" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1464" spans="1:7">
@@ -41606,7 +41594,7 @@
         <v>473</v>
       </c>
       <c r="F1464" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1465" spans="1:7">
@@ -41626,7 +41614,7 @@
         <v>473</v>
       </c>
       <c r="F1465" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1466" spans="1:7">
@@ -41646,7 +41634,7 @@
         <v>473</v>
       </c>
       <c r="F1466" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1467" spans="1:7">
@@ -41686,7 +41674,7 @@
         <v>473</v>
       </c>
       <c r="F1468" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1469" spans="1:7">
@@ -41706,7 +41694,7 @@
         <v>474</v>
       </c>
       <c r="F1469" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1470" spans="1:7">
@@ -41726,7 +41714,7 @@
         <v>474</v>
       </c>
       <c r="F1470" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1471" spans="1:7" ht="115.2">
@@ -41742,7 +41730,7 @@
         <v>1832</v>
       </c>
       <c r="G1471" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1472" spans="1:7">
@@ -41762,7 +41750,7 @@
         <v>599</v>
       </c>
       <c r="F1472" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1473" spans="1:7">
@@ -41782,7 +41770,7 @@
         <v>599</v>
       </c>
       <c r="F1473" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1474" spans="1:7">
@@ -41802,7 +41790,7 @@
         <v>473</v>
       </c>
       <c r="F1474" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1475" spans="1:7">
@@ -41822,7 +41810,7 @@
         <v>473</v>
       </c>
       <c r="F1475" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1476" spans="1:7" ht="28.8">
@@ -41842,10 +41830,10 @@
         <v>473</v>
       </c>
       <c r="F1476" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1476" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1477" spans="1:7" ht="28.8">
@@ -41865,10 +41853,10 @@
         <v>473</v>
       </c>
       <c r="F1477" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1477" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1478" spans="1:7" ht="28.8">
@@ -41888,10 +41876,10 @@
         <v>473</v>
       </c>
       <c r="F1478" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1478" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1479" spans="1:7" ht="28.8">
@@ -41911,10 +41899,10 @@
         <v>473</v>
       </c>
       <c r="F1479" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1479" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1480" spans="1:7">
@@ -41934,7 +41922,7 @@
         <v>473</v>
       </c>
       <c r="F1480" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1481" spans="1:7">
@@ -41954,7 +41942,7 @@
         <v>473</v>
       </c>
       <c r="F1481" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1482" spans="1:7">
@@ -41974,7 +41962,7 @@
         <v>473</v>
       </c>
       <c r="F1482" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1483" spans="1:7">
@@ -41994,7 +41982,7 @@
         <v>473</v>
       </c>
       <c r="F1483" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1484" spans="1:7">
@@ -42014,7 +42002,7 @@
         <v>473</v>
       </c>
       <c r="F1484" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1485" spans="1:7">
@@ -42034,7 +42022,7 @@
         <v>473</v>
       </c>
       <c r="F1485" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1486" spans="1:7">
@@ -42054,7 +42042,7 @@
         <v>601</v>
       </c>
       <c r="F1486" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1487" spans="1:7">
@@ -42074,7 +42062,7 @@
         <v>477</v>
       </c>
       <c r="F1487" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1488" spans="1:7">
@@ -42094,7 +42082,7 @@
         <v>473</v>
       </c>
       <c r="F1488" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1489" spans="1:7">
@@ -42114,7 +42102,7 @@
         <v>473</v>
       </c>
       <c r="F1489" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1490" spans="1:7">
@@ -42134,7 +42122,7 @@
         <v>473</v>
       </c>
       <c r="F1490" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1491" spans="1:7">
@@ -42154,7 +42142,7 @@
         <v>473</v>
       </c>
       <c r="F1491" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1492" spans="1:7">
@@ -42174,7 +42162,7 @@
         <v>473</v>
       </c>
       <c r="F1492" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1493" spans="1:7">
@@ -42194,7 +42182,7 @@
         <v>473</v>
       </c>
       <c r="F1493" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1494" spans="1:7">
@@ -42214,7 +42202,7 @@
         <v>473</v>
       </c>
       <c r="F1494" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1495" spans="1:7">
@@ -42234,7 +42222,7 @@
         <v>473</v>
       </c>
       <c r="F1495" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1496" spans="1:7">
@@ -42254,7 +42242,7 @@
         <v>473</v>
       </c>
       <c r="F1496" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1497" spans="1:7">
@@ -42274,7 +42262,7 @@
         <v>473</v>
       </c>
       <c r="F1497" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1498" spans="1:7">
@@ -42294,7 +42282,7 @@
         <v>473</v>
       </c>
       <c r="F1498" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1499" spans="1:7">
@@ -42314,7 +42302,7 @@
         <v>473</v>
       </c>
       <c r="F1499" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1500" spans="1:7">
@@ -42354,7 +42342,7 @@
         <v>473</v>
       </c>
       <c r="F1501" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1502" spans="1:7">
@@ -42374,7 +42362,7 @@
         <v>474</v>
       </c>
       <c r="F1502" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1503" spans="1:7">
@@ -42394,7 +42382,7 @@
         <v>474</v>
       </c>
       <c r="F1503" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1504" spans="1:7" ht="115.2">
@@ -42410,7 +42398,7 @@
         <v>1832</v>
       </c>
       <c r="G1504" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1505" spans="1:7">
@@ -42430,7 +42418,7 @@
         <v>599</v>
       </c>
       <c r="F1505" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1506" spans="1:7">
@@ -42450,7 +42438,7 @@
         <v>599</v>
       </c>
       <c r="F1506" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1507" spans="1:7">
@@ -42470,7 +42458,7 @@
         <v>473</v>
       </c>
       <c r="F1507" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1508" spans="1:7">
@@ -42490,7 +42478,7 @@
         <v>473</v>
       </c>
       <c r="F1508" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1509" spans="1:7" ht="28.8">
@@ -42510,10 +42498,10 @@
         <v>473</v>
       </c>
       <c r="F1509" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1509" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1510" spans="1:7" ht="28.8">
@@ -42533,10 +42521,10 @@
         <v>473</v>
       </c>
       <c r="F1510" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1510" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1511" spans="1:7" ht="28.8">
@@ -42556,10 +42544,10 @@
         <v>473</v>
       </c>
       <c r="F1511" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1511" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1512" spans="1:7" ht="28.8">
@@ -42579,10 +42567,10 @@
         <v>473</v>
       </c>
       <c r="F1512" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1512" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1513" spans="1:7">
@@ -42602,7 +42590,7 @@
         <v>473</v>
       </c>
       <c r="F1513" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1514" spans="1:7">
@@ -42622,7 +42610,7 @@
         <v>473</v>
       </c>
       <c r="F1514" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1515" spans="1:7">
@@ -42642,7 +42630,7 @@
         <v>473</v>
       </c>
       <c r="F1515" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1516" spans="1:7">
@@ -42662,7 +42650,7 @@
         <v>473</v>
       </c>
       <c r="F1516" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1517" spans="1:7">
@@ -42682,7 +42670,7 @@
         <v>473</v>
       </c>
       <c r="F1517" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1518" spans="1:7">
@@ -42702,7 +42690,7 @@
         <v>473</v>
       </c>
       <c r="F1518" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1519" spans="1:7">
@@ -42722,7 +42710,7 @@
         <v>601</v>
       </c>
       <c r="F1519" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1520" spans="1:7">
@@ -42742,7 +42730,7 @@
         <v>477</v>
       </c>
       <c r="F1520" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1521" spans="1:6">
@@ -42762,7 +42750,7 @@
         <v>473</v>
       </c>
       <c r="F1521" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1522" spans="1:6">
@@ -42782,7 +42770,7 @@
         <v>473</v>
       </c>
       <c r="F1522" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1523" spans="1:6">
@@ -42802,7 +42790,7 @@
         <v>473</v>
       </c>
       <c r="F1523" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1524" spans="1:6">
@@ -42822,7 +42810,7 @@
         <v>473</v>
       </c>
       <c r="F1524" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1525" spans="1:6">
@@ -42842,7 +42830,7 @@
         <v>473</v>
       </c>
       <c r="F1525" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1526" spans="1:6">
@@ -42862,7 +42850,7 @@
         <v>473</v>
       </c>
       <c r="F1526" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1527" spans="1:6">
@@ -42882,7 +42870,7 @@
         <v>473</v>
       </c>
       <c r="F1527" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1528" spans="1:6">
@@ -42902,7 +42890,7 @@
         <v>473</v>
       </c>
       <c r="F1528" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1529" spans="1:6">
@@ -42922,7 +42910,7 @@
         <v>473</v>
       </c>
       <c r="F1529" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1530" spans="1:6">
@@ -42942,7 +42930,7 @@
         <v>473</v>
       </c>
       <c r="F1530" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1531" spans="1:6">
@@ -42962,7 +42950,7 @@
         <v>473</v>
       </c>
       <c r="F1531" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1532" spans="1:6">
@@ -42982,7 +42970,7 @@
         <v>473</v>
       </c>
       <c r="F1532" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1533" spans="1:6">
@@ -43022,7 +43010,7 @@
         <v>473</v>
       </c>
       <c r="F1534" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1535" spans="1:6">
@@ -43042,7 +43030,7 @@
         <v>474</v>
       </c>
       <c r="F1535" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1536" spans="1:6">
@@ -43062,7 +43050,7 @@
         <v>474</v>
       </c>
       <c r="F1536" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1537" spans="1:7" ht="115.2">
@@ -43078,7 +43066,7 @@
         <v>1832</v>
       </c>
       <c r="G1537" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1538" spans="1:7">
@@ -43098,7 +43086,7 @@
         <v>599</v>
       </c>
       <c r="F1538" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1539" spans="1:7">
@@ -43118,7 +43106,7 @@
         <v>599</v>
       </c>
       <c r="F1539" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1540" spans="1:7">
@@ -43138,7 +43126,7 @@
         <v>473</v>
       </c>
       <c r="F1540" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1541" spans="1:7">
@@ -43158,7 +43146,7 @@
         <v>473</v>
       </c>
       <c r="F1541" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1542" spans="1:7" ht="28.8">
@@ -43178,10 +43166,10 @@
         <v>473</v>
       </c>
       <c r="F1542" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1542" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1543" spans="1:7" ht="28.8">
@@ -43201,10 +43189,10 @@
         <v>473</v>
       </c>
       <c r="F1543" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1543" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1544" spans="1:7" ht="28.8">
@@ -43224,10 +43212,10 @@
         <v>473</v>
       </c>
       <c r="F1544" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1544" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1545" spans="1:7" ht="28.8">
@@ -43247,10 +43235,10 @@
         <v>473</v>
       </c>
       <c r="F1545" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1545" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1546" spans="1:7">
@@ -43270,7 +43258,7 @@
         <v>473</v>
       </c>
       <c r="F1546" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1547" spans="1:7">
@@ -43290,7 +43278,7 @@
         <v>473</v>
       </c>
       <c r="F1547" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1548" spans="1:7">
@@ -43310,7 +43298,7 @@
         <v>473</v>
       </c>
       <c r="F1548" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1549" spans="1:7">
@@ -43330,7 +43318,7 @@
         <v>473</v>
       </c>
       <c r="F1549" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1550" spans="1:7">
@@ -43350,7 +43338,7 @@
         <v>473</v>
       </c>
       <c r="F1550" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1551" spans="1:7">
@@ -43370,7 +43358,7 @@
         <v>473</v>
       </c>
       <c r="F1551" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1552" spans="1:7">
@@ -43390,7 +43378,7 @@
         <v>601</v>
       </c>
       <c r="F1552" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1553" spans="1:6">
@@ -43410,7 +43398,7 @@
         <v>477</v>
       </c>
       <c r="F1553" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1554" spans="1:6">
@@ -43430,7 +43418,7 @@
         <v>473</v>
       </c>
       <c r="F1554" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1555" spans="1:6">
@@ -43450,7 +43438,7 @@
         <v>473</v>
       </c>
       <c r="F1555" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1556" spans="1:6">
@@ -43470,7 +43458,7 @@
         <v>473</v>
       </c>
       <c r="F1556" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1557" spans="1:6">
@@ -43490,7 +43478,7 @@
         <v>473</v>
       </c>
       <c r="F1557" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1558" spans="1:6">
@@ -43510,7 +43498,7 @@
         <v>473</v>
       </c>
       <c r="F1558" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1559" spans="1:6">
@@ -43530,7 +43518,7 @@
         <v>473</v>
       </c>
       <c r="F1559" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1560" spans="1:6">
@@ -43550,7 +43538,7 @@
         <v>473</v>
       </c>
       <c r="F1560" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1561" spans="1:6">
@@ -43570,7 +43558,7 @@
         <v>473</v>
       </c>
       <c r="F1561" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1562" spans="1:6">
@@ -43590,7 +43578,7 @@
         <v>473</v>
       </c>
       <c r="F1562" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1563" spans="1:6">
@@ -43610,7 +43598,7 @@
         <v>473</v>
       </c>
       <c r="F1563" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1564" spans="1:6">
@@ -43630,7 +43618,7 @@
         <v>473</v>
       </c>
       <c r="F1564" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1565" spans="1:6">
@@ -43650,7 +43638,7 @@
         <v>473</v>
       </c>
       <c r="F1565" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1566" spans="1:6">
@@ -43690,7 +43678,7 @@
         <v>473</v>
       </c>
       <c r="F1567" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1568" spans="1:6">
@@ -43710,7 +43698,7 @@
         <v>474</v>
       </c>
       <c r="F1568" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1569" spans="1:7">
@@ -43730,7 +43718,7 @@
         <v>474</v>
       </c>
       <c r="F1569" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1570" spans="1:7" ht="115.2">
@@ -43746,7 +43734,7 @@
         <v>1832</v>
       </c>
       <c r="G1570" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1571" spans="1:7">
@@ -43766,7 +43754,7 @@
         <v>599</v>
       </c>
       <c r="F1571" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1572" spans="1:7">
@@ -43786,7 +43774,7 @@
         <v>599</v>
       </c>
       <c r="F1572" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1573" spans="1:7">
@@ -43806,7 +43794,7 @@
         <v>473</v>
       </c>
       <c r="F1573" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1574" spans="1:7">
@@ -43826,7 +43814,7 @@
         <v>473</v>
       </c>
       <c r="F1574" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1575" spans="1:7" ht="28.8">
@@ -43846,10 +43834,10 @@
         <v>473</v>
       </c>
       <c r="F1575" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1575" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1576" spans="1:7" ht="28.8">
@@ -43869,10 +43857,10 @@
         <v>473</v>
       </c>
       <c r="F1576" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1576" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1577" spans="1:7" ht="28.8">
@@ -43892,10 +43880,10 @@
         <v>473</v>
       </c>
       <c r="F1577" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1577" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1578" spans="1:7" ht="28.8">
@@ -43915,10 +43903,10 @@
         <v>473</v>
       </c>
       <c r="F1578" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1578" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1579" spans="1:7">
@@ -43938,7 +43926,7 @@
         <v>473</v>
       </c>
       <c r="F1579" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1580" spans="1:7">
@@ -43958,7 +43946,7 @@
         <v>473</v>
       </c>
       <c r="F1580" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1581" spans="1:7">
@@ -43978,7 +43966,7 @@
         <v>473</v>
       </c>
       <c r="F1581" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1582" spans="1:7">
@@ -43998,7 +43986,7 @@
         <v>473</v>
       </c>
       <c r="F1582" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1583" spans="1:7">
@@ -44018,7 +44006,7 @@
         <v>473</v>
       </c>
       <c r="F1583" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1584" spans="1:7">
@@ -44038,7 +44026,7 @@
         <v>473</v>
       </c>
       <c r="F1584" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1585" spans="1:6">
@@ -44058,7 +44046,7 @@
         <v>601</v>
       </c>
       <c r="F1585" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1586" spans="1:6">
@@ -44078,7 +44066,7 @@
         <v>477</v>
       </c>
       <c r="F1586" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1587" spans="1:6">
@@ -44098,7 +44086,7 @@
         <v>473</v>
       </c>
       <c r="F1587" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1588" spans="1:6">
@@ -44118,7 +44106,7 @@
         <v>473</v>
       </c>
       <c r="F1588" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1589" spans="1:6">
@@ -44138,7 +44126,7 @@
         <v>473</v>
       </c>
       <c r="F1589" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1590" spans="1:6">
@@ -44158,7 +44146,7 @@
         <v>473</v>
       </c>
       <c r="F1590" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1591" spans="1:6">
@@ -44178,7 +44166,7 @@
         <v>473</v>
       </c>
       <c r="F1591" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1592" spans="1:6">
@@ -44198,7 +44186,7 @@
         <v>473</v>
       </c>
       <c r="F1592" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1593" spans="1:6">
@@ -44218,7 +44206,7 @@
         <v>473</v>
       </c>
       <c r="F1593" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1594" spans="1:6">
@@ -44238,7 +44226,7 @@
         <v>473</v>
       </c>
       <c r="F1594" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1595" spans="1:6">
@@ -44258,7 +44246,7 @@
         <v>473</v>
       </c>
       <c r="F1595" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1596" spans="1:6">
@@ -44278,7 +44266,7 @@
         <v>473</v>
       </c>
       <c r="F1596" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1597" spans="1:6">
@@ -44298,7 +44286,7 @@
         <v>473</v>
       </c>
       <c r="F1597" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1598" spans="1:6">
@@ -44318,7 +44306,7 @@
         <v>473</v>
       </c>
       <c r="F1598" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1599" spans="1:6">
@@ -44358,7 +44346,7 @@
         <v>473</v>
       </c>
       <c r="F1600" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1601" spans="1:7">
@@ -44378,7 +44366,7 @@
         <v>474</v>
       </c>
       <c r="F1601" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1602" spans="1:7">
@@ -44398,7 +44386,7 @@
         <v>474</v>
       </c>
       <c r="F1602" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1603" spans="1:7" ht="115.2">
@@ -44414,7 +44402,7 @@
         <v>1832</v>
       </c>
       <c r="G1603" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1604" spans="1:7">
@@ -44434,7 +44422,7 @@
         <v>599</v>
       </c>
       <c r="F1604" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1605" spans="1:7">
@@ -44454,7 +44442,7 @@
         <v>599</v>
       </c>
       <c r="F1605" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1606" spans="1:7">
@@ -44474,7 +44462,7 @@
         <v>473</v>
       </c>
       <c r="F1606" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1607" spans="1:7">
@@ -44494,7 +44482,7 @@
         <v>473</v>
       </c>
       <c r="F1607" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1608" spans="1:7" ht="28.8">
@@ -44514,10 +44502,10 @@
         <v>473</v>
       </c>
       <c r="F1608" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1608" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1609" spans="1:7" ht="28.8">
@@ -44537,10 +44525,10 @@
         <v>473</v>
       </c>
       <c r="F1609" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1609" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1610" spans="1:7" ht="28.8">
@@ -44560,10 +44548,10 @@
         <v>473</v>
       </c>
       <c r="F1610" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1610" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1611" spans="1:7" ht="28.8">
@@ -44583,10 +44571,10 @@
         <v>473</v>
       </c>
       <c r="F1611" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1611" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1612" spans="1:7">
@@ -44606,7 +44594,7 @@
         <v>473</v>
       </c>
       <c r="F1612" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1613" spans="1:7">
@@ -44626,7 +44614,7 @@
         <v>473</v>
       </c>
       <c r="F1613" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1614" spans="1:7">
@@ -44646,7 +44634,7 @@
         <v>473</v>
       </c>
       <c r="F1614" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1615" spans="1:7">
@@ -44666,7 +44654,7 @@
         <v>473</v>
       </c>
       <c r="F1615" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1616" spans="1:7">
@@ -44686,7 +44674,7 @@
         <v>473</v>
       </c>
       <c r="F1616" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1617" spans="1:6">
@@ -44706,7 +44694,7 @@
         <v>473</v>
       </c>
       <c r="F1617" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1618" spans="1:6">
@@ -44726,7 +44714,7 @@
         <v>601</v>
       </c>
       <c r="F1618" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1619" spans="1:6">
@@ -44746,7 +44734,7 @@
         <v>477</v>
       </c>
       <c r="F1619" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1620" spans="1:6">
@@ -44766,7 +44754,7 @@
         <v>473</v>
       </c>
       <c r="F1620" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1621" spans="1:6">
@@ -44786,7 +44774,7 @@
         <v>473</v>
       </c>
       <c r="F1621" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1622" spans="1:6">
@@ -44806,7 +44794,7 @@
         <v>473</v>
       </c>
       <c r="F1622" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1623" spans="1:6">
@@ -44826,7 +44814,7 @@
         <v>473</v>
       </c>
       <c r="F1623" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1624" spans="1:6">
@@ -44846,7 +44834,7 @@
         <v>473</v>
       </c>
       <c r="F1624" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1625" spans="1:6">
@@ -44866,7 +44854,7 @@
         <v>473</v>
       </c>
       <c r="F1625" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1626" spans="1:6">
@@ -44886,7 +44874,7 @@
         <v>473</v>
       </c>
       <c r="F1626" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1627" spans="1:6">
@@ -44906,7 +44894,7 @@
         <v>473</v>
       </c>
       <c r="F1627" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1628" spans="1:6">
@@ -44926,7 +44914,7 @@
         <v>473</v>
       </c>
       <c r="F1628" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1629" spans="1:6">
@@ -44946,7 +44934,7 @@
         <v>473</v>
       </c>
       <c r="F1629" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1630" spans="1:6">
@@ -44966,7 +44954,7 @@
         <v>473</v>
       </c>
       <c r="F1630" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1631" spans="1:6">
@@ -44986,7 +44974,7 @@
         <v>473</v>
       </c>
       <c r="F1631" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1632" spans="1:6">
@@ -45026,7 +45014,7 @@
         <v>473</v>
       </c>
       <c r="F1633" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1634" spans="1:7">
@@ -45046,7 +45034,7 @@
         <v>474</v>
       </c>
       <c r="F1634" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1635" spans="1:7">
@@ -45066,7 +45054,7 @@
         <v>474</v>
       </c>
       <c r="F1635" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1636" spans="1:7" ht="115.2">
@@ -45082,7 +45070,7 @@
         <v>1832</v>
       </c>
       <c r="G1636" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1637" spans="1:7">
@@ -45102,7 +45090,7 @@
         <v>599</v>
       </c>
       <c r="F1637" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1638" spans="1:7">
@@ -45122,7 +45110,7 @@
         <v>599</v>
       </c>
       <c r="F1638" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1639" spans="1:7">
@@ -45142,7 +45130,7 @@
         <v>473</v>
       </c>
       <c r="F1639" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1640" spans="1:7">
@@ -45162,7 +45150,7 @@
         <v>473</v>
       </c>
       <c r="F1640" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1641" spans="1:7" ht="28.8">
@@ -45182,10 +45170,10 @@
         <v>473</v>
       </c>
       <c r="F1641" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1641" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1642" spans="1:7" ht="28.8">
@@ -45205,10 +45193,10 @@
         <v>473</v>
       </c>
       <c r="F1642" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1642" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1643" spans="1:7" ht="28.8">
@@ -45228,10 +45216,10 @@
         <v>473</v>
       </c>
       <c r="F1643" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1643" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1644" spans="1:7" ht="28.8">
@@ -45251,10 +45239,10 @@
         <v>473</v>
       </c>
       <c r="F1644" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1644" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1645" spans="1:7">
@@ -45274,7 +45262,7 @@
         <v>473</v>
       </c>
       <c r="F1645" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1646" spans="1:7">
@@ -45294,7 +45282,7 @@
         <v>473</v>
       </c>
       <c r="F1646" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1647" spans="1:7">
@@ -45314,7 +45302,7 @@
         <v>473</v>
       </c>
       <c r="F1647" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1648" spans="1:7">
@@ -45334,7 +45322,7 @@
         <v>473</v>
       </c>
       <c r="F1648" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1649" spans="1:6">
@@ -45354,7 +45342,7 @@
         <v>473</v>
       </c>
       <c r="F1649" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1650" spans="1:6">
@@ -45374,7 +45362,7 @@
         <v>473</v>
       </c>
       <c r="F1650" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1651" spans="1:6">
@@ -45394,7 +45382,7 @@
         <v>601</v>
       </c>
       <c r="F1651" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1652" spans="1:6">
@@ -45414,7 +45402,7 @@
         <v>477</v>
       </c>
       <c r="F1652" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1653" spans="1:6">
@@ -45434,7 +45422,7 @@
         <v>473</v>
       </c>
       <c r="F1653" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1654" spans="1:6">
@@ -45454,7 +45442,7 @@
         <v>473</v>
       </c>
       <c r="F1654" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1655" spans="1:6">
@@ -45474,7 +45462,7 @@
         <v>473</v>
       </c>
       <c r="F1655" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1656" spans="1:6">
@@ -45494,7 +45482,7 @@
         <v>473</v>
       </c>
       <c r="F1656" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1657" spans="1:6">
@@ -45514,7 +45502,7 @@
         <v>473</v>
       </c>
       <c r="F1657" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1658" spans="1:6">
@@ -45534,7 +45522,7 @@
         <v>473</v>
       </c>
       <c r="F1658" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1659" spans="1:6">
@@ -45554,7 +45542,7 @@
         <v>473</v>
       </c>
       <c r="F1659" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1660" spans="1:6">
@@ -45574,7 +45562,7 @@
         <v>473</v>
       </c>
       <c r="F1660" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1661" spans="1:6">
@@ -45594,7 +45582,7 @@
         <v>473</v>
       </c>
       <c r="F1661" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1662" spans="1:6">
@@ -45614,7 +45602,7 @@
         <v>473</v>
       </c>
       <c r="F1662" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1663" spans="1:6">
@@ -45634,7 +45622,7 @@
         <v>473</v>
       </c>
       <c r="F1663" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1664" spans="1:6">
@@ -45654,7 +45642,7 @@
         <v>473</v>
       </c>
       <c r="F1664" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1665" spans="1:7">
@@ -45694,7 +45682,7 @@
         <v>473</v>
       </c>
       <c r="F1666" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1667" spans="1:7">
@@ -45714,7 +45702,7 @@
         <v>474</v>
       </c>
       <c r="F1667" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1668" spans="1:7">
@@ -45734,7 +45722,7 @@
         <v>474</v>
       </c>
       <c r="F1668" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1669" spans="1:7" ht="115.2">
@@ -45750,7 +45738,7 @@
         <v>1832</v>
       </c>
       <c r="G1669" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1670" spans="1:7">
@@ -45770,7 +45758,7 @@
         <v>599</v>
       </c>
       <c r="F1670" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1671" spans="1:7">
@@ -45790,7 +45778,7 @@
         <v>599</v>
       </c>
       <c r="F1671" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1672" spans="1:7">
@@ -45810,7 +45798,7 @@
         <v>473</v>
       </c>
       <c r="F1672" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1673" spans="1:7">
@@ -45830,7 +45818,7 @@
         <v>473</v>
       </c>
       <c r="F1673" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1674" spans="1:7" ht="28.8">
@@ -45850,10 +45838,10 @@
         <v>473</v>
       </c>
       <c r="F1674" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1674" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1675" spans="1:7" ht="28.8">
@@ -45873,10 +45861,10 @@
         <v>473</v>
       </c>
       <c r="F1675" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1675" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1676" spans="1:7" ht="28.8">
@@ -45896,10 +45884,10 @@
         <v>473</v>
       </c>
       <c r="F1676" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1676" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1677" spans="1:7" ht="28.8">
@@ -45919,10 +45907,10 @@
         <v>473</v>
       </c>
       <c r="F1677" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1677" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1678" spans="1:7">
@@ -45942,7 +45930,7 @@
         <v>473</v>
       </c>
       <c r="F1678" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1679" spans="1:7">
@@ -45962,7 +45950,7 @@
         <v>473</v>
       </c>
       <c r="F1679" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1680" spans="1:7">
@@ -45982,7 +45970,7 @@
         <v>473</v>
       </c>
       <c r="F1680" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1681" spans="1:6">
@@ -46002,7 +45990,7 @@
         <v>473</v>
       </c>
       <c r="F1681" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1682" spans="1:6">
@@ -46022,7 +46010,7 @@
         <v>473</v>
       </c>
       <c r="F1682" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1683" spans="1:6">
@@ -46042,7 +46030,7 @@
         <v>473</v>
       </c>
       <c r="F1683" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1684" spans="1:6">
@@ -46062,7 +46050,7 @@
         <v>601</v>
       </c>
       <c r="F1684" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1685" spans="1:6">
@@ -46082,7 +46070,7 @@
         <v>477</v>
       </c>
       <c r="F1685" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1686" spans="1:6">
@@ -46102,7 +46090,7 @@
         <v>473</v>
       </c>
       <c r="F1686" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1687" spans="1:6">
@@ -46122,7 +46110,7 @@
         <v>473</v>
       </c>
       <c r="F1687" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1688" spans="1:6">
@@ -46142,7 +46130,7 @@
         <v>473</v>
       </c>
       <c r="F1688" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1689" spans="1:6">
@@ -46162,7 +46150,7 @@
         <v>473</v>
       </c>
       <c r="F1689" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1690" spans="1:6">
@@ -46182,7 +46170,7 @@
         <v>473</v>
       </c>
       <c r="F1690" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1691" spans="1:6">
@@ -46202,7 +46190,7 @@
         <v>473</v>
       </c>
       <c r="F1691" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1692" spans="1:6">
@@ -46222,7 +46210,7 @@
         <v>473</v>
       </c>
       <c r="F1692" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1693" spans="1:6">
@@ -46242,7 +46230,7 @@
         <v>473</v>
       </c>
       <c r="F1693" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1694" spans="1:6">
@@ -46262,7 +46250,7 @@
         <v>473</v>
       </c>
       <c r="F1694" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1695" spans="1:6">
@@ -46282,7 +46270,7 @@
         <v>473</v>
       </c>
       <c r="F1695" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1696" spans="1:6">
@@ -46302,7 +46290,7 @@
         <v>473</v>
       </c>
       <c r="F1696" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1697" spans="1:7">
@@ -46322,7 +46310,7 @@
         <v>473</v>
       </c>
       <c r="F1697" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1698" spans="1:7">
@@ -46362,7 +46350,7 @@
         <v>473</v>
       </c>
       <c r="F1699" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1700" spans="1:7">
@@ -46382,7 +46370,7 @@
         <v>474</v>
       </c>
       <c r="F1700" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1701" spans="1:7">
@@ -46402,7 +46390,7 @@
         <v>474</v>
       </c>
       <c r="F1701" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1702" spans="1:7" ht="115.2">
@@ -46418,7 +46406,7 @@
         <v>1832</v>
       </c>
       <c r="G1702" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1703" spans="1:7">
@@ -46438,7 +46426,7 @@
         <v>599</v>
       </c>
       <c r="F1703" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1704" spans="1:7">
@@ -46458,7 +46446,7 @@
         <v>599</v>
       </c>
       <c r="F1704" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1705" spans="1:7">
@@ -46478,7 +46466,7 @@
         <v>473</v>
       </c>
       <c r="F1705" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1706" spans="1:7">
@@ -46498,7 +46486,7 @@
         <v>473</v>
       </c>
       <c r="F1706" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1707" spans="1:7" ht="28.8">
@@ -46518,10 +46506,10 @@
         <v>473</v>
       </c>
       <c r="F1707" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1707" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1708" spans="1:7" ht="28.8">
@@ -46541,10 +46529,10 @@
         <v>473</v>
       </c>
       <c r="F1708" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1708" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1709" spans="1:7" ht="28.8">
@@ -46564,10 +46552,10 @@
         <v>473</v>
       </c>
       <c r="F1709" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1709" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1710" spans="1:7" ht="28.8">
@@ -46587,10 +46575,10 @@
         <v>473</v>
       </c>
       <c r="F1710" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1710" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1711" spans="1:7">
@@ -46610,7 +46598,7 @@
         <v>473</v>
       </c>
       <c r="F1711" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1712" spans="1:7">
@@ -46630,7 +46618,7 @@
         <v>473</v>
       </c>
       <c r="F1712" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1713" spans="1:6">
@@ -46650,7 +46638,7 @@
         <v>473</v>
       </c>
       <c r="F1713" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1714" spans="1:6">
@@ -46670,7 +46658,7 @@
         <v>473</v>
       </c>
       <c r="F1714" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1715" spans="1:6">
@@ -46690,7 +46678,7 @@
         <v>473</v>
       </c>
       <c r="F1715" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1716" spans="1:6">
@@ -46710,7 +46698,7 @@
         <v>473</v>
       </c>
       <c r="F1716" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1717" spans="1:6">
@@ -46730,7 +46718,7 @@
         <v>601</v>
       </c>
       <c r="F1717" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1718" spans="1:6">
@@ -46750,7 +46738,7 @@
         <v>477</v>
       </c>
       <c r="F1718" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1719" spans="1:6">
@@ -46770,7 +46758,7 @@
         <v>473</v>
       </c>
       <c r="F1719" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1720" spans="1:6">
@@ -46790,7 +46778,7 @@
         <v>473</v>
       </c>
       <c r="F1720" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1721" spans="1:6">
@@ -46810,7 +46798,7 @@
         <v>473</v>
       </c>
       <c r="F1721" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1722" spans="1:6">
@@ -46830,7 +46818,7 @@
         <v>473</v>
       </c>
       <c r="F1722" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1723" spans="1:6">
@@ -46850,7 +46838,7 @@
         <v>473</v>
       </c>
       <c r="F1723" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1724" spans="1:6">
@@ -46870,7 +46858,7 @@
         <v>473</v>
       </c>
       <c r="F1724" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1725" spans="1:6">
@@ -46890,7 +46878,7 @@
         <v>473</v>
       </c>
       <c r="F1725" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1726" spans="1:6">
@@ -46910,7 +46898,7 @@
         <v>473</v>
       </c>
       <c r="F1726" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1727" spans="1:6">
@@ -46930,7 +46918,7 @@
         <v>473</v>
       </c>
       <c r="F1727" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1728" spans="1:6">
@@ -46950,7 +46938,7 @@
         <v>473</v>
       </c>
       <c r="F1728" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1729" spans="1:7">
@@ -46970,7 +46958,7 @@
         <v>473</v>
       </c>
       <c r="F1729" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1730" spans="1:7">
@@ -46990,7 +46978,7 @@
         <v>473</v>
       </c>
       <c r="F1730" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1731" spans="1:7">
@@ -47030,7 +47018,7 @@
         <v>472</v>
       </c>
       <c r="F1732" s="14" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1733" spans="1:7">
@@ -47050,7 +47038,7 @@
         <v>474</v>
       </c>
       <c r="F1733" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1734" spans="1:7">
@@ -47070,7 +47058,7 @@
         <v>474</v>
       </c>
       <c r="F1734" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1735" spans="1:7" ht="115.2">
@@ -47086,7 +47074,7 @@
         <v>1832</v>
       </c>
       <c r="G1735" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1736" spans="1:7">
@@ -47106,7 +47094,7 @@
         <v>599</v>
       </c>
       <c r="F1736" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1737" spans="1:7">
@@ -47126,7 +47114,7 @@
         <v>599</v>
       </c>
       <c r="F1737" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1738" spans="1:7">
@@ -47146,7 +47134,7 @@
         <v>473</v>
       </c>
       <c r="F1738" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1739" spans="1:7">
@@ -47166,7 +47154,7 @@
         <v>473</v>
       </c>
       <c r="F1739" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1740" spans="1:7" ht="28.8">
@@ -47186,10 +47174,10 @@
         <v>473</v>
       </c>
       <c r="F1740" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1740" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1741" spans="1:7" ht="28.8">
@@ -47209,10 +47197,10 @@
         <v>473</v>
       </c>
       <c r="F1741" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1741" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1742" spans="1:7" ht="28.8">
@@ -47232,10 +47220,10 @@
         <v>473</v>
       </c>
       <c r="F1742" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1742" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1743" spans="1:7" ht="28.8">
@@ -47255,10 +47243,10 @@
         <v>473</v>
       </c>
       <c r="F1743" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1743" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1744" spans="1:7">
@@ -47278,7 +47266,7 @@
         <v>473</v>
       </c>
       <c r="F1744" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1745" spans="1:6">
@@ -47298,7 +47286,7 @@
         <v>473</v>
       </c>
       <c r="F1745" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1746" spans="1:6">
@@ -47318,7 +47306,7 @@
         <v>473</v>
       </c>
       <c r="F1746" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1747" spans="1:6">
@@ -47338,7 +47326,7 @@
         <v>473</v>
       </c>
       <c r="F1747" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1748" spans="1:6">
@@ -47358,7 +47346,7 @@
         <v>473</v>
       </c>
       <c r="F1748" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1749" spans="1:6">
@@ -47378,7 +47366,7 @@
         <v>473</v>
       </c>
       <c r="F1749" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1750" spans="1:6">
@@ -47398,7 +47386,7 @@
         <v>601</v>
       </c>
       <c r="F1750" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1751" spans="1:6">
@@ -47418,7 +47406,7 @@
         <v>477</v>
       </c>
       <c r="F1751" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1752" spans="1:6">
@@ -47438,7 +47426,7 @@
         <v>473</v>
       </c>
       <c r="F1752" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1753" spans="1:6">
@@ -47458,7 +47446,7 @@
         <v>473</v>
       </c>
       <c r="F1753" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1754" spans="1:6">
@@ -47478,7 +47466,7 @@
         <v>473</v>
       </c>
       <c r="F1754" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1755" spans="1:6">
@@ -47498,7 +47486,7 @@
         <v>473</v>
       </c>
       <c r="F1755" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1756" spans="1:6">
@@ -47518,7 +47506,7 @@
         <v>473</v>
       </c>
       <c r="F1756" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1757" spans="1:6">
@@ -47538,7 +47526,7 @@
         <v>473</v>
       </c>
       <c r="F1757" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1758" spans="1:6">
@@ -47558,7 +47546,7 @@
         <v>473</v>
       </c>
       <c r="F1758" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1759" spans="1:6">
@@ -47578,7 +47566,7 @@
         <v>473</v>
       </c>
       <c r="F1759" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1760" spans="1:6">
@@ -47598,7 +47586,7 @@
         <v>473</v>
       </c>
       <c r="F1760" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1761" spans="1:7">
@@ -47618,7 +47606,7 @@
         <v>473</v>
       </c>
       <c r="F1761" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1762" spans="1:7">
@@ -47638,7 +47626,7 @@
         <v>473</v>
       </c>
       <c r="F1762" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1763" spans="1:7">
@@ -47658,7 +47646,7 @@
         <v>473</v>
       </c>
       <c r="F1763" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1764" spans="1:7">
@@ -47698,7 +47686,7 @@
         <v>472</v>
       </c>
       <c r="F1765" s="14" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1766" spans="1:7">
@@ -47718,7 +47706,7 @@
         <v>474</v>
       </c>
       <c r="F1766" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1767" spans="1:7">
@@ -47738,7 +47726,7 @@
         <v>474</v>
       </c>
       <c r="F1767" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1768" spans="1:7" ht="115.2">
@@ -47754,7 +47742,7 @@
         <v>1832</v>
       </c>
       <c r="G1768" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1769" spans="1:7">
@@ -47774,7 +47762,7 @@
         <v>599</v>
       </c>
       <c r="F1769" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1770" spans="1:7">
@@ -47794,7 +47782,7 @@
         <v>599</v>
       </c>
       <c r="F1770" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1771" spans="1:7">
@@ -47814,7 +47802,7 @@
         <v>473</v>
       </c>
       <c r="F1771" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1772" spans="1:7">
@@ -47834,7 +47822,7 @@
         <v>473</v>
       </c>
       <c r="F1772" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1773" spans="1:7" ht="28.8">
@@ -47854,10 +47842,10 @@
         <v>473</v>
       </c>
       <c r="F1773" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1773" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1774" spans="1:7" ht="28.8">
@@ -47877,10 +47865,10 @@
         <v>473</v>
       </c>
       <c r="F1774" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1774" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1775" spans="1:7" ht="28.8">
@@ -47900,10 +47888,10 @@
         <v>473</v>
       </c>
       <c r="F1775" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1775" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1776" spans="1:7" ht="28.8">
@@ -47923,10 +47911,10 @@
         <v>473</v>
       </c>
       <c r="F1776" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1776" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1777" spans="1:6">
@@ -47946,7 +47934,7 @@
         <v>473</v>
       </c>
       <c r="F1777" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1778" spans="1:6">
@@ -47966,7 +47954,7 @@
         <v>473</v>
       </c>
       <c r="F1778" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1779" spans="1:6">
@@ -47986,7 +47974,7 @@
         <v>473</v>
       </c>
       <c r="F1779" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1780" spans="1:6">
@@ -48006,7 +47994,7 @@
         <v>473</v>
       </c>
       <c r="F1780" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1781" spans="1:6">
@@ -48026,7 +48014,7 @@
         <v>473</v>
       </c>
       <c r="F1781" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1782" spans="1:6">
@@ -48046,7 +48034,7 @@
         <v>473</v>
       </c>
       <c r="F1782" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1783" spans="1:6">
@@ -48066,7 +48054,7 @@
         <v>601</v>
       </c>
       <c r="F1783" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1784" spans="1:6">
@@ -48086,7 +48074,7 @@
         <v>477</v>
       </c>
       <c r="F1784" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1785" spans="1:6">
@@ -48106,7 +48094,7 @@
         <v>473</v>
       </c>
       <c r="F1785" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1786" spans="1:6">
@@ -48126,7 +48114,7 @@
         <v>473</v>
       </c>
       <c r="F1786" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1787" spans="1:6">
@@ -48146,7 +48134,7 @@
         <v>473</v>
       </c>
       <c r="F1787" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1788" spans="1:6">
@@ -48166,7 +48154,7 @@
         <v>473</v>
       </c>
       <c r="F1788" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1789" spans="1:6">
@@ -48186,7 +48174,7 @@
         <v>473</v>
       </c>
       <c r="F1789" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1790" spans="1:6">
@@ -48206,7 +48194,7 @@
         <v>473</v>
       </c>
       <c r="F1790" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1791" spans="1:6">
@@ -48226,7 +48214,7 @@
         <v>473</v>
       </c>
       <c r="F1791" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1792" spans="1:6">
@@ -48246,7 +48234,7 @@
         <v>473</v>
       </c>
       <c r="F1792" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1793" spans="1:7">
@@ -48266,7 +48254,7 @@
         <v>473</v>
       </c>
       <c r="F1793" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1794" spans="1:7">
@@ -48286,7 +48274,7 @@
         <v>473</v>
       </c>
       <c r="F1794" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1795" spans="1:7">
@@ -48306,7 +48294,7 @@
         <v>473</v>
       </c>
       <c r="F1795" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1796" spans="1:7">
@@ -48326,7 +48314,7 @@
         <v>473</v>
       </c>
       <c r="F1796" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1797" spans="1:7">
@@ -48366,7 +48354,7 @@
         <v>472</v>
       </c>
       <c r="F1798" s="14" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1799" spans="1:7">
@@ -48386,7 +48374,7 @@
         <v>474</v>
       </c>
       <c r="F1799" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1800" spans="1:7">
@@ -48406,7 +48394,7 @@
         <v>474</v>
       </c>
       <c r="F1800" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1801" spans="1:7" ht="115.2">
@@ -48422,7 +48410,7 @@
         <v>1832</v>
       </c>
       <c r="G1801" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1802" spans="1:7">
@@ -48442,7 +48430,7 @@
         <v>599</v>
       </c>
       <c r="F1802" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1803" spans="1:7">
@@ -48462,7 +48450,7 @@
         <v>599</v>
       </c>
       <c r="F1803" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1804" spans="1:7">
@@ -48482,7 +48470,7 @@
         <v>473</v>
       </c>
       <c r="F1804" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1805" spans="1:7">
@@ -48502,7 +48490,7 @@
         <v>473</v>
       </c>
       <c r="F1805" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1806" spans="1:7" ht="28.8">
@@ -48522,10 +48510,10 @@
         <v>473</v>
       </c>
       <c r="F1806" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1806" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1807" spans="1:7" ht="28.8">
@@ -48545,10 +48533,10 @@
         <v>473</v>
       </c>
       <c r="F1807" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1807" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1808" spans="1:7" ht="28.8">
@@ -48568,10 +48556,10 @@
         <v>473</v>
       </c>
       <c r="F1808" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1808" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1809" spans="1:7" ht="28.8">
@@ -48591,10 +48579,10 @@
         <v>473</v>
       </c>
       <c r="F1809" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1809" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1810" spans="1:7">
@@ -48614,7 +48602,7 @@
         <v>473</v>
       </c>
       <c r="F1810" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1811" spans="1:7">
@@ -48634,7 +48622,7 @@
         <v>473</v>
       </c>
       <c r="F1811" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1812" spans="1:7">
@@ -48654,7 +48642,7 @@
         <v>473</v>
       </c>
       <c r="F1812" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1813" spans="1:7">
@@ -48674,7 +48662,7 @@
         <v>473</v>
       </c>
       <c r="F1813" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1814" spans="1:7">
@@ -48694,7 +48682,7 @@
         <v>473</v>
       </c>
       <c r="F1814" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1815" spans="1:7">
@@ -48714,7 +48702,7 @@
         <v>473</v>
       </c>
       <c r="F1815" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1816" spans="1:7">
@@ -48734,7 +48722,7 @@
         <v>601</v>
       </c>
       <c r="F1816" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1817" spans="1:7">
@@ -48754,7 +48742,7 @@
         <v>477</v>
       </c>
       <c r="F1817" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1818" spans="1:7">
@@ -48774,7 +48762,7 @@
         <v>473</v>
       </c>
       <c r="F1818" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1819" spans="1:7">
@@ -48794,7 +48782,7 @@
         <v>473</v>
       </c>
       <c r="F1819" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1820" spans="1:7">
@@ -48814,7 +48802,7 @@
         <v>473</v>
       </c>
       <c r="F1820" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1821" spans="1:7">
@@ -48834,7 +48822,7 @@
         <v>473</v>
       </c>
       <c r="F1821" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1822" spans="1:7">
@@ -48854,7 +48842,7 @@
         <v>473</v>
       </c>
       <c r="F1822" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1823" spans="1:7">
@@ -48874,7 +48862,7 @@
         <v>473</v>
       </c>
       <c r="F1823" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1824" spans="1:7">
@@ -48894,7 +48882,7 @@
         <v>473</v>
       </c>
       <c r="F1824" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1825" spans="1:7">
@@ -48914,7 +48902,7 @@
         <v>473</v>
       </c>
       <c r="F1825" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1826" spans="1:7">
@@ -48934,7 +48922,7 @@
         <v>473</v>
       </c>
       <c r="F1826" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1827" spans="1:7">
@@ -48954,7 +48942,7 @@
         <v>473</v>
       </c>
       <c r="F1827" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1828" spans="1:7">
@@ -48974,7 +48962,7 @@
         <v>473</v>
       </c>
       <c r="F1828" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1829" spans="1:7">
@@ -48994,7 +48982,7 @@
         <v>473</v>
       </c>
       <c r="F1829" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1830" spans="1:7">
@@ -49034,7 +49022,7 @@
         <v>472</v>
       </c>
       <c r="F1831" s="14" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1832" spans="1:7">
@@ -49054,7 +49042,7 @@
         <v>474</v>
       </c>
       <c r="F1832" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1833" spans="1:7">
@@ -49074,7 +49062,7 @@
         <v>474</v>
       </c>
       <c r="F1833" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1834" spans="1:7" ht="115.2">
@@ -49090,7 +49078,7 @@
         <v>1832</v>
       </c>
       <c r="G1834" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1835" spans="1:7">
@@ -49110,7 +49098,7 @@
         <v>599</v>
       </c>
       <c r="F1835" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1836" spans="1:7">
@@ -49130,7 +49118,7 @@
         <v>599</v>
       </c>
       <c r="F1836" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1837" spans="1:7">
@@ -49150,7 +49138,7 @@
         <v>473</v>
       </c>
       <c r="F1837" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1838" spans="1:7">
@@ -49170,7 +49158,7 @@
         <v>473</v>
       </c>
       <c r="F1838" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1839" spans="1:7" ht="28.8">
@@ -49190,10 +49178,10 @@
         <v>473</v>
       </c>
       <c r="F1839" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1839" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1840" spans="1:7" ht="28.8">
@@ -49213,10 +49201,10 @@
         <v>473</v>
       </c>
       <c r="F1840" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1840" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1841" spans="1:7" ht="28.8">
@@ -49236,10 +49224,10 @@
         <v>473</v>
       </c>
       <c r="F1841" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1841" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1842" spans="1:7" ht="28.8">
@@ -49259,10 +49247,10 @@
         <v>473</v>
       </c>
       <c r="F1842" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1842" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1843" spans="1:7">
@@ -49282,7 +49270,7 @@
         <v>473</v>
       </c>
       <c r="F1843" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1844" spans="1:7">
@@ -49302,7 +49290,7 @@
         <v>473</v>
       </c>
       <c r="F1844" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1845" spans="1:7">
@@ -49322,7 +49310,7 @@
         <v>473</v>
       </c>
       <c r="F1845" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1846" spans="1:7">
@@ -49342,7 +49330,7 @@
         <v>473</v>
       </c>
       <c r="F1846" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1847" spans="1:7">
@@ -49362,7 +49350,7 @@
         <v>473</v>
       </c>
       <c r="F1847" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1848" spans="1:7">
@@ -49382,7 +49370,7 @@
         <v>473</v>
       </c>
       <c r="F1848" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1849" spans="1:7">
@@ -49402,7 +49390,7 @@
         <v>601</v>
       </c>
       <c r="F1849" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1850" spans="1:7">
@@ -49422,7 +49410,7 @@
         <v>477</v>
       </c>
       <c r="F1850" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1851" spans="1:7">
@@ -49442,7 +49430,7 @@
         <v>473</v>
       </c>
       <c r="F1851" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1852" spans="1:7">
@@ -49462,7 +49450,7 @@
         <v>473</v>
       </c>
       <c r="F1852" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1853" spans="1:7">
@@ -49482,7 +49470,7 @@
         <v>473</v>
       </c>
       <c r="F1853" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1854" spans="1:7">
@@ -49502,7 +49490,7 @@
         <v>473</v>
       </c>
       <c r="F1854" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1855" spans="1:7">
@@ -49522,7 +49510,7 @@
         <v>473</v>
       </c>
       <c r="F1855" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1856" spans="1:7">
@@ -49542,7 +49530,7 @@
         <v>473</v>
       </c>
       <c r="F1856" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1857" spans="1:7">
@@ -49562,7 +49550,7 @@
         <v>473</v>
       </c>
       <c r="F1857" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1858" spans="1:7">
@@ -49582,7 +49570,7 @@
         <v>473</v>
       </c>
       <c r="F1858" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1859" spans="1:7">
@@ -49602,7 +49590,7 @@
         <v>473</v>
       </c>
       <c r="F1859" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1860" spans="1:7">
@@ -49622,7 +49610,7 @@
         <v>473</v>
       </c>
       <c r="F1860" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1861" spans="1:7">
@@ -49642,7 +49630,7 @@
         <v>473</v>
       </c>
       <c r="F1861" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1862" spans="1:7">
@@ -49662,7 +49650,7 @@
         <v>473</v>
       </c>
       <c r="F1862" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1863" spans="1:7">
@@ -49702,7 +49690,7 @@
         <v>472</v>
       </c>
       <c r="F1864" s="14" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1865" spans="1:7">
@@ -49722,7 +49710,7 @@
         <v>474</v>
       </c>
       <c r="F1865" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1866" spans="1:7">
@@ -49742,7 +49730,7 @@
         <v>474</v>
       </c>
       <c r="F1866" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1867" spans="1:7" ht="115.2">
@@ -49758,7 +49746,7 @@
         <v>1832</v>
       </c>
       <c r="G1867" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1868" spans="1:7">
@@ -49778,7 +49766,7 @@
         <v>599</v>
       </c>
       <c r="F1868" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1869" spans="1:7">
@@ -49798,7 +49786,7 @@
         <v>599</v>
       </c>
       <c r="F1869" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1870" spans="1:7">
@@ -49818,7 +49806,7 @@
         <v>473</v>
       </c>
       <c r="F1870" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1871" spans="1:7">
@@ -49838,7 +49826,7 @@
         <v>473</v>
       </c>
       <c r="F1871" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1872" spans="1:7" ht="28.8">
@@ -49858,10 +49846,10 @@
         <v>473</v>
       </c>
       <c r="F1872" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1872" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1873" spans="1:7" ht="28.8">
@@ -49881,10 +49869,10 @@
         <v>473</v>
       </c>
       <c r="F1873" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1873" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1874" spans="1:7" ht="28.8">
@@ -49904,10 +49892,10 @@
         <v>473</v>
       </c>
       <c r="F1874" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1874" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1875" spans="1:7" ht="28.8">
@@ -49927,10 +49915,10 @@
         <v>473</v>
       </c>
       <c r="F1875" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1875" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1876" spans="1:7">
@@ -49950,7 +49938,7 @@
         <v>473</v>
       </c>
       <c r="F1876" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1877" spans="1:7">
@@ -49970,7 +49958,7 @@
         <v>473</v>
       </c>
       <c r="F1877" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1878" spans="1:7">
@@ -49990,7 +49978,7 @@
         <v>473</v>
       </c>
       <c r="F1878" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1879" spans="1:7">
@@ -50010,7 +49998,7 @@
         <v>473</v>
       </c>
       <c r="F1879" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1880" spans="1:7">
@@ -50030,7 +50018,7 @@
         <v>473</v>
       </c>
       <c r="F1880" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1881" spans="1:7">
@@ -50050,7 +50038,7 @@
         <v>473</v>
       </c>
       <c r="F1881" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1882" spans="1:7">
@@ -50070,7 +50058,7 @@
         <v>601</v>
       </c>
       <c r="F1882" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1883" spans="1:7">
@@ -50090,7 +50078,7 @@
         <v>477</v>
       </c>
       <c r="F1883" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1884" spans="1:7">
@@ -50110,7 +50098,7 @@
         <v>473</v>
       </c>
       <c r="F1884" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1885" spans="1:7">
@@ -50130,7 +50118,7 @@
         <v>473</v>
       </c>
       <c r="F1885" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1886" spans="1:7">
@@ -50150,7 +50138,7 @@
         <v>473</v>
       </c>
       <c r="F1886" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1887" spans="1:7">
@@ -50170,7 +50158,7 @@
         <v>473</v>
       </c>
       <c r="F1887" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1888" spans="1:7">
@@ -50190,7 +50178,7 @@
         <v>473</v>
       </c>
       <c r="F1888" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1889" spans="1:7">
@@ -50210,7 +50198,7 @@
         <v>473</v>
       </c>
       <c r="F1889" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1890" spans="1:7">
@@ -50230,7 +50218,7 @@
         <v>473</v>
       </c>
       <c r="F1890" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1891" spans="1:7">
@@ -50250,7 +50238,7 @@
         <v>473</v>
       </c>
       <c r="F1891" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1892" spans="1:7">
@@ -50270,7 +50258,7 @@
         <v>473</v>
       </c>
       <c r="F1892" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1893" spans="1:7">
@@ -50290,7 +50278,7 @@
         <v>473</v>
       </c>
       <c r="F1893" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1894" spans="1:7">
@@ -50310,7 +50298,7 @@
         <v>473</v>
       </c>
       <c r="F1894" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1895" spans="1:7">
@@ -50330,7 +50318,7 @@
         <v>473</v>
       </c>
       <c r="F1895" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1896" spans="1:7">
@@ -50370,7 +50358,7 @@
         <v>472</v>
       </c>
       <c r="F1897" s="14" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1898" spans="1:7">
@@ -50390,7 +50378,7 @@
         <v>474</v>
       </c>
       <c r="F1898" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1899" spans="1:7">
@@ -50410,7 +50398,7 @@
         <v>474</v>
       </c>
       <c r="F1899" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1900" spans="1:7" ht="115.2">
@@ -50426,7 +50414,7 @@
         <v>1832</v>
       </c>
       <c r="G1900" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1901" spans="1:7">
@@ -50446,7 +50434,7 @@
         <v>599</v>
       </c>
       <c r="F1901" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1902" spans="1:7">
@@ -50466,7 +50454,7 @@
         <v>599</v>
       </c>
       <c r="F1902" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1903" spans="1:7">
@@ -50486,7 +50474,7 @@
         <v>473</v>
       </c>
       <c r="F1903" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1904" spans="1:7">
@@ -50506,7 +50494,7 @@
         <v>473</v>
       </c>
       <c r="F1904" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1905" spans="1:7" ht="28.8">
@@ -50526,10 +50514,10 @@
         <v>473</v>
       </c>
       <c r="F1905" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1905" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1906" spans="1:7" ht="28.8">
@@ -50549,10 +50537,10 @@
         <v>473</v>
       </c>
       <c r="F1906" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1906" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1907" spans="1:7" ht="28.8">
@@ -50572,10 +50560,10 @@
         <v>473</v>
       </c>
       <c r="F1907" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1907" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1908" spans="1:7" ht="28.8">
@@ -50595,10 +50583,10 @@
         <v>473</v>
       </c>
       <c r="F1908" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1908" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1909" spans="1:7">
@@ -50618,7 +50606,7 @@
         <v>473</v>
       </c>
       <c r="F1909" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1910" spans="1:7">
@@ -50638,7 +50626,7 @@
         <v>473</v>
       </c>
       <c r="F1910" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1911" spans="1:7">
@@ -50658,7 +50646,7 @@
         <v>473</v>
       </c>
       <c r="F1911" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1912" spans="1:7">
@@ -50678,7 +50666,7 @@
         <v>473</v>
       </c>
       <c r="F1912" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1913" spans="1:7">
@@ -50698,7 +50686,7 @@
         <v>473</v>
       </c>
       <c r="F1913" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1914" spans="1:7">
@@ -50718,7 +50706,7 @@
         <v>473</v>
       </c>
       <c r="F1914" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1915" spans="1:7">
@@ -50738,7 +50726,7 @@
         <v>601</v>
       </c>
       <c r="F1915" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1916" spans="1:7">
@@ -50758,7 +50746,7 @@
         <v>477</v>
       </c>
       <c r="F1916" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1917" spans="1:7">
@@ -50778,7 +50766,7 @@
         <v>473</v>
       </c>
       <c r="F1917" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1918" spans="1:7">
@@ -50798,7 +50786,7 @@
         <v>473</v>
       </c>
       <c r="F1918" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1919" spans="1:7">
@@ -50818,7 +50806,7 @@
         <v>473</v>
       </c>
       <c r="F1919" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1920" spans="1:7">
@@ -50838,7 +50826,7 @@
         <v>473</v>
       </c>
       <c r="F1920" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1921" spans="1:7">
@@ -50858,7 +50846,7 @@
         <v>473</v>
       </c>
       <c r="F1921" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1922" spans="1:7">
@@ -50878,7 +50866,7 @@
         <v>473</v>
       </c>
       <c r="F1922" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1923" spans="1:7">
@@ -50898,7 +50886,7 @@
         <v>473</v>
       </c>
       <c r="F1923" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1924" spans="1:7">
@@ -50918,7 +50906,7 @@
         <v>473</v>
       </c>
       <c r="F1924" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1925" spans="1:7">
@@ -50938,7 +50926,7 @@
         <v>473</v>
       </c>
       <c r="F1925" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1926" spans="1:7">
@@ -50958,7 +50946,7 @@
         <v>473</v>
       </c>
       <c r="F1926" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1927" spans="1:7">
@@ -50978,7 +50966,7 @@
         <v>473</v>
       </c>
       <c r="F1927" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1928" spans="1:7">
@@ -50998,7 +50986,7 @@
         <v>473</v>
       </c>
       <c r="F1928" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1929" spans="1:7">
@@ -51038,7 +51026,7 @@
         <v>472</v>
       </c>
       <c r="F1930" s="14" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1931" spans="1:7">
@@ -51058,7 +51046,7 @@
         <v>474</v>
       </c>
       <c r="F1931" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1932" spans="1:7">
@@ -51078,7 +51066,7 @@
         <v>474</v>
       </c>
       <c r="F1932" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1933" spans="1:7" ht="115.2">
@@ -51094,7 +51082,7 @@
         <v>1832</v>
       </c>
       <c r="G1933" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1934" spans="1:7">
@@ -51114,7 +51102,7 @@
         <v>599</v>
       </c>
       <c r="F1934" s="14" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1935" spans="1:7">
@@ -51134,7 +51122,7 @@
         <v>599</v>
       </c>
       <c r="F1935" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1936" spans="1:7">
@@ -51154,7 +51142,7 @@
         <v>473</v>
       </c>
       <c r="F1936" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1937" spans="1:7">
@@ -51174,7 +51162,7 @@
         <v>473</v>
       </c>
       <c r="F1937" s="14" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1938" spans="1:7" ht="28.8">
@@ -51194,10 +51182,10 @@
         <v>473</v>
       </c>
       <c r="F1938" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G1938" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1939" spans="1:7" ht="28.8">
@@ -51217,10 +51205,10 @@
         <v>473</v>
       </c>
       <c r="F1939" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="G1939" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1940" spans="1:7" ht="28.8">
@@ -51240,10 +51228,10 @@
         <v>473</v>
       </c>
       <c r="F1940" s="14" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G1940" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1941" spans="1:7" ht="28.8">
@@ -51263,10 +51251,10 @@
         <v>473</v>
       </c>
       <c r="F1941" s="14" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="G1941" s="38" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1942" spans="1:7">
@@ -51286,7 +51274,7 @@
         <v>473</v>
       </c>
       <c r="F1942" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1943" spans="1:7">
@@ -51306,7 +51294,7 @@
         <v>473</v>
       </c>
       <c r="F1943" s="14" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1944" spans="1:7">
@@ -51326,7 +51314,7 @@
         <v>473</v>
       </c>
       <c r="F1944" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1945" spans="1:7">
@@ -51346,7 +51334,7 @@
         <v>473</v>
       </c>
       <c r="F1945" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1946" spans="1:7">
@@ -51366,7 +51354,7 @@
         <v>473</v>
       </c>
       <c r="F1946" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1947" spans="1:7">
@@ -51386,7 +51374,7 @@
         <v>473</v>
       </c>
       <c r="F1947" s="14" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1948" spans="1:7">
@@ -51406,7 +51394,7 @@
         <v>601</v>
       </c>
       <c r="F1948" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1949" spans="1:7">
@@ -51426,7 +51414,7 @@
         <v>477</v>
       </c>
       <c r="F1949" s="14" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1950" spans="1:7">
@@ -51446,7 +51434,7 @@
         <v>473</v>
       </c>
       <c r="F1950" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1951" spans="1:7">
@@ -51466,7 +51454,7 @@
         <v>473</v>
       </c>
       <c r="F1951" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1952" spans="1:7">
@@ -51486,7 +51474,7 @@
         <v>473</v>
       </c>
       <c r="F1952" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1953" spans="1:7">
@@ -51506,7 +51494,7 @@
         <v>473</v>
       </c>
       <c r="F1953" s="14" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1954" spans="1:7">
@@ -51526,7 +51514,7 @@
         <v>473</v>
       </c>
       <c r="F1954" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1955" spans="1:7">
@@ -51546,7 +51534,7 @@
         <v>473</v>
       </c>
       <c r="F1955" s="14" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1956" spans="1:7">
@@ -51566,7 +51554,7 @@
         <v>473</v>
       </c>
       <c r="F1956" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1957" spans="1:7">
@@ -51586,7 +51574,7 @@
         <v>473</v>
       </c>
       <c r="F1957" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1958" spans="1:7">
@@ -51606,7 +51594,7 @@
         <v>473</v>
       </c>
       <c r="F1958" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1959" spans="1:7">
@@ -51626,7 +51614,7 @@
         <v>473</v>
       </c>
       <c r="F1959" s="14" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1960" spans="1:7">
@@ -51646,7 +51634,7 @@
         <v>473</v>
       </c>
       <c r="F1960" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1961" spans="1:7">
@@ -51666,7 +51654,7 @@
         <v>473</v>
       </c>
       <c r="F1961" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1962" spans="1:7">
@@ -51706,7 +51694,7 @@
         <v>472</v>
       </c>
       <c r="F1963" s="14" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1964" spans="1:7">
@@ -51726,7 +51714,7 @@
         <v>474</v>
       </c>
       <c r="F1964" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1965" spans="1:7">
@@ -51746,7 +51734,7 @@
         <v>474</v>
       </c>
       <c r="F1965" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1966" spans="1:7">
@@ -52536,7 +52524,7 @@
         <v>622</v>
       </c>
       <c r="E2005" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="F2005" s="14" t="s">
         <v>1874</v>
@@ -52696,7 +52684,7 @@
         <v>629</v>
       </c>
       <c r="E2013" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="F2013" s="14" t="s">
         <v>1882</v>
@@ -65368,7 +65356,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DEE13-8567-47C0-98EF-B4590CF5D2FE}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -65500,13 +65488,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>445</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>446</v>
+        <v>2569</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2570</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>2018</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -65514,79 +65502,90 @@
         <v>445</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="1:3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:3">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:3">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:3">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:3">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:3">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="1:3">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:3">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:3">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:3">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:3">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:3">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:3">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:3">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="1:3">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3911EF6-EE89-4E2E-8193-69ECCAF7151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBE745E-5ED9-41B9-A66C-7272B7203911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -9480,7 +9480,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-October-23</t>
+      <t>2025-October-24</t>
     </r>
   </si>
 </sst>
@@ -9611,7 +9611,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9739,12 +9739,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -17668,7 +17662,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:6">
       <c r="A209" s="14" t="s">
         <v>91</v>
       </c>
@@ -17688,7 +17682,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:6">
       <c r="A210" s="14" t="s">
         <v>91</v>
       </c>
@@ -17708,7 +17702,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:6">
       <c r="A211" s="14" t="s">
         <v>91</v>
       </c>
@@ -17728,7 +17722,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:6">
       <c r="A212" s="14" t="s">
         <v>91</v>
       </c>
@@ -17741,15 +17735,14 @@
       <c r="D212" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="E212" s="48" t="s">
+      <c r="E212" s="1" t="s">
         <v>2156</v>
       </c>
       <c r="F212" s="14" t="s">
         <v>2059</v>
       </c>
-      <c r="G212" s="48"/>
-    </row>
-    <row r="213" spans="1:7">
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="14" t="s">
         <v>91</v>
       </c>
@@ -17769,7 +17762,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:6">
       <c r="A214" s="14" t="s">
         <v>91</v>
       </c>
@@ -17789,7 +17782,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:6">
       <c r="A215" s="14" t="s">
         <v>91</v>
       </c>
@@ -17809,7 +17802,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:6">
       <c r="A216" s="14" t="s">
         <v>91</v>
       </c>
@@ -17829,7 +17822,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:6">
       <c r="A217" s="14" t="s">
         <v>91</v>
       </c>
@@ -17849,7 +17842,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:6">
       <c r="A218" s="14" t="s">
         <v>91</v>
       </c>
@@ -17869,7 +17862,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:6">
       <c r="A219" s="14" t="s">
         <v>91</v>
       </c>
@@ -17889,7 +17882,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:6">
       <c r="A220" s="14" t="s">
         <v>91</v>
       </c>
@@ -17909,7 +17902,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:6">
       <c r="A221" s="14" t="s">
         <v>91</v>
       </c>
@@ -17929,7 +17922,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:6">
       <c r="A222" s="14" t="s">
         <v>91</v>
       </c>
@@ -17949,7 +17942,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:6">
       <c r="A223" s="14" t="s">
         <v>91</v>
       </c>
@@ -17969,7 +17962,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:6">
       <c r="A224" s="14" t="s">
         <v>91</v>
       </c>
@@ -19265,7 +19258,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:6">
       <c r="A289" s="14" t="s">
         <v>65</v>
       </c>
@@ -19285,7 +19278,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:6">
       <c r="A290" s="14" t="s">
         <v>65</v>
       </c>
@@ -19305,7 +19298,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:6">
       <c r="A291" s="14" t="s">
         <v>65</v>
       </c>
@@ -19325,7 +19318,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:6">
       <c r="A292" s="14" t="s">
         <v>65</v>
       </c>
@@ -19345,7 +19338,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:6">
       <c r="A293" s="14" t="s">
         <v>65</v>
       </c>
@@ -19365,7 +19358,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:6">
       <c r="A294" s="14" t="s">
         <v>65</v>
       </c>
@@ -19385,7 +19378,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:6">
       <c r="A295" s="14" t="s">
         <v>65</v>
       </c>
@@ -19405,7 +19398,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:6">
       <c r="A296" s="14" t="s">
         <v>65</v>
       </c>
@@ -19425,7 +19418,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:6">
       <c r="A297" s="14" t="s">
         <v>65</v>
       </c>
@@ -19445,7 +19438,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:6">
       <c r="A298" s="14" t="s">
         <v>65</v>
       </c>
@@ -19465,7 +19458,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:6">
       <c r="A299" s="14" t="s">
         <v>65</v>
       </c>
@@ -19485,7 +19478,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:6">
       <c r="A300" s="14" t="s">
         <v>66</v>
       </c>
@@ -19498,7 +19491,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:6">
       <c r="A301" s="14" t="s">
         <v>66</v>
       </c>
@@ -19518,7 +19511,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:6">
       <c r="A302" s="14" t="s">
         <v>66</v>
       </c>
@@ -19531,15 +19524,14 @@
       <c r="D302" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="E302" s="48" t="s">
+      <c r="E302" s="1" t="s">
         <v>2941</v>
       </c>
       <c r="F302" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="G302" s="48"/>
-    </row>
-    <row r="303" spans="1:7">
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" s="14" t="s">
         <v>66</v>
       </c>
@@ -19559,7 +19551,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:6">
       <c r="A304" s="14" t="s">
         <v>66</v>
       </c>
@@ -24063,7 +24055,7 @@
       <c r="F523" s="14" t="s">
         <v>2178</v>
       </c>
-      <c r="G523" s="49"/>
+      <c r="G523" s="37"/>
     </row>
     <row r="524" spans="1:7" customFormat="1">
       <c r="A524" s="14" t="s">
@@ -43194,7 +43186,7 @@
       <c r="D1460" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="E1460" s="49" t="s">
+      <c r="E1460" s="37" t="s">
         <v>2558</v>
       </c>
       <c r="F1460" s="14" t="s">
@@ -60796,13 +60788,13 @@
       <c r="D2344" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="E2344" s="48" t="s">
+      <c r="E2344" s="1" t="s">
         <v>488</v>
       </c>
       <c r="F2344" s="14" t="s">
         <v>2895</v>
       </c>
-      <c r="G2344" s="49"/>
+      <c r="G2344" s="37"/>
     </row>
     <row r="2345" spans="1:7" customFormat="1">
       <c r="A2345" s="14" t="s">
@@ -62252,7 +62244,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="2417" spans="1:7">
+    <row r="2417" spans="1:6">
       <c r="A2417" s="14" t="s">
         <v>80</v>
       </c>
@@ -62272,7 +62264,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="2418" spans="1:7">
+    <row r="2418" spans="1:6">
       <c r="A2418" s="14" t="s">
         <v>80</v>
       </c>
@@ -62292,7 +62284,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="2419" spans="1:7">
+    <row r="2419" spans="1:6">
       <c r="A2419" s="14" t="s">
         <v>80</v>
       </c>
@@ -62312,7 +62304,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="2420" spans="1:7">
+    <row r="2420" spans="1:6">
       <c r="A2420" s="14" t="s">
         <v>80</v>
       </c>
@@ -62332,7 +62324,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="2421" spans="1:7">
+    <row r="2421" spans="1:6">
       <c r="A2421" s="14" t="s">
         <v>80</v>
       </c>
@@ -62352,7 +62344,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="2422" spans="1:7">
+    <row r="2422" spans="1:6">
       <c r="A2422" s="14" t="s">
         <v>80</v>
       </c>
@@ -62372,7 +62364,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="2423" spans="1:7">
+    <row r="2423" spans="1:6">
       <c r="A2423" s="14" t="s">
         <v>80</v>
       </c>
@@ -62392,7 +62384,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="2424" spans="1:7">
+    <row r="2424" spans="1:6">
       <c r="A2424" s="14" t="s">
         <v>80</v>
       </c>
@@ -62405,15 +62397,14 @@
       <c r="D2424" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="E2424" s="48" t="s">
+      <c r="E2424" s="1" t="s">
         <v>488</v>
       </c>
       <c r="F2424" s="14" t="s">
         <v>2934</v>
       </c>
-      <c r="G2424" s="48"/>
-    </row>
-    <row r="2425" spans="1:7">
+    </row>
+    <row r="2425" spans="1:6">
       <c r="A2425" s="14" t="s">
         <v>80</v>
       </c>
@@ -62433,7 +62424,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="2426" spans="1:7">
+    <row r="2426" spans="1:6">
       <c r="A2426" s="14" t="s">
         <v>80</v>
       </c>
@@ -62453,7 +62444,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="2427" spans="1:7">
+    <row r="2427" spans="1:6">
       <c r="A2427" s="14" t="s">
         <v>80</v>
       </c>
@@ -62473,7 +62464,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="2428" spans="1:7">
+    <row r="2428" spans="1:6">
       <c r="A2428" s="14" t="s">
         <v>80</v>
       </c>
@@ -62493,7 +62484,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="2429" spans="1:7">
+    <row r="2429" spans="1:6">
       <c r="A2429" s="14" t="s">
         <v>80</v>
       </c>
@@ -62513,7 +62504,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="2430" spans="1:7">
+    <row r="2430" spans="1:6">
       <c r="A2430" s="14" t="s">
         <v>80</v>
       </c>
@@ -62533,7 +62524,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="2431" spans="1:7">
+    <row r="2431" spans="1:6">
       <c r="A2431" s="14" t="s">
         <v>80</v>
       </c>
@@ -62553,7 +62544,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="2432" spans="1:7">
+    <row r="2432" spans="1:6">
       <c r="A2432" s="14" t="s">
         <v>80</v>
       </c>
@@ -63825,7 +63816,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="2497" spans="1:7">
+    <row r="2497" spans="1:6">
       <c r="A2497" s="14" t="s">
         <v>83</v>
       </c>
@@ -63845,7 +63836,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="2498" spans="1:7">
+    <row r="2498" spans="1:6">
       <c r="A2498" s="14" t="s">
         <v>83</v>
       </c>
@@ -63865,7 +63856,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="2499" spans="1:7">
+    <row r="2499" spans="1:6">
       <c r="A2499" s="14" t="s">
         <v>83</v>
       </c>
@@ -63885,7 +63876,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="2500" spans="1:7">
+    <row r="2500" spans="1:6">
       <c r="A2500" s="14" t="s">
         <v>83</v>
       </c>
@@ -63905,7 +63896,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="2501" spans="1:7">
+    <row r="2501" spans="1:6">
       <c r="A2501" s="14" t="s">
         <v>83</v>
       </c>
@@ -63925,7 +63916,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="2502" spans="1:7">
+    <row r="2502" spans="1:6">
       <c r="A2502" s="14" t="s">
         <v>83</v>
       </c>
@@ -63945,7 +63936,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="2503" spans="1:7">
+    <row r="2503" spans="1:6">
       <c r="A2503" s="14" t="s">
         <v>83</v>
       </c>
@@ -63965,7 +63956,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="2504" spans="1:7">
+    <row r="2504" spans="1:6">
       <c r="A2504" s="14" t="s">
         <v>83</v>
       </c>
@@ -63985,7 +63976,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="2505" spans="1:7">
+    <row r="2505" spans="1:6">
       <c r="A2505" s="14" t="s">
         <v>83</v>
       </c>
@@ -64005,7 +63996,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="2506" spans="1:7">
+    <row r="2506" spans="1:6">
       <c r="A2506" s="14" t="s">
         <v>83</v>
       </c>
@@ -64025,7 +64016,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="2507" spans="1:7">
+    <row r="2507" spans="1:6">
       <c r="A2507" s="14" t="s">
         <v>83</v>
       </c>
@@ -64045,7 +64036,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="2508" spans="1:7">
+    <row r="2508" spans="1:6">
       <c r="A2508" s="14" t="s">
         <v>83</v>
       </c>
@@ -64065,7 +64056,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="2509" spans="1:7">
+    <row r="2509" spans="1:6">
       <c r="A2509" s="14" t="s">
         <v>83</v>
       </c>
@@ -64085,7 +64076,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="2510" spans="1:7">
+    <row r="2510" spans="1:6">
       <c r="A2510" s="14" t="s">
         <v>83</v>
       </c>
@@ -64105,7 +64096,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="2511" spans="1:7">
+    <row r="2511" spans="1:6">
       <c r="A2511" s="14" t="s">
         <v>83</v>
       </c>
@@ -64125,7 +64116,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="2512" spans="1:7">
+    <row r="2512" spans="1:6">
       <c r="A2512" s="14" t="s">
         <v>83</v>
       </c>
@@ -64138,13 +64129,12 @@
       <c r="D2512" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="E2512" s="48" t="s">
+      <c r="E2512" s="1" t="s">
         <v>488</v>
       </c>
       <c r="F2512" s="14" t="s">
         <v>3012</v>
       </c>
-      <c r="G2512" s="48"/>
     </row>
     <row r="2513" spans="1:7">
       <c r="A2513" s="14" t="s">

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AF4EDB-BE5C-47AF-9743-95E164A81806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD85287-2135-42CD-AB5E-ACA011F9F20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Board local files" sheetId="9" r:id="rId7"/>
     <sheet name="Board links" sheetId="10" r:id="rId8"/>
     <sheet name="Credits" sheetId="13" r:id="rId9"/>
+    <sheet name="Version match" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15243" uniqueCount="3095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15279" uniqueCount="3121">
   <si>
     <t>Name</t>
   </si>
@@ -9511,8 +9512,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-7</t>
+      <t>2025-December-13</t>
     </r>
+  </si>
+  <si>
+    <t>Part-number</t>
+  </si>
+  <si>
+    <t>906100-02</t>
+  </si>
+  <si>
+    <t>251057-01</t>
+  </si>
+  <si>
+    <t>252062-01</t>
+  </si>
+  <si>
+    <t>252166-01</t>
+  </si>
+  <si>
+    <t>252168-01</t>
+  </si>
+  <si>
+    <t>252024-01</t>
+  </si>
+  <si>
+    <t>252167-01</t>
+  </si>
+  <si>
+    <t>906108-01</t>
+  </si>
+  <si>
+    <t>906112-01</t>
+  </si>
+  <si>
+    <t>315020-01</t>
+  </si>
+  <si>
+    <t>310389-01</t>
+  </si>
+  <si>
+    <t>906150-02</t>
+  </si>
+  <si>
+    <t>315012-01</t>
+  </si>
+  <si>
+    <t>390059-01</t>
+  </si>
+  <si>
+    <t>315009-01</t>
+  </si>
+  <si>
+    <t>315014-01</t>
+  </si>
+  <si>
+    <t>251527-03</t>
+  </si>
+  <si>
+    <t>251917-01</t>
+  </si>
+  <si>
+    <t>252182-01</t>
+  </si>
+  <si>
+    <t>251260-01</t>
+  </si>
+  <si>
+    <t>325566-01</t>
+  </si>
+  <si>
+    <t>251467-01</t>
+  </si>
+  <si>
+    <t>CRT version(s) where this Excel will work</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>2025-December-8</t>
   </si>
 </sst>
 </file>
@@ -10373,10 +10452,61 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421B51B2-79EE-4420-A06F-4DB0AB134ADC}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="83.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="10" customFormat="1" ht="21">
+      <c r="A1" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="11" customFormat="1" ht="21">
+      <c r="A2" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="28" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="22" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -10387,39 +10517,40 @@
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
+    <row r="1" spans="1:7" ht="21">
       <c r="A1" s="13" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="16"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="27" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="28" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="16"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -10428,8 +10559,9 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="28.8">
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="28.8">
       <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
@@ -10440,16 +10572,19 @@
         <v>2</v>
       </c>
       <c r="D8" s="22" t="s">
+        <v>3095</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="F8" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
         <v>252</v>
       </c>
@@ -10459,11 +10594,11 @@
       <c r="C9" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
@@ -10473,11 +10608,11 @@
       <c r="C10" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="16" t="s">
         <v>22</v>
       </c>
@@ -10487,11 +10622,11 @@
       <c r="C11" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="16" t="s">
         <v>253</v>
       </c>
@@ -10501,11 +10636,11 @@
       <c r="C12" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -10515,11 +10650,11 @@
       <c r="C13" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
@@ -10529,11 +10664,11 @@
       <c r="C14" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
         <v>25</v>
       </c>
@@ -10543,11 +10678,11 @@
       <c r="C15" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
         <v>286</v>
       </c>
@@ -10557,11 +10692,11 @@
       <c r="C16" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
         <v>287</v>
       </c>
@@ -10571,11 +10706,11 @@
       <c r="C17" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
         <v>26</v>
       </c>
@@ -10585,11 +10720,11 @@
       <c r="C18" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
         <v>27</v>
       </c>
@@ -10599,11 +10734,11 @@
       <c r="C19" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
         <v>28</v>
       </c>
@@ -10613,11 +10748,11 @@
       <c r="C20" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
@@ -10627,11 +10762,11 @@
       <c r="C21" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
@@ -10641,11 +10776,11 @@
       <c r="C22" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
@@ -10655,11 +10790,11 @@
       <c r="C23" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="18" t="s">
         <v>214</v>
       </c>
@@ -10669,11 +10804,11 @@
       <c r="C24" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="18" t="s">
         <v>215</v>
       </c>
@@ -10683,11 +10818,11 @@
       <c r="C25" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="18" t="s">
         <v>216</v>
       </c>
@@ -10697,11 +10832,11 @@
       <c r="C26" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="18" t="s">
         <v>217</v>
       </c>
@@ -10711,11 +10846,11 @@
       <c r="C27" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="18" t="s">
         <v>218</v>
       </c>
@@ -10725,14 +10860,14 @@
       <c r="C28" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" s="18" t="s">
         <v>219</v>
       </c>
@@ -10742,11 +10877,11 @@
       <c r="C29" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="18" t="s">
         <v>220</v>
       </c>
@@ -10756,11 +10891,11 @@
       <c r="C30" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="18" t="s">
         <v>221</v>
       </c>
@@ -10770,11 +10905,11 @@
       <c r="C31" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="18" t="s">
         <v>222</v>
       </c>
@@ -10784,11 +10919,11 @@
       <c r="C32" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="18" t="s">
         <v>223</v>
       </c>
@@ -10798,11 +10933,11 @@
       <c r="C33" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" s="18" t="s">
         <v>224</v>
       </c>
@@ -10812,11 +10947,11 @@
       <c r="C34" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" s="18" t="s">
         <v>225</v>
       </c>
@@ -10826,11 +10961,11 @@
       <c r="C35" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" s="18" t="s">
         <v>226</v>
       </c>
@@ -10840,11 +10975,11 @@
       <c r="C36" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" s="18" t="s">
         <v>319</v>
       </c>
@@ -10854,11 +10989,11 @@
       <c r="C37" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" s="18" t="s">
         <v>254</v>
       </c>
@@ -10868,11 +11003,11 @@
       <c r="C38" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" s="16" t="s">
         <v>32</v>
       </c>
@@ -10882,11 +11017,11 @@
       <c r="C39" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" s="18" t="s">
         <v>288</v>
       </c>
@@ -10896,11 +11031,11 @@
       <c r="C40" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" s="18" t="s">
         <v>289</v>
       </c>
@@ -10910,11 +11045,11 @@
       <c r="C41" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" s="18" t="s">
         <v>290</v>
       </c>
@@ -10924,11 +11059,11 @@
       <c r="C42" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" s="18" t="s">
         <v>291</v>
       </c>
@@ -10938,11 +11073,11 @@
       <c r="C43" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" s="18" t="s">
         <v>292</v>
       </c>
@@ -10952,11 +11087,11 @@
       <c r="C44" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" s="16" t="s">
         <v>33</v>
       </c>
@@ -10966,11 +11101,11 @@
       <c r="C45" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" s="18" t="s">
         <v>293</v>
       </c>
@@ -10980,11 +11115,11 @@
       <c r="C46" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" s="18" t="s">
         <v>294</v>
       </c>
@@ -10994,11 +11129,11 @@
       <c r="C47" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48" s="18" t="s">
         <v>295</v>
       </c>
@@ -11008,11 +11143,11 @@
       <c r="C48" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="18" t="s">
         <v>296</v>
       </c>
@@ -11022,11 +11157,11 @@
       <c r="C49" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" s="18" t="s">
         <v>297</v>
       </c>
@@ -11036,11 +11171,11 @@
       <c r="C50" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" s="18" t="s">
         <v>298</v>
       </c>
@@ -11050,11 +11185,11 @@
       <c r="C51" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" s="18" t="s">
         <v>299</v>
       </c>
@@ -11064,11 +11199,11 @@
       <c r="C52" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" s="18" t="s">
         <v>300</v>
       </c>
@@ -11078,11 +11213,11 @@
       <c r="C53" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" s="18" t="s">
         <v>301</v>
       </c>
@@ -11092,11 +11227,11 @@
       <c r="C54" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" s="18" t="s">
         <v>302</v>
       </c>
@@ -11106,11 +11241,11 @@
       <c r="C55" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" s="18" t="s">
         <v>303</v>
       </c>
@@ -11120,11 +11255,11 @@
       <c r="C56" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" s="18" t="s">
         <v>304</v>
       </c>
@@ -11134,11 +11269,11 @@
       <c r="C57" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" s="18" t="s">
         <v>305</v>
       </c>
@@ -11148,11 +11283,11 @@
       <c r="C58" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" s="18" t="s">
         <v>306</v>
       </c>
@@ -11162,11 +11297,11 @@
       <c r="C59" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" s="18" t="s">
         <v>307</v>
       </c>
@@ -11176,11 +11311,11 @@
       <c r="C60" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" s="18" t="s">
         <v>308</v>
       </c>
@@ -11190,11 +11325,11 @@
       <c r="C61" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" s="18" t="s">
         <v>227</v>
       </c>
@@ -11204,11 +11339,11 @@
       <c r="C62" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" s="18" t="s">
         <v>228</v>
       </c>
@@ -11218,11 +11353,11 @@
       <c r="C63" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64" s="18" t="s">
         <v>229</v>
       </c>
@@ -11232,11 +11367,11 @@
       <c r="C64" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="A65" s="18" t="s">
         <v>255</v>
       </c>
@@ -11246,11 +11381,11 @@
       <c r="C65" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7">
       <c r="A66" s="18" t="s">
         <v>256</v>
       </c>
@@ -11260,11 +11395,11 @@
       <c r="C66" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:7">
       <c r="A67" s="18" t="s">
         <v>257</v>
       </c>
@@ -11274,11 +11409,11 @@
       <c r="C67" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7">
       <c r="A68" s="16" t="s">
         <v>181</v>
       </c>
@@ -11288,11 +11423,11 @@
       <c r="C68" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7">
       <c r="A69" s="16" t="s">
         <v>183</v>
       </c>
@@ -11302,11 +11437,11 @@
       <c r="C69" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:7">
       <c r="A70" s="16" t="s">
         <v>184</v>
       </c>
@@ -11316,11 +11451,11 @@
       <c r="C70" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:7">
       <c r="A71" s="18" t="s">
         <v>309</v>
       </c>
@@ -11330,11 +11465,11 @@
       <c r="C71" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:7">
       <c r="A72" s="18" t="s">
         <v>310</v>
       </c>
@@ -11344,11 +11479,11 @@
       <c r="C72" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:7">
       <c r="A73" s="18" t="s">
         <v>311</v>
       </c>
@@ -11358,11 +11493,11 @@
       <c r="C73" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:7">
       <c r="A74" s="18" t="s">
         <v>312</v>
       </c>
@@ -11372,11 +11507,11 @@
       <c r="C74" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:7">
       <c r="A75" s="16" t="s">
         <v>34</v>
       </c>
@@ -11386,11 +11521,11 @@
       <c r="C75" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:7">
       <c r="A76" s="16" t="s">
         <v>185</v>
       </c>
@@ -11400,14 +11535,14 @@
       <c r="C76" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:7">
       <c r="A77" s="16" t="s">
         <v>258</v>
       </c>
@@ -11417,11 +11552,11 @@
       <c r="C77" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:7">
       <c r="A78" s="16" t="s">
         <v>316</v>
       </c>
@@ -11431,11 +11566,11 @@
       <c r="C78" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:7">
       <c r="A79" s="16" t="s">
         <v>259</v>
       </c>
@@ -11445,11 +11580,11 @@
       <c r="C79" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:7">
       <c r="A80" s="16" t="s">
         <v>260</v>
       </c>
@@ -11459,11 +11594,11 @@
       <c r="C80" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5">
       <c r="A81" s="16" t="s">
         <v>35</v>
       </c>
@@ -11473,11 +11608,11 @@
       <c r="C81" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5">
       <c r="A82" s="16" t="s">
         <v>261</v>
       </c>
@@ -11487,11 +11622,11 @@
       <c r="C82" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83" s="16" t="s">
         <v>262</v>
       </c>
@@ -11501,11 +11636,11 @@
       <c r="C83" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5">
       <c r="A84" s="16" t="s">
         <v>36</v>
       </c>
@@ -11515,11 +11650,11 @@
       <c r="C84" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85" s="16" t="s">
         <v>263</v>
       </c>
@@ -11529,11 +11664,11 @@
       <c r="C85" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="A86" s="16" t="s">
         <v>264</v>
       </c>
@@ -11543,11 +11678,11 @@
       <c r="C86" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87" s="16" t="s">
         <v>186</v>
       </c>
@@ -11557,11 +11692,11 @@
       <c r="C87" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="A88" s="16" t="s">
         <v>37</v>
       </c>
@@ -11571,11 +11706,11 @@
       <c r="C88" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89" s="16" t="s">
         <v>38</v>
       </c>
@@ -11585,11 +11720,11 @@
       <c r="C89" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="A90" s="16" t="s">
         <v>39</v>
       </c>
@@ -11599,11 +11734,11 @@
       <c r="C90" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5">
       <c r="A91" s="16" t="s">
         <v>40</v>
       </c>
@@ -11613,11 +11748,11 @@
       <c r="C91" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5">
       <c r="A92" s="16" t="s">
         <v>41</v>
       </c>
@@ -11627,11 +11762,11 @@
       <c r="C92" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93" s="16" t="s">
         <v>42</v>
       </c>
@@ -11641,11 +11776,11 @@
       <c r="C93" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5">
       <c r="A94" s="16" t="s">
         <v>230</v>
       </c>
@@ -11655,11 +11790,11 @@
       <c r="C94" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:5">
       <c r="A95" s="16" t="s">
         <v>188</v>
       </c>
@@ -11669,11 +11804,11 @@
       <c r="C95" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:5">
       <c r="A96" s="16" t="s">
         <v>231</v>
       </c>
@@ -11683,11 +11818,11 @@
       <c r="C96" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5">
       <c r="A97" s="16" t="s">
         <v>232</v>
       </c>
@@ -11697,11 +11832,11 @@
       <c r="C97" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:5">
       <c r="A98" s="16" t="s">
         <v>189</v>
       </c>
@@ -11711,11 +11846,11 @@
       <c r="C98" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:5">
       <c r="A99" s="16" t="s">
         <v>190</v>
       </c>
@@ -11725,11 +11860,11 @@
       <c r="C99" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5">
       <c r="A100" s="16" t="s">
         <v>17</v>
       </c>
@@ -11739,11 +11874,11 @@
       <c r="C100" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5">
       <c r="A101" s="16" t="s">
         <v>233</v>
       </c>
@@ -11753,11 +11888,11 @@
       <c r="C101" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:5">
       <c r="A102" s="16" t="s">
         <v>43</v>
       </c>
@@ -11767,11 +11902,11 @@
       <c r="C102" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:5">
       <c r="A103" s="16" t="s">
         <v>44</v>
       </c>
@@ -11781,11 +11916,11 @@
       <c r="C103" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:5">
       <c r="A104" s="16" t="s">
         <v>45</v>
       </c>
@@ -11795,11 +11930,11 @@
       <c r="C104" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:5">
       <c r="A105" s="16" t="s">
         <v>46</v>
       </c>
@@ -11809,11 +11944,11 @@
       <c r="C105" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:5">
       <c r="A106" s="16" t="s">
         <v>47</v>
       </c>
@@ -11823,11 +11958,11 @@
       <c r="C106" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:5">
       <c r="A107" s="16" t="s">
         <v>234</v>
       </c>
@@ -11837,11 +11972,11 @@
       <c r="C107" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:5">
       <c r="A108" s="16" t="s">
         <v>48</v>
       </c>
@@ -11851,11 +11986,11 @@
       <c r="C108" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:5">
       <c r="A109" s="16" t="s">
         <v>49</v>
       </c>
@@ -11865,11 +12000,11 @@
       <c r="C109" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:5">
       <c r="A110" s="16" t="s">
         <v>50</v>
       </c>
@@ -11879,11 +12014,11 @@
       <c r="C110" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:5">
       <c r="A111" s="16" t="s">
         <v>51</v>
       </c>
@@ -11893,11 +12028,11 @@
       <c r="C111" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:5">
       <c r="A112" s="16" t="s">
         <v>52</v>
       </c>
@@ -11907,11 +12042,11 @@
       <c r="C112" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:5">
       <c r="A113" s="16" t="s">
         <v>53</v>
       </c>
@@ -11921,11 +12056,11 @@
       <c r="C113" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:5">
       <c r="A114" s="16" t="s">
         <v>54</v>
       </c>
@@ -11935,11 +12070,11 @@
       <c r="C114" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5">
       <c r="A115" s="16" t="s">
         <v>55</v>
       </c>
@@ -11949,11 +12084,11 @@
       <c r="C115" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:5">
       <c r="A116" s="16" t="s">
         <v>56</v>
       </c>
@@ -11963,11 +12098,11 @@
       <c r="C116" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:5">
       <c r="A117" s="16" t="s">
         <v>57</v>
       </c>
@@ -11977,11 +12112,11 @@
       <c r="C117" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:5">
       <c r="A118" s="16" t="s">
         <v>58</v>
       </c>
@@ -11991,11 +12126,11 @@
       <c r="C118" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:5">
       <c r="A119" s="16" t="s">
         <v>59</v>
       </c>
@@ -12005,11 +12140,11 @@
       <c r="C119" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:5">
       <c r="A120" s="16" t="s">
         <v>235</v>
       </c>
@@ -12019,11 +12154,11 @@
       <c r="C120" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:5">
       <c r="A121" s="16" t="s">
         <v>317</v>
       </c>
@@ -12033,11 +12168,11 @@
       <c r="C121" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:5">
       <c r="A122" s="16" t="s">
         <v>60</v>
       </c>
@@ -12047,11 +12182,11 @@
       <c r="C122" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:5">
       <c r="A123" s="16" t="s">
         <v>61</v>
       </c>
@@ -12061,11 +12196,11 @@
       <c r="C123" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:5">
       <c r="A124" s="16" t="s">
         <v>236</v>
       </c>
@@ -12075,11 +12210,11 @@
       <c r="C124" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:5">
       <c r="A125" s="16" t="s">
         <v>237</v>
       </c>
@@ -12089,11 +12224,11 @@
       <c r="C125" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:5">
       <c r="A126" s="16" t="s">
         <v>238</v>
       </c>
@@ -12103,11 +12238,11 @@
       <c r="C126" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:5">
       <c r="A127" s="16" t="s">
         <v>239</v>
       </c>
@@ -12117,11 +12252,11 @@
       <c r="C127" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:5">
       <c r="A128" s="16" t="s">
         <v>313</v>
       </c>
@@ -12131,11 +12266,11 @@
       <c r="C128" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:7">
       <c r="A129" s="16" t="s">
         <v>240</v>
       </c>
@@ -12145,11 +12280,11 @@
       <c r="C129" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:7">
       <c r="A130" s="16" t="s">
         <v>265</v>
       </c>
@@ -12159,11 +12294,11 @@
       <c r="C130" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:7">
       <c r="A131" s="16" t="s">
         <v>318</v>
       </c>
@@ -12173,11 +12308,11 @@
       <c r="C131" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:7">
       <c r="A132" s="16" t="s">
         <v>314</v>
       </c>
@@ -12187,11 +12322,11 @@
       <c r="C132" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:7">
       <c r="A133" s="16" t="s">
         <v>315</v>
       </c>
@@ -12201,11 +12336,11 @@
       <c r="C133" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:7">
       <c r="A134" s="18" t="s">
         <v>266</v>
       </c>
@@ -12216,10 +12351,13 @@
         <v>276</v>
       </c>
       <c r="D134" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="28.8">
+    <row r="135" spans="1:7" ht="28.8">
       <c r="A135" s="18" t="s">
         <v>267</v>
       </c>
@@ -12229,14 +12367,14 @@
       <c r="C135" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>3077</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:7">
       <c r="A136" s="18" t="s">
         <v>268</v>
       </c>
@@ -12247,10 +12385,13 @@
         <v>278</v>
       </c>
       <c r="D136" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:7">
       <c r="A137" s="18" t="s">
         <v>269</v>
       </c>
@@ -12261,10 +12402,13 @@
         <v>279</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:7">
       <c r="A138" s="18" t="s">
         <v>270</v>
       </c>
@@ -12275,10 +12419,13 @@
         <v>280</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:7">
       <c r="A139" s="18" t="s">
         <v>271</v>
       </c>
@@ -12289,10 +12436,13 @@
         <v>281</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:7">
       <c r="A140" s="18" t="s">
         <v>272</v>
       </c>
@@ -12302,11 +12452,11 @@
       <c r="C140" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:7">
       <c r="A141" s="16" t="s">
         <v>242</v>
       </c>
@@ -12317,10 +12467,13 @@
         <v>817</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:7">
       <c r="A142" s="16" t="s">
         <v>273</v>
       </c>
@@ -12330,11 +12483,11 @@
       <c r="C142" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:7">
       <c r="A143" s="16" t="s">
         <v>243</v>
       </c>
@@ -12345,10 +12498,13 @@
         <v>249</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:7">
       <c r="A144" s="16" t="s">
         <v>62</v>
       </c>
@@ -12359,13 +12515,16 @@
         <v>331</v>
       </c>
       <c r="D144" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="G144" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:7">
       <c r="A145" s="16" t="s">
         <v>63</v>
       </c>
@@ -12375,14 +12534,14 @@
       <c r="C145" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:7">
       <c r="A146" s="16" t="s">
         <v>274</v>
       </c>
@@ -12392,11 +12551,11 @@
       <c r="C146" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:7">
       <c r="A147" s="14" t="s">
         <v>85</v>
       </c>
@@ -12406,14 +12565,17 @@
       <c r="C147" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="14" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:7">
       <c r="A148" s="14" t="s">
         <v>88</v>
       </c>
@@ -12423,12 +12585,13 @@
       <c r="C148" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="14"/>
+      <c r="E148" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F148" s="14"/>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" s="14"/>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="14" t="s">
         <v>64</v>
       </c>
@@ -12438,11 +12601,12 @@
       <c r="C149" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="14"/>
+      <c r="E149" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:7">
       <c r="A150" s="14" t="s">
         <v>91</v>
       </c>
@@ -12452,14 +12616,17 @@
       <c r="C150" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="14" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:7">
       <c r="A151" s="14" t="s">
         <v>65</v>
       </c>
@@ -12469,14 +12636,17 @@
       <c r="C151" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="14" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F151" s="14" t="s">
+      <c r="G151" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:7">
       <c r="A152" s="14" t="s">
         <v>66</v>
       </c>
@@ -12486,14 +12656,17 @@
       <c r="C152" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="14" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:7">
       <c r="A153" s="14" t="s">
         <v>67</v>
       </c>
@@ -12503,14 +12676,17 @@
       <c r="C153" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="14" t="s">
+        <v>3106</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F153" s="14" t="s">
+      <c r="G153" s="14" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:7">
       <c r="A154" s="14" t="s">
         <v>68</v>
       </c>
@@ -12520,12 +12696,13 @@
       <c r="C154" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="14"/>
+      <c r="E154" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F154" s="14"/>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" s="14"/>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="14" t="s">
         <v>69</v>
       </c>
@@ -12535,17 +12712,18 @@
       <c r="C155" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="14"/>
+      <c r="E155" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F155" s="14" t="s">
+      <c r="F155" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G155" s="14" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:7">
       <c r="A156" s="14" t="s">
         <v>69</v>
       </c>
@@ -12555,17 +12733,18 @@
       <c r="C156" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="14"/>
+      <c r="E156" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="F156" s="14" t="s">
+      <c r="F156" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G156" s="14" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:7">
       <c r="A157" s="14" t="s">
         <v>70</v>
       </c>
@@ -12575,14 +12754,17 @@
       <c r="C157" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="14" t="s">
+        <v>3107</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F157" s="14" t="s">
+      <c r="G157" s="14" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:7">
       <c r="A158" s="14" t="s">
         <v>71</v>
       </c>
@@ -12592,12 +12774,15 @@
       <c r="C158" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="14" t="s">
+        <v>3108</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F158" s="14"/>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" s="14"/>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="14" t="s">
         <v>72</v>
       </c>
@@ -12607,12 +12792,12 @@
       <c r="C159" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F159" s="14"/>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" s="14"/>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="14" t="s">
         <v>73</v>
       </c>
@@ -12622,12 +12807,13 @@
       <c r="C160" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="14"/>
+      <c r="E160" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F160" s="14"/>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" s="14"/>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="14" t="s">
         <v>74</v>
       </c>
@@ -12637,12 +12823,13 @@
       <c r="C161" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="14"/>
+      <c r="E161" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F161" s="14"/>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" s="14"/>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="14" t="s">
         <v>75</v>
       </c>
@@ -12652,12 +12839,13 @@
       <c r="C162" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="14"/>
+      <c r="E162" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F162" s="14"/>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162" s="14"/>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="14" t="s">
         <v>104</v>
       </c>
@@ -12667,12 +12855,13 @@
       <c r="C163" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="14"/>
+      <c r="E163" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F163" s="14"/>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" s="14"/>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="14" t="s">
         <v>106</v>
       </c>
@@ -12682,12 +12871,13 @@
       <c r="C164" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="14"/>
+      <c r="E164" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F164" s="14"/>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164" s="14"/>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="14" t="s">
         <v>107</v>
       </c>
@@ -12697,14 +12887,17 @@
       <c r="C165" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="14" t="s">
+        <v>3109</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F165" s="14" t="s">
+      <c r="G165" s="14" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:7">
       <c r="A166" s="14" t="s">
         <v>108</v>
       </c>
@@ -12714,14 +12907,15 @@
       <c r="C166" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="17"/>
+      <c r="E166" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F166" s="17" t="s">
+      <c r="G166" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:7">
       <c r="A167" s="14" t="s">
         <v>110</v>
       </c>
@@ -12731,12 +12925,13 @@
       <c r="C167" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="14"/>
+      <c r="E167" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F167" s="14"/>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167" s="14"/>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="14" t="s">
         <v>111</v>
       </c>
@@ -12746,17 +12941,18 @@
       <c r="C168" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="14"/>
+      <c r="E168" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F168" s="14" t="s">
+      <c r="F168" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G168" s="14" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:7">
       <c r="A169" s="14" t="s">
         <v>111</v>
       </c>
@@ -12766,17 +12962,20 @@
       <c r="C169" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="14" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="F169" s="14" t="s">
+      <c r="F169" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G169" s="14" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:7">
       <c r="A170" s="14" t="s">
         <v>112</v>
       </c>
@@ -12786,14 +12985,17 @@
       <c r="C170" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="14" t="s">
+        <v>3111</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F170" s="14" t="s">
+      <c r="G170" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:7">
       <c r="A171" s="14" t="s">
         <v>113</v>
       </c>
@@ -12803,14 +13005,15 @@
       <c r="C171" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="14"/>
+      <c r="E171" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F171" s="14" t="s">
+      <c r="G171" s="14" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:7">
       <c r="A172" s="14" t="s">
         <v>116</v>
       </c>
@@ -12820,12 +13023,13 @@
       <c r="C172" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="14"/>
+      <c r="E172" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F172" s="14"/>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172" s="14"/>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="14" t="s">
         <v>117</v>
       </c>
@@ -12835,14 +13039,15 @@
       <c r="C173" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="14"/>
+      <c r="E173" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F173" s="14" t="s">
+      <c r="G173" s="14" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:7">
       <c r="A174" s="14" t="s">
         <v>119</v>
       </c>
@@ -12852,12 +13057,13 @@
       <c r="C174" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="14"/>
+      <c r="E174" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F174" s="14"/>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174" s="14"/>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="14" t="s">
         <v>120</v>
       </c>
@@ -12867,12 +13073,13 @@
       <c r="C175" s="14" t="s">
         <v>869</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="14"/>
+      <c r="E175" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F175" s="14"/>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175" s="14"/>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="14" t="s">
         <v>121</v>
       </c>
@@ -12882,12 +13089,15 @@
       <c r="C176" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="14" t="s">
+        <v>3112</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F176" s="14"/>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176" s="14"/>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="14" t="s">
         <v>76</v>
       </c>
@@ -12897,12 +13107,13 @@
       <c r="C177" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="14"/>
+      <c r="E177" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F177" s="14"/>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177" s="14"/>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="14" t="s">
         <v>123</v>
       </c>
@@ -12912,12 +13123,13 @@
       <c r="C178" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="14"/>
+      <c r="E178" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F178" s="14"/>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178" s="14"/>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="14" t="s">
         <v>77</v>
       </c>
@@ -12927,14 +13139,15 @@
       <c r="C179" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="14"/>
+      <c r="E179" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F179" s="14" t="s">
+      <c r="G179" s="14" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:7">
       <c r="A180" s="14" t="s">
         <v>125</v>
       </c>
@@ -12944,14 +13157,17 @@
       <c r="C180" s="14" t="s">
         <v>863</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F180" s="14" t="s">
+      <c r="G180" s="14" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:7">
       <c r="A181" s="14" t="s">
         <v>126</v>
       </c>
@@ -12961,14 +13177,17 @@
       <c r="C181" s="14" t="s">
         <v>858</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F181" s="14" t="s">
+      <c r="G181" s="14" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:7">
       <c r="A182" s="14" t="s">
         <v>127</v>
       </c>
@@ -12978,14 +13197,17 @@
       <c r="C182" s="14" t="s">
         <v>858</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F182" s="14" t="s">
+      <c r="G182" s="14" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:7">
       <c r="A183" s="14" t="s">
         <v>128</v>
       </c>
@@ -12995,14 +13217,17 @@
       <c r="C183" s="14" t="s">
         <v>861</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F183" s="14" t="s">
+      <c r="G183" s="14" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:7">
       <c r="A184" s="14" t="s">
         <v>129</v>
       </c>
@@ -13012,14 +13237,15 @@
       <c r="C184" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="14"/>
+      <c r="E184" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F184" s="14" t="s">
+      <c r="G184" s="14" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:7">
       <c r="A185" s="14" t="s">
         <v>78</v>
       </c>
@@ -13029,12 +13255,13 @@
       <c r="C185" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="14"/>
+      <c r="E185" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F185" s="14"/>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185" s="14"/>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="14" t="s">
         <v>131</v>
       </c>
@@ -13044,14 +13271,14 @@
       <c r="C186" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="G186" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:7">
       <c r="A187" s="14" t="s">
         <v>134</v>
       </c>
@@ -13061,14 +13288,14 @@
       <c r="C187" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F187" s="1" t="s">
+      <c r="G187" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:7">
       <c r="A188" s="14" t="s">
         <v>136</v>
       </c>
@@ -13078,14 +13305,14 @@
       <c r="C188" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F188" s="1" t="s">
+      <c r="G188" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:7">
       <c r="A189" s="14" t="s">
         <v>138</v>
       </c>
@@ -13095,14 +13322,14 @@
       <c r="C189" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="G189" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:7">
       <c r="A190" s="14" t="s">
         <v>140</v>
       </c>
@@ -13112,14 +13339,14 @@
       <c r="C190" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="G190" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:7">
       <c r="A191" s="14" t="s">
         <v>142</v>
       </c>
@@ -13129,14 +13356,14 @@
       <c r="C191" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="G191" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:7">
       <c r="A192" s="14" t="s">
         <v>144</v>
       </c>
@@ -13146,14 +13373,14 @@
       <c r="C192" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:7">
       <c r="A193" s="14" t="s">
         <v>146</v>
       </c>
@@ -13163,14 +13390,14 @@
       <c r="C193" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="G193" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:7">
       <c r="A194" s="14" t="s">
         <v>148</v>
       </c>
@@ -13180,14 +13407,14 @@
       <c r="C194" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F194" s="1" t="s">
+      <c r="G194" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:7">
       <c r="A195" s="14" t="s">
         <v>149</v>
       </c>
@@ -13197,14 +13424,14 @@
       <c r="C195" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="G195" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:7">
       <c r="A196" s="14" t="s">
         <v>150</v>
       </c>
@@ -13214,14 +13441,14 @@
       <c r="C196" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="G196" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:7">
       <c r="A197" s="14" t="s">
         <v>151</v>
       </c>
@@ -13231,14 +13458,14 @@
       <c r="C197" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F197" s="1" t="s">
+      <c r="G197" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:7">
       <c r="A198" s="14" t="s">
         <v>152</v>
       </c>
@@ -13248,14 +13475,14 @@
       <c r="C198" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="G198" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:7">
       <c r="A199" s="14" t="s">
         <v>153</v>
       </c>
@@ -13265,14 +13492,14 @@
       <c r="C199" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="G199" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:7">
       <c r="A200" s="14" t="s">
         <v>154</v>
       </c>
@@ -13282,14 +13509,14 @@
       <c r="C200" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="G200" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:7">
       <c r="A201" s="14" t="s">
         <v>155</v>
       </c>
@@ -13299,14 +13526,14 @@
       <c r="C201" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F201" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:7">
       <c r="A202" s="14" t="s">
         <v>79</v>
       </c>
@@ -13316,11 +13543,12 @@
       <c r="C202" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D202" s="14"/>
+      <c r="E202" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:7">
       <c r="A203" s="14" t="s">
         <v>157</v>
       </c>
@@ -13330,11 +13558,12 @@
       <c r="C203" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" s="14"/>
+      <c r="E203" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:7">
       <c r="A204" s="14" t="s">
         <v>80</v>
       </c>
@@ -13344,11 +13573,12 @@
       <c r="C204" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D204" s="14"/>
+      <c r="E204" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:7">
       <c r="A205" s="14" t="s">
         <v>81</v>
       </c>
@@ -13358,11 +13588,12 @@
       <c r="C205" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="14"/>
+      <c r="E205" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:7">
       <c r="A206" s="14" t="s">
         <v>162</v>
       </c>
@@ -13372,11 +13603,12 @@
       <c r="C206" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="14"/>
+      <c r="E206" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:7">
       <c r="A207" s="14" t="s">
         <v>82</v>
       </c>
@@ -13386,11 +13618,12 @@
       <c r="C207" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="14"/>
+      <c r="E207" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:7">
       <c r="A208" s="14" t="s">
         <v>83</v>
       </c>
@@ -13400,11 +13633,12 @@
       <c r="C208" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="14"/>
+      <c r="E208" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:7">
       <c r="A209" s="14" t="s">
         <v>84</v>
       </c>
@@ -13414,11 +13648,12 @@
       <c r="C209" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D209" s="14"/>
+      <c r="E209" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:7">
       <c r="A210" s="14" t="s">
         <v>165</v>
       </c>
@@ -13428,11 +13663,12 @@
       <c r="C210" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="14"/>
+      <c r="E210" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:7">
       <c r="A211" s="14" t="s">
         <v>166</v>
       </c>
@@ -13442,25 +13678,29 @@
       <c r="C211" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="14"/>
+      <c r="E211" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="G211" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:7">
       <c r="A212" s="16" t="s">
         <v>819</v>
       </c>
       <c r="C212" s="16" t="s">
         <v>820</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D212" s="16" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:7">
       <c r="A213" s="16" t="s">
         <v>334</v>
       </c>
@@ -13470,14 +13710,17 @@
       <c r="C213" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D213" s="16" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="G213" s="1" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:7">
       <c r="A214" s="16" t="s">
         <v>336</v>
       </c>
@@ -13485,11 +13728,14 @@
       <c r="C214" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D214" s="16" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:7">
       <c r="A215" s="16" t="s">
         <v>338</v>
       </c>
@@ -13497,14 +13743,15 @@
       <c r="C215" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="16"/>
+      <c r="E215" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F215" s="1" t="s">
+      <c r="G215" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
         <v>328</v>
       </c>
@@ -13512,30 +13759,33 @@
         <v>329</v>
       </c>
       <c r="D216" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="E216" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F216" s="1" t="s">
+      <c r="G216" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
         <v>330</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="F217" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G217" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:7">
       <c r="A218" s="1" t="s">
         <v>330</v>
       </c>
@@ -13543,28 +13793,31 @@
         <v>329</v>
       </c>
       <c r="D218" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>825</v>
-      </c>
       <c r="F218" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G218" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="14" customFormat="1">
+    <row r="220" spans="1:7" s="14" customFormat="1">
       <c r="A220" s="27"/>
     </row>
-    <row r="221" spans="1:6" s="14" customFormat="1">
+    <row r="221" spans="1:7" s="14" customFormat="1">
       <c r="A221" s="27"/>
     </row>
-    <row r="222" spans="1:6" s="14" customFormat="1">
+    <row r="222" spans="1:7" s="14" customFormat="1">
       <c r="A222" s="25"/>
     </row>
-    <row r="223" spans="1:6" s="14" customFormat="1">
+    <row r="223" spans="1:7" s="14" customFormat="1">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:6" s="14" customFormat="1">
+    <row r="224" spans="1:7" s="14" customFormat="1">
       <c r="A224"/>
     </row>
     <row r="225" spans="1:1" s="14" customFormat="1">
@@ -13687,10 +13940,10 @@
   <dimension ref="A1:H2684"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD85287-2135-42CD-AB5E-ACA011F9F20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC382D1-D9C9-4210-879E-DA260F001CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -10169,7 +10169,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -10508,9 +10508,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G303"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5FD4A5-1D8E-4A13-96BD-7E4BA98B17B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2692672-D69A-4C0D-99EB-603972A9F37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -10215,22 +10215,6 @@
     <t>2025-December-20</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Revision date: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2025-December-18</t>
-    </r>
-  </si>
-  <si>
     <t>SYNC/LUM</t>
   </si>
   <si>
@@ -10324,6 +10308,22 @@
   </si>
   <si>
     <t>1.8nF 25V</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Revision date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2025-December-20</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -10921,7 +10921,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -10948,7 +10948,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>3331</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -11261,8 +11261,8 @@
   <dimension ref="A1:G451"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D161" sqref="D161"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11344,10 +11344,10 @@
         <v>401</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -11361,7 +11361,7 @@
         <v>401</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -11375,10 +11375,10 @@
         <v>401</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
@@ -11392,10 +11392,10 @@
         <v>401</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
@@ -11409,10 +11409,10 @@
         <v>401</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
@@ -11426,7 +11426,7 @@
         <v>401</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
@@ -11440,10 +11440,10 @@
         <v>401</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
@@ -11457,10 +11457,10 @@
         <v>401</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
@@ -11474,10 +11474,10 @@
         <v>401</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
@@ -11491,10 +11491,10 @@
         <v>401</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
@@ -11508,10 +11508,10 @@
         <v>401</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
@@ -11525,10 +11525,10 @@
         <v>401</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>18</v>
@@ -11542,10 +11542,10 @@
         <v>401</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>18</v>
@@ -11559,10 +11559,10 @@
         <v>401</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>18</v>
@@ -11576,10 +11576,10 @@
         <v>401</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>18</v>
@@ -11593,10 +11593,10 @@
         <v>401</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>18</v>
@@ -11610,10 +11610,10 @@
         <v>401</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>18</v>
@@ -11627,10 +11627,10 @@
         <v>401</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>18</v>
@@ -11644,10 +11644,10 @@
         <v>401</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>18</v>
@@ -11678,7 +11678,7 @@
         <v>401</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>18</v>
@@ -11692,10 +11692,10 @@
         <v>401</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>18</v>
@@ -11709,7 +11709,7 @@
         <v>401</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>18</v>
@@ -11723,10 +11723,10 @@
         <v>401</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>18</v>
@@ -11740,7 +11740,7 @@
         <v>401</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>18</v>
@@ -11754,10 +11754,10 @@
         <v>401</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>18</v>
@@ -11771,10 +11771,10 @@
         <v>401</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>18</v>
@@ -11788,7 +11788,7 @@
         <v>401</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>18</v>
@@ -11802,10 +11802,10 @@
         <v>401</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>18</v>
@@ -11819,10 +11819,10 @@
         <v>401</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>18</v>
@@ -11836,10 +11836,10 @@
         <v>401</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>18</v>
@@ -11853,10 +11853,10 @@
         <v>401</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>18</v>
@@ -11870,10 +11870,10 @@
         <v>401</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>18</v>
@@ -11887,10 +11887,10 @@
         <v>401</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>18</v>
@@ -11904,10 +11904,10 @@
         <v>401</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>18</v>
@@ -11921,10 +11921,10 @@
         <v>401</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>18</v>
@@ -11938,10 +11938,10 @@
         <v>401</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>18</v>
@@ -11955,7 +11955,7 @@
         <v>401</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>18</v>
@@ -11969,7 +11969,7 @@
         <v>401</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>18</v>
@@ -11983,7 +11983,7 @@
         <v>401</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>18</v>
@@ -11997,7 +11997,7 @@
         <v>401</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>18</v>
@@ -12011,7 +12011,7 @@
         <v>401</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>18</v>
@@ -12025,7 +12025,7 @@
         <v>401</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>18</v>
@@ -12039,7 +12039,7 @@
         <v>401</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>18</v>
@@ -12053,7 +12053,7 @@
         <v>401</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>18</v>
@@ -12067,7 +12067,7 @@
         <v>401</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>18</v>
@@ -12081,7 +12081,7 @@
         <v>401</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>18</v>
@@ -12095,7 +12095,7 @@
         <v>401</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>18</v>
@@ -12109,7 +12109,7 @@
         <v>401</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>18</v>
@@ -12123,7 +12123,7 @@
         <v>401</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>18</v>
@@ -12137,7 +12137,7 @@
         <v>401</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>18</v>
@@ -12151,7 +12151,7 @@
         <v>401</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>18</v>
@@ -12165,7 +12165,7 @@
         <v>401</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>18</v>
@@ -12179,10 +12179,10 @@
         <v>401</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>18</v>
@@ -12196,10 +12196,10 @@
         <v>401</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>18</v>
@@ -12213,10 +12213,10 @@
         <v>401</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>18</v>
@@ -12230,10 +12230,10 @@
         <v>401</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>18</v>
@@ -12247,10 +12247,10 @@
         <v>401</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>18</v>
@@ -12264,10 +12264,10 @@
         <v>401</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>18</v>
@@ -12281,10 +12281,10 @@
         <v>409</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>18</v>
@@ -12298,10 +12298,10 @@
         <v>409</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>18</v>
@@ -12315,10 +12315,10 @@
         <v>409</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>18</v>
@@ -12332,7 +12332,7 @@
         <v>401</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>18</v>
@@ -12346,7 +12346,7 @@
         <v>401</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>18</v>
@@ -12360,7 +12360,7 @@
         <v>401</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>18</v>
@@ -12374,7 +12374,7 @@
         <v>401</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>18</v>
@@ -12388,10 +12388,10 @@
         <v>401</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>18</v>
@@ -12405,10 +12405,10 @@
         <v>409</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>18</v>
@@ -12425,10 +12425,10 @@
         <v>401</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>18</v>
@@ -12442,10 +12442,10 @@
         <v>401</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>18</v>
@@ -12459,10 +12459,10 @@
         <v>401</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D79" s="36" t="s">
         <v>3350</v>
-      </c>
-      <c r="D79" s="36" t="s">
-        <v>3351</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>18</v>
@@ -12476,10 +12476,10 @@
         <v>401</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D80" s="36" t="s">
         <v>3350</v>
-      </c>
-      <c r="D80" s="36" t="s">
-        <v>3351</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>18</v>
@@ -12493,7 +12493,7 @@
         <v>401</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>18</v>
@@ -12507,10 +12507,10 @@
         <v>401</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D82" s="36" t="s">
         <v>3350</v>
-      </c>
-      <c r="D82" s="36" t="s">
-        <v>3351</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>18</v>
@@ -12524,10 +12524,10 @@
         <v>401</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D83" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>18</v>
@@ -12541,7 +12541,7 @@
         <v>401</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>18</v>
@@ -12555,7 +12555,7 @@
         <v>401</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>18</v>
@@ -12569,7 +12569,7 @@
         <v>401</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>18</v>
@@ -12583,7 +12583,7 @@
         <v>409</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>18</v>
@@ -12597,7 +12597,7 @@
         <v>401</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>18</v>
@@ -12611,10 +12611,10 @@
         <v>401</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D89" s="36" t="s">
         <v>3350</v>
-      </c>
-      <c r="D89" s="36" t="s">
-        <v>3351</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>18</v>
@@ -12628,10 +12628,10 @@
         <v>401</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D90" s="36" t="s">
         <v>3350</v>
-      </c>
-      <c r="D90" s="36" t="s">
-        <v>3351</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>18</v>
@@ -12645,7 +12645,7 @@
         <v>401</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>18</v>
@@ -12659,10 +12659,10 @@
         <v>409</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>18</v>
@@ -12676,10 +12676,10 @@
         <v>401</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D93" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>18</v>
@@ -12693,7 +12693,7 @@
         <v>401</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>18</v>
@@ -12707,10 +12707,10 @@
         <v>409</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>18</v>
@@ -12724,10 +12724,10 @@
         <v>401</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="D96" s="36" t="s">
         <v>3355</v>
-      </c>
-      <c r="D96" s="36" t="s">
-        <v>3356</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>18</v>
@@ -12741,7 +12741,7 @@
         <v>401</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>18</v>
@@ -12755,7 +12755,7 @@
         <v>409</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>18</v>
@@ -12769,10 +12769,10 @@
         <v>409</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>18</v>
@@ -12786,10 +12786,10 @@
         <v>401</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D100" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>18</v>
@@ -12803,7 +12803,7 @@
         <v>401</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>18</v>
@@ -12817,7 +12817,7 @@
         <v>401</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>18</v>
@@ -12831,7 +12831,7 @@
         <v>401</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>18</v>
@@ -12845,7 +12845,7 @@
         <v>401</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>18</v>
@@ -12859,7 +12859,7 @@
         <v>401</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>18</v>
@@ -12873,7 +12873,7 @@
         <v>401</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>18</v>
@@ -12887,10 +12887,10 @@
         <v>401</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>18</v>
@@ -12904,7 +12904,7 @@
         <v>409</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>18</v>
@@ -12918,10 +12918,10 @@
         <v>401</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D109" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>18</v>
@@ -12935,7 +12935,7 @@
         <v>401</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>18</v>
@@ -12949,7 +12949,7 @@
         <v>409</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>18</v>
@@ -12963,7 +12963,7 @@
         <v>409</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>18</v>
@@ -12977,7 +12977,7 @@
         <v>410</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>18</v>
@@ -12991,7 +12991,7 @@
         <v>409</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>18</v>
@@ -13005,7 +13005,7 @@
         <v>401</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>18</v>
@@ -13019,7 +13019,7 @@
         <v>401</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>18</v>
@@ -13033,7 +13033,7 @@
         <v>401</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>18</v>
@@ -13047,10 +13047,10 @@
         <v>409</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>18</v>
@@ -13064,10 +13064,10 @@
         <v>401</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D119" s="36" t="s">
         <v>3350</v>
-      </c>
-      <c r="D119" s="36" t="s">
-        <v>3351</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>18</v>
@@ -13081,7 +13081,7 @@
         <v>401</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>18</v>
@@ -13095,7 +13095,7 @@
         <v>401</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>18</v>
@@ -13109,10 +13109,10 @@
         <v>401</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>18</v>
@@ -13126,10 +13126,10 @@
         <v>401</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D123" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>18</v>
@@ -13143,7 +13143,7 @@
         <v>401</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>18</v>
@@ -13157,7 +13157,7 @@
         <v>401</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>18</v>
@@ -13171,7 +13171,7 @@
         <v>401</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>18</v>
@@ -13185,7 +13185,7 @@
         <v>401</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>18</v>
@@ -13199,7 +13199,7 @@
         <v>401</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>18</v>
@@ -13213,7 +13213,7 @@
         <v>401</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>18</v>
@@ -13227,7 +13227,7 @@
         <v>401</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>18</v>
@@ -13241,10 +13241,10 @@
         <v>401</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D131" s="36" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>18</v>
@@ -13258,7 +13258,7 @@
         <v>401</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>18</v>
@@ -13272,7 +13272,7 @@
         <v>401</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>18</v>
@@ -14017,7 +14017,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" ht="28.8">
       <c r="A178" s="1" t="s">
         <v>104</v>
       </c>
@@ -16790,11 +16790,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I2809"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D2291" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F2298" sqref="F2298"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -40384,7 +40384,7 @@
         <v>17</v>
       </c>
       <c r="D1218" s="36" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="E1218" s="36" t="s">
         <v>453</v>
@@ -40404,7 +40404,7 @@
         <v>17</v>
       </c>
       <c r="D1219" s="36" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="E1219" s="36" t="s">
         <v>453</v>
@@ -40422,16 +40422,16 @@
         <v>17</v>
       </c>
       <c r="D1220" s="14" t="s">
+        <v>3332</v>
+      </c>
+      <c r="E1220" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1220" s="14" t="s">
         <v>3333</v>
       </c>
-      <c r="E1220" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F1220" s="14" t="s">
+      <c r="G1220" s="1" t="s">
         <v>3334</v>
-      </c>
-      <c r="G1220" s="1" t="s">
-        <v>3335</v>
       </c>
     </row>
     <row r="1221" spans="1:7">

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2692672-D69A-4C0D-99EB-603972A9F37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932BBEE4-7C36-4BF5-B093-5DC8D0174ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -10322,7 +10322,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-20</t>
+      <t>2025-December-22</t>
     </r>
   </si>
 </sst>
@@ -88905,7 +88905,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6237D16B-2917-462C-9FAC-04837B5C27C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EBC278-A607-49D5-918D-73645907DCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView minimized="1" xWindow="-22140" yWindow="1044" windowWidth="17280" windowHeight="8604" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17336" uniqueCount="3365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17360" uniqueCount="3366">
   <si>
     <t>Name</t>
   </si>
@@ -10342,6 +10342,9 @@
   </si>
   <si>
     <t>2.7V Zener</t>
+  </si>
+  <si>
+    <t>Analog?</t>
   </si>
 </sst>
 </file>
@@ -16776,13 +16779,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2823"/>
+  <dimension ref="A1:I2831"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D2757" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F158" sqref="F158"/>
+      <selection pane="bottomRight" activeCell="D2764" sqref="D2764:D2771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -70768,7 +70771,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="2753" spans="1:7">
+    <row r="2753" spans="1:6">
       <c r="A2753" s="1" t="s">
         <v>166</v>
       </c>
@@ -70788,7 +70791,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="2754" spans="1:7">
+    <row r="2754" spans="1:6">
       <c r="A2754" s="1" t="s">
         <v>166</v>
       </c>
@@ -70808,7 +70811,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="2755" spans="1:7">
+    <row r="2755" spans="1:6">
       <c r="A2755" s="1" t="s">
         <v>166</v>
       </c>
@@ -70828,7 +70831,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="2756" spans="1:7">
+    <row r="2756" spans="1:6">
       <c r="A2756" s="1" t="s">
         <v>166</v>
       </c>
@@ -70848,7 +70851,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="2757" spans="1:7">
+    <row r="2757" spans="1:6">
       <c r="A2757" s="1" t="s">
         <v>166</v>
       </c>
@@ -70868,7 +70871,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="2758" spans="1:7">
+    <row r="2758" spans="1:6">
       <c r="A2758" s="1" t="s">
         <v>166</v>
       </c>
@@ -70888,7 +70891,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="2759" spans="1:7">
+    <row r="2759" spans="1:6">
       <c r="A2759" s="1" t="s">
         <v>166</v>
       </c>
@@ -70908,7 +70911,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="2760" spans="1:7">
+    <row r="2760" spans="1:6">
       <c r="A2760" s="1" t="s">
         <v>166</v>
       </c>
@@ -70928,7 +70931,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="2761" spans="1:7">
+    <row r="2761" spans="1:6">
       <c r="A2761" s="1" t="s">
         <v>166</v>
       </c>
@@ -70948,7 +70951,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="2762" spans="1:7">
+    <row r="2762" spans="1:6">
       <c r="A2762" s="1" t="s">
         <v>166</v>
       </c>
@@ -70968,7 +70971,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="2763" spans="1:7">
+    <row r="2763" spans="1:6">
       <c r="A2763" s="1" t="s">
         <v>166</v>
       </c>
@@ -70988,143 +70991,151 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="2764" spans="1:7" ht="72">
+    <row r="2764" spans="1:6">
       <c r="A2764" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2764" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2764" s="51">
+        <v>1</v>
+      </c>
+      <c r="D2764" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E2764" s="36"/>
+    </row>
+    <row r="2765" spans="1:6">
+      <c r="A2765" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2765" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2765" s="51">
+        <v>2</v>
+      </c>
+      <c r="D2765" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E2765" s="36"/>
+    </row>
+    <row r="2766" spans="1:6">
+      <c r="A2766" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2766" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2766" s="51">
+        <v>3</v>
+      </c>
+      <c r="D2766" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E2766" s="36"/>
+    </row>
+    <row r="2767" spans="1:6">
+      <c r="A2767" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2767" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2767" s="51">
+        <v>4</v>
+      </c>
+      <c r="D2767" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E2767" s="36"/>
+    </row>
+    <row r="2768" spans="1:6">
+      <c r="A2768" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2768" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2768" s="51">
+        <v>5</v>
+      </c>
+      <c r="D2768" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E2768" s="36"/>
+    </row>
+    <row r="2769" spans="1:7">
+      <c r="A2769" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2769" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2769" s="51">
+        <v>6</v>
+      </c>
+      <c r="D2769" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E2769" s="36"/>
+    </row>
+    <row r="2770" spans="1:7">
+      <c r="A2770" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2770" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2770" s="51">
+        <v>7</v>
+      </c>
+      <c r="D2770" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E2770" s="36"/>
+    </row>
+    <row r="2771" spans="1:7">
+      <c r="A2771" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2771" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2771" s="51">
+        <v>8</v>
+      </c>
+      <c r="D2771" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E2771" s="36"/>
+    </row>
+    <row r="2772" spans="1:7" ht="72">
+      <c r="A2772" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="D2764" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G2764" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="2765" spans="1:7" ht="72">
-      <c r="A2765" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D2765" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G2765" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="2766" spans="1:7" ht="28.8">
-      <c r="A2766" s="1" t="s">
-        <v>3112</v>
-      </c>
-      <c r="D2766" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2766" s="14" t="s">
-        <v>3319</v>
-      </c>
-      <c r="G2766" s="36" t="s">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="2767" spans="1:7" ht="28.8">
-      <c r="A2767" s="1" t="s">
-        <v>3152</v>
-      </c>
-      <c r="D2767" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2767" s="14" t="s">
-        <v>3319</v>
-      </c>
-      <c r="G2767" s="36" t="s">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="2768" spans="1:7" ht="28.8">
-      <c r="A2768" s="1" t="s">
-        <v>3186</v>
-      </c>
-      <c r="D2768" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2768" s="14" t="s">
-        <v>3319</v>
-      </c>
-      <c r="G2768" s="36" t="s">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="2769" spans="1:7" ht="28.8">
-      <c r="A2769" s="1" t="s">
-        <v>3173</v>
-      </c>
-      <c r="D2769" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2769" s="14" t="s">
-        <v>3319</v>
-      </c>
-      <c r="G2769" s="36" t="s">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="2770" spans="1:7" ht="28.8">
-      <c r="A2770" s="1" t="s">
-        <v>3204</v>
-      </c>
-      <c r="D2770" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2770" s="14" t="s">
-        <v>3319</v>
-      </c>
-      <c r="G2770" s="36" t="s">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="2771" spans="1:7" ht="28.8">
-      <c r="A2771" s="1" t="s">
-        <v>3187</v>
-      </c>
-      <c r="D2771" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2771" s="14" t="s">
-        <v>3319</v>
-      </c>
-      <c r="G2771" s="36" t="s">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="2772" spans="1:7" ht="28.8">
-      <c r="A2772" s="1" t="s">
-        <v>3200</v>
       </c>
       <c r="D2772" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F2772" s="14" t="s">
-        <v>3319</v>
-      </c>
-      <c r="G2772" s="36" t="s">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="2773" spans="1:7" ht="28.8">
+      <c r="G2772" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:7" ht="72">
       <c r="A2773" s="1" t="s">
-        <v>3153</v>
+        <v>317</v>
       </c>
       <c r="D2773" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F2773" s="14" t="s">
-        <v>3319</v>
-      </c>
-      <c r="G2773" s="36" t="s">
-        <v>3320</v>
+      <c r="G2773" s="1" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="2774" spans="1:7" ht="28.8">
       <c r="A2774" s="1" t="s">
-        <v>3149</v>
+        <v>3112</v>
       </c>
       <c r="D2774" s="1" t="s">
         <v>350</v>
@@ -71138,7 +71149,7 @@
     </row>
     <row r="2775" spans="1:7" ht="28.8">
       <c r="A2775" s="1" t="s">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="D2775" s="1" t="s">
         <v>350</v>
@@ -71152,7 +71163,7 @@
     </row>
     <row r="2776" spans="1:7" ht="28.8">
       <c r="A2776" s="1" t="s">
-        <v>3191</v>
+        <v>3186</v>
       </c>
       <c r="D2776" s="1" t="s">
         <v>350</v>
@@ -71166,7 +71177,7 @@
     </row>
     <row r="2777" spans="1:7" ht="28.8">
       <c r="A2777" s="1" t="s">
-        <v>3188</v>
+        <v>3173</v>
       </c>
       <c r="D2777" s="1" t="s">
         <v>350</v>
@@ -71180,7 +71191,7 @@
     </row>
     <row r="2778" spans="1:7" ht="28.8">
       <c r="A2778" s="1" t="s">
-        <v>3140</v>
+        <v>3204</v>
       </c>
       <c r="D2778" s="1" t="s">
         <v>350</v>
@@ -71194,7 +71205,7 @@
     </row>
     <row r="2779" spans="1:7" ht="28.8">
       <c r="A2779" s="1" t="s">
-        <v>3139</v>
+        <v>3187</v>
       </c>
       <c r="D2779" s="1" t="s">
         <v>350</v>
@@ -71208,7 +71219,7 @@
     </row>
     <row r="2780" spans="1:7" ht="28.8">
       <c r="A2780" s="1" t="s">
-        <v>3135</v>
+        <v>3200</v>
       </c>
       <c r="D2780" s="1" t="s">
         <v>350</v>
@@ -71222,7 +71233,7 @@
     </row>
     <row r="2781" spans="1:7" ht="28.8">
       <c r="A2781" s="1" t="s">
-        <v>3115</v>
+        <v>3153</v>
       </c>
       <c r="D2781" s="1" t="s">
         <v>350</v>
@@ -71236,7 +71247,7 @@
     </row>
     <row r="2782" spans="1:7" ht="28.8">
       <c r="A2782" s="1" t="s">
-        <v>3116</v>
+        <v>3149</v>
       </c>
       <c r="D2782" s="1" t="s">
         <v>350</v>
@@ -71250,7 +71261,7 @@
     </row>
     <row r="2783" spans="1:7" ht="28.8">
       <c r="A2783" s="1" t="s">
-        <v>3133</v>
+        <v>3148</v>
       </c>
       <c r="D2783" s="1" t="s">
         <v>350</v>
@@ -71264,7 +71275,7 @@
     </row>
     <row r="2784" spans="1:7" ht="28.8">
       <c r="A2784" s="1" t="s">
-        <v>3198</v>
+        <v>3191</v>
       </c>
       <c r="D2784" s="1" t="s">
         <v>350</v>
@@ -71278,7 +71289,7 @@
     </row>
     <row r="2785" spans="1:7" ht="28.8">
       <c r="A2785" s="1" t="s">
-        <v>3193</v>
+        <v>3188</v>
       </c>
       <c r="D2785" s="1" t="s">
         <v>350</v>
@@ -71292,7 +71303,7 @@
     </row>
     <row r="2786" spans="1:7" ht="28.8">
       <c r="A2786" s="1" t="s">
-        <v>3195</v>
+        <v>3140</v>
       </c>
       <c r="D2786" s="1" t="s">
         <v>350</v>
@@ -71306,7 +71317,7 @@
     </row>
     <row r="2787" spans="1:7" ht="28.8">
       <c r="A2787" s="1" t="s">
-        <v>3209</v>
+        <v>3139</v>
       </c>
       <c r="D2787" s="1" t="s">
         <v>350</v>
@@ -71320,7 +71331,7 @@
     </row>
     <row r="2788" spans="1:7" ht="28.8">
       <c r="A2788" s="1" t="s">
-        <v>3194</v>
+        <v>3135</v>
       </c>
       <c r="D2788" s="1" t="s">
         <v>350</v>
@@ -71334,7 +71345,7 @@
     </row>
     <row r="2789" spans="1:7" ht="28.8">
       <c r="A2789" s="1" t="s">
-        <v>3189</v>
+        <v>3115</v>
       </c>
       <c r="D2789" s="1" t="s">
         <v>350</v>
@@ -71348,7 +71359,7 @@
     </row>
     <row r="2790" spans="1:7" ht="28.8">
       <c r="A2790" s="1" t="s">
-        <v>3134</v>
+        <v>3116</v>
       </c>
       <c r="D2790" s="1" t="s">
         <v>350</v>
@@ -71362,7 +71373,7 @@
     </row>
     <row r="2791" spans="1:7" ht="28.8">
       <c r="A2791" s="1" t="s">
-        <v>3154</v>
+        <v>3133</v>
       </c>
       <c r="D2791" s="1" t="s">
         <v>350</v>
@@ -71376,7 +71387,7 @@
     </row>
     <row r="2792" spans="1:7" ht="28.8">
       <c r="A2792" s="1" t="s">
-        <v>3192</v>
+        <v>3198</v>
       </c>
       <c r="D2792" s="1" t="s">
         <v>350</v>
@@ -71390,7 +71401,7 @@
     </row>
     <row r="2793" spans="1:7" ht="28.8">
       <c r="A2793" s="1" t="s">
-        <v>3108</v>
+        <v>3193</v>
       </c>
       <c r="D2793" s="1" t="s">
         <v>350</v>
@@ -71404,7 +71415,7 @@
     </row>
     <row r="2794" spans="1:7" ht="28.8">
       <c r="A2794" s="1" t="s">
-        <v>3110</v>
+        <v>3195</v>
       </c>
       <c r="D2794" s="1" t="s">
         <v>350</v>
@@ -71418,7 +71429,7 @@
     </row>
     <row r="2795" spans="1:7" ht="28.8">
       <c r="A2795" s="1" t="s">
-        <v>3226</v>
+        <v>3209</v>
       </c>
       <c r="D2795" s="1" t="s">
         <v>350</v>
@@ -71432,7 +71443,7 @@
     </row>
     <row r="2796" spans="1:7" ht="28.8">
       <c r="A2796" s="1" t="s">
-        <v>3104</v>
+        <v>3194</v>
       </c>
       <c r="D2796" s="1" t="s">
         <v>350</v>
@@ -71446,7 +71457,7 @@
     </row>
     <row r="2797" spans="1:7" ht="28.8">
       <c r="A2797" s="1" t="s">
-        <v>3201</v>
+        <v>3189</v>
       </c>
       <c r="D2797" s="1" t="s">
         <v>350</v>
@@ -71460,7 +71471,7 @@
     </row>
     <row r="2798" spans="1:7" ht="28.8">
       <c r="A2798" s="1" t="s">
-        <v>3151</v>
+        <v>3134</v>
       </c>
       <c r="D2798" s="1" t="s">
         <v>350</v>
@@ -71474,7 +71485,7 @@
     </row>
     <row r="2799" spans="1:7" ht="28.8">
       <c r="A2799" s="1" t="s">
-        <v>3147</v>
+        <v>3154</v>
       </c>
       <c r="D2799" s="1" t="s">
         <v>350</v>
@@ -71488,7 +71499,7 @@
     </row>
     <row r="2800" spans="1:7" ht="28.8">
       <c r="A2800" s="1" t="s">
-        <v>3251</v>
+        <v>3192</v>
       </c>
       <c r="D2800" s="1" t="s">
         <v>350</v>
@@ -71502,7 +71513,7 @@
     </row>
     <row r="2801" spans="1:7" ht="28.8">
       <c r="A2801" s="1" t="s">
-        <v>3250</v>
+        <v>3108</v>
       </c>
       <c r="D2801" s="1" t="s">
         <v>350</v>
@@ -71516,7 +71527,7 @@
     </row>
     <row r="2802" spans="1:7" ht="28.8">
       <c r="A2802" s="1" t="s">
-        <v>3136</v>
+        <v>3110</v>
       </c>
       <c r="D2802" s="1" t="s">
         <v>350</v>
@@ -71530,7 +71541,7 @@
     </row>
     <row r="2803" spans="1:7" ht="28.8">
       <c r="A2803" s="1" t="s">
-        <v>3111</v>
+        <v>3226</v>
       </c>
       <c r="D2803" s="1" t="s">
         <v>350</v>
@@ -71544,7 +71555,7 @@
     </row>
     <row r="2804" spans="1:7" ht="28.8">
       <c r="A2804" s="1" t="s">
-        <v>3150</v>
+        <v>3104</v>
       </c>
       <c r="D2804" s="1" t="s">
         <v>350</v>
@@ -71558,7 +71569,7 @@
     </row>
     <row r="2805" spans="1:7" ht="28.8">
       <c r="A2805" s="1" t="s">
-        <v>3105</v>
+        <v>3201</v>
       </c>
       <c r="D2805" s="1" t="s">
         <v>350</v>
@@ -71572,7 +71583,7 @@
     </row>
     <row r="2806" spans="1:7" ht="28.8">
       <c r="A2806" s="1" t="s">
-        <v>3174</v>
+        <v>3151</v>
       </c>
       <c r="D2806" s="1" t="s">
         <v>350</v>
@@ -71586,7 +71597,7 @@
     </row>
     <row r="2807" spans="1:7" ht="28.8">
       <c r="A2807" s="1" t="s">
-        <v>3099</v>
+        <v>3147</v>
       </c>
       <c r="D2807" s="1" t="s">
         <v>350</v>
@@ -71600,7 +71611,7 @@
     </row>
     <row r="2808" spans="1:7" ht="28.8">
       <c r="A2808" s="1" t="s">
-        <v>3146</v>
+        <v>3251</v>
       </c>
       <c r="D2808" s="1" t="s">
         <v>350</v>
@@ -71614,7 +71625,7 @@
     </row>
     <row r="2809" spans="1:7" ht="28.8">
       <c r="A2809" s="1" t="s">
-        <v>3101</v>
+        <v>3250</v>
       </c>
       <c r="D2809" s="1" t="s">
         <v>350</v>
@@ -71628,7 +71639,7 @@
     </row>
     <row r="2810" spans="1:7" ht="28.8">
       <c r="A2810" s="1" t="s">
-        <v>3184</v>
+        <v>3136</v>
       </c>
       <c r="D2810" s="1" t="s">
         <v>350</v>
@@ -71642,7 +71653,7 @@
     </row>
     <row r="2811" spans="1:7" ht="28.8">
       <c r="A2811" s="1" t="s">
-        <v>3190</v>
+        <v>3111</v>
       </c>
       <c r="D2811" s="1" t="s">
         <v>350</v>
@@ -71656,7 +71667,7 @@
     </row>
     <row r="2812" spans="1:7" ht="28.8">
       <c r="A2812" s="1" t="s">
-        <v>3098</v>
+        <v>3150</v>
       </c>
       <c r="D2812" s="1" t="s">
         <v>350</v>
@@ -71670,7 +71681,7 @@
     </row>
     <row r="2813" spans="1:7" ht="28.8">
       <c r="A2813" s="1" t="s">
-        <v>3202</v>
+        <v>3105</v>
       </c>
       <c r="D2813" s="1" t="s">
         <v>350</v>
@@ -71682,85 +71693,197 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="2814" spans="1:7">
-      <c r="A2814" s="36" t="s">
-        <v>3114</v>
+    <row r="2814" spans="1:7" ht="28.8">
+      <c r="A2814" s="1" t="s">
+        <v>3174</v>
       </c>
       <c r="D2814" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="F2814" s="14" t="s">
+        <v>3319</v>
+      </c>
       <c r="G2814" s="36" t="s">
-        <v>3356</v>
-      </c>
-    </row>
-    <row r="2815" spans="1:7">
-      <c r="A2815" s="36" t="s">
-        <v>3185</v>
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:7" ht="28.8">
+      <c r="A2815" s="1" t="s">
+        <v>3099</v>
       </c>
       <c r="D2815" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="F2815" s="14" t="s">
+        <v>3319</v>
+      </c>
       <c r="G2815" s="36" t="s">
-        <v>3356</v>
-      </c>
-    </row>
-    <row r="2816" spans="1:7">
-      <c r="A2816" s="36" t="s">
-        <v>3131</v>
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:7" ht="28.8">
+      <c r="A2816" s="1" t="s">
+        <v>3146</v>
       </c>
       <c r="D2816" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="F2816" s="14" t="s">
+        <v>3319</v>
+      </c>
       <c r="G2816" s="36" t="s">
-        <v>3356</v>
-      </c>
-    </row>
-    <row r="2817" spans="1:7">
-      <c r="A2817" s="36" t="s">
-        <v>3132</v>
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:7" ht="28.8">
+      <c r="A2817" s="1" t="s">
+        <v>3101</v>
       </c>
       <c r="D2817" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="F2817" s="14" t="s">
+        <v>3319</v>
+      </c>
       <c r="G2817" s="36" t="s">
-        <v>3356</v>
-      </c>
-    </row>
-    <row r="2818" spans="1:7">
-      <c r="A2818" s="36" t="s">
-        <v>3145</v>
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:7" ht="28.8">
+      <c r="A2818" s="1" t="s">
+        <v>3184</v>
       </c>
       <c r="D2818" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="F2818" s="14" t="s">
+        <v>3319</v>
+      </c>
       <c r="G2818" s="36" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:7" ht="28.8">
+      <c r="A2819" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D2819" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2819" s="14" t="s">
+        <v>3319</v>
+      </c>
+      <c r="G2819" s="36" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:7" ht="28.8">
+      <c r="A2820" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="D2820" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2820" s="14" t="s">
+        <v>3319</v>
+      </c>
+      <c r="G2820" s="36" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:7" ht="28.8">
+      <c r="A2821" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D2821" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2821" s="14" t="s">
+        <v>3319</v>
+      </c>
+      <c r="G2821" s="36" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:7">
+      <c r="A2822" s="36" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D2822" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2822" s="36" t="s">
         <v>3356</v>
       </c>
     </row>
-    <row r="2819" spans="1:7" s="14" customFormat="1">
-      <c r="C2819" s="34"/>
-      <c r="E2819" s="1"/>
-      <c r="G2819" s="1"/>
-    </row>
-    <row r="2820" spans="1:7" s="14" customFormat="1">
-      <c r="C2820" s="34"/>
-      <c r="E2820" s="1"/>
-      <c r="G2820" s="1"/>
-    </row>
-    <row r="2821" spans="1:7" s="14" customFormat="1">
-      <c r="C2821" s="34"/>
-      <c r="E2821" s="1"/>
-      <c r="G2821" s="1"/>
-    </row>
-    <row r="2822" spans="1:7" s="14" customFormat="1">
-      <c r="C2822" s="34"/>
-      <c r="E2822" s="1"/>
-      <c r="G2822" s="1"/>
-    </row>
-    <row r="2823" spans="1:7" s="14" customFormat="1">
-      <c r="C2823" s="34"/>
-      <c r="E2823" s="1"/>
-      <c r="G2823" s="1"/>
+    <row r="2823" spans="1:7">
+      <c r="A2823" s="36" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D2823" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2823" s="36" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:7">
+      <c r="A2824" s="36" t="s">
+        <v>3131</v>
+      </c>
+      <c r="D2824" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2824" s="36" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:7">
+      <c r="A2825" s="36" t="s">
+        <v>3132</v>
+      </c>
+      <c r="D2825" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2825" s="36" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:7">
+      <c r="A2826" s="36" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D2826" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2826" s="36" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:7" s="14" customFormat="1">
+      <c r="C2827" s="34"/>
+      <c r="E2827" s="1"/>
+      <c r="G2827" s="1"/>
+    </row>
+    <row r="2828" spans="1:7" s="14" customFormat="1">
+      <c r="C2828" s="34"/>
+      <c r="E2828" s="1"/>
+      <c r="G2828" s="1"/>
+    </row>
+    <row r="2829" spans="1:7" s="14" customFormat="1">
+      <c r="C2829" s="34"/>
+      <c r="E2829" s="1"/>
+      <c r="G2829" s="1"/>
+    </row>
+    <row r="2830" spans="1:7" s="14" customFormat="1">
+      <c r="C2830" s="34"/>
+      <c r="E2830" s="1"/>
+      <c r="G2830" s="1"/>
+    </row>
+    <row r="2831" spans="1:7" s="14" customFormat="1">
+      <c r="C2831" s="34"/>
+      <c r="E2831" s="1"/>
+      <c r="G2831" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF887F4C-71A3-4C91-8D84-2A4182ED4B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FBEA93-53FA-401C-8EDF-38361BA1662A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17367" uniqueCount="3372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17368" uniqueCount="3373">
   <si>
     <t>Name</t>
   </si>
@@ -10280,6 +10280,78 @@
     <t>You need to measure this from the backside of motherboard</t>
   </si>
   <si>
+    <t>Commodore shared files/Component local files/6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4066B.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6581_sid.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/8502.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/8722.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7408.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/8721.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS373.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS244.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS257B.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7414.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6116.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4416.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/556.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/8701.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4164b_samsung.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7432.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS245.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7474.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7403.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7800.PDF</t>
+  </si>
+  <si>
+    <t>2026-February-12</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -10292,77 +10364,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-February-8</t>
+      <t>2026-February-9</t>
     </r>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4066B.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6581_sid.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/8502.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/8722.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7408.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/8721.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS373.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS244.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS257B.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7414.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6116.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4416.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/556.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/8701.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7406.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4164b_samsung.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7432.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS245.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7474.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7403.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7800.PDF</t>
   </si>
 </sst>
 </file>
@@ -10963,7 +10966,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -10990,7 +10993,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>3348</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -11248,7 +11251,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421B51B2-79EE-4420-A06F-4DB0AB134ADC}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11292,6 +11295,11 @@
         <v>3303</v>
       </c>
     </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>3371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11303,8 +11311,8 @@
   <dimension ref="A1:G451"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C217" sqref="C217"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -88058,9 +88066,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -88163,7 +88171,7 @@
         <v>362</v>
       </c>
       <c r="C12" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -88174,7 +88182,7 @@
         <v>336</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -88196,7 +88204,7 @@
         <v>362</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -88207,7 +88215,7 @@
         <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -88218,7 +88226,7 @@
         <v>379</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -88229,7 +88237,7 @@
         <v>310</v>
       </c>
       <c r="C18" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -88240,7 +88248,7 @@
         <v>330</v>
       </c>
       <c r="C19" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -88284,7 +88292,7 @@
         <v>309</v>
       </c>
       <c r="C23" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -88295,7 +88303,7 @@
         <v>344</v>
       </c>
       <c r="C24" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -88306,7 +88314,7 @@
         <v>341</v>
       </c>
       <c r="C25" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -88317,7 +88325,7 @@
         <v>335</v>
       </c>
       <c r="C26" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -88328,7 +88336,7 @@
         <v>335</v>
       </c>
       <c r="C27" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -88339,7 +88347,7 @@
         <v>363</v>
       </c>
       <c r="C28" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -88350,7 +88358,7 @@
         <v>344</v>
       </c>
       <c r="C29" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -88361,7 +88369,7 @@
         <v>364</v>
       </c>
       <c r="C30" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -88372,7 +88380,7 @@
         <v>422</v>
       </c>
       <c r="C31" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -88383,7 +88391,7 @@
         <v>336</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -88416,7 +88424,7 @@
         <v>386</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -88427,7 +88435,7 @@
         <v>367</v>
       </c>
       <c r="C36" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -88438,7 +88446,7 @@
         <v>386</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -88449,7 +88457,7 @@
         <v>335</v>
       </c>
       <c r="C38" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -88460,7 +88468,7 @@
         <v>368</v>
       </c>
       <c r="C39" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -88471,7 +88479,7 @@
         <v>369</v>
       </c>
       <c r="C40" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -88482,7 +88490,7 @@
         <v>329</v>
       </c>
       <c r="C41" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -88493,7 +88501,7 @@
         <v>329</v>
       </c>
       <c r="C42" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -88570,7 +88578,7 @@
         <v>329</v>
       </c>
       <c r="C49" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -88581,7 +88589,7 @@
         <v>372</v>
       </c>
       <c r="C50" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -88592,7 +88600,7 @@
         <v>372</v>
       </c>
       <c r="C51" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -88603,7 +88611,7 @@
         <v>372</v>
       </c>
       <c r="C52" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -88614,7 +88622,7 @@
         <v>372</v>
       </c>
       <c r="C53" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -88625,7 +88633,7 @@
         <v>372</v>
       </c>
       <c r="C54" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -88636,7 +88644,7 @@
         <v>372</v>
       </c>
       <c r="C55" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -88647,7 +88655,7 @@
         <v>372</v>
       </c>
       <c r="C56" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -88658,7 +88666,7 @@
         <v>372</v>
       </c>
       <c r="C57" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -88669,7 +88677,7 @@
         <v>372</v>
       </c>
       <c r="C58" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -88680,7 +88688,7 @@
         <v>372</v>
       </c>
       <c r="C59" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -88691,7 +88699,7 @@
         <v>372</v>
       </c>
       <c r="C60" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -88702,7 +88710,7 @@
         <v>372</v>
       </c>
       <c r="C61" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -88713,7 +88721,7 @@
         <v>372</v>
       </c>
       <c r="C62" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -88724,7 +88732,7 @@
         <v>372</v>
       </c>
       <c r="C63" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -88735,7 +88743,7 @@
         <v>372</v>
       </c>
       <c r="C64" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -88746,7 +88754,7 @@
         <v>372</v>
       </c>
       <c r="C65" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -88757,7 +88765,7 @@
         <v>373</v>
       </c>
       <c r="C66" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -88768,7 +88776,7 @@
         <v>345</v>
       </c>
       <c r="C67" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -88779,7 +88787,7 @@
         <v>343</v>
       </c>
       <c r="C68" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -88801,7 +88809,7 @@
         <v>342</v>
       </c>
       <c r="C70" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -88812,7 +88820,7 @@
         <v>374</v>
       </c>
       <c r="C71" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -88834,7 +88842,7 @@
         <v>330</v>
       </c>
       <c r="C73" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -88845,7 +88853,7 @@
         <v>341</v>
       </c>
       <c r="C74" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -88856,7 +88864,7 @@
         <v>329</v>
       </c>
       <c r="C75" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="76" spans="1:3">

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FBEA93-53FA-401C-8EDF-38361BA1662A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1505E717-EE49-4D4C-8A4B-3D9F84603C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17368" uniqueCount="3373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17424" uniqueCount="3396">
   <si>
     <t>Name</t>
   </si>
@@ -10366,6 +10366,75 @@
       </rPr>
       <t>2026-February-9</t>
     </r>
+  </si>
+  <si>
+    <t>+B</t>
+  </si>
+  <si>
+    <t>SYNC+LUM (INPUT)</t>
+  </si>
+  <si>
+    <t>COLOR (INPUT)</t>
+  </si>
+  <si>
+    <t>COMP. (OUTPUT)</t>
+  </si>
+  <si>
+    <t>SYNC+LUM (OUTPUT)</t>
+  </si>
+  <si>
+    <t>COLOR (OUTPUT)</t>
+  </si>
+  <si>
+    <t>AUDIO (INPUT)</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_8_NTSC.png</t>
   </si>
 </sst>
 </file>
@@ -10495,7 +10564,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -10646,6 +10715,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11065,20 +11137,20 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>849</v>
+      <c r="A10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" t="s">
+        <v>853</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -11086,10 +11158,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="14" t="s">
-        <v>201</v>
+        <v>353</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -11103,14 +11175,13 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>851</v>
+      <c r="A12" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>850</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
@@ -11124,13 +11195,14 @@
       <c r="F12" s="7">
         <v>1</v>
       </c>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>10</v>
@@ -11147,19 +11219,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>307</v>
+        <v>10</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
@@ -16808,7 +16880,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2834"/>
+  <dimension ref="A1:I2842"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
@@ -71067,262 +71139,350 @@
       </c>
     </row>
     <row r="2767" spans="1:7">
-      <c r="A2767" s="1" t="s">
+      <c r="A2767" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="B2767" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="C2767" s="51">
+      <c r="B2767" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2767" s="34">
         <v>1</v>
       </c>
-      <c r="D2767" s="1" t="s">
+      <c r="D2767" s="55" t="s">
+        <v>3373</v>
+      </c>
+      <c r="E2767" s="1" t="s">
         <v>3339</v>
       </c>
-      <c r="E2767" s="36"/>
+      <c r="F2767" s="14" t="s">
+        <v>3380</v>
+      </c>
     </row>
     <row r="2768" spans="1:7">
-      <c r="A2768" s="1" t="s">
+      <c r="A2768" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="B2768" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="C2768" s="51">
+      <c r="B2768" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2768" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2768" s="55" t="s">
+        <v>3373</v>
+      </c>
+      <c r="E2768" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F2768" s="14" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:7">
+      <c r="A2769" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2769" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2769" s="34">
         <v>2</v>
       </c>
-      <c r="D2768" s="1" t="s">
+      <c r="D2769" s="55" t="s">
+        <v>3374</v>
+      </c>
+      <c r="E2769" s="1" t="s">
         <v>3339</v>
       </c>
-      <c r="E2768" s="36"/>
-    </row>
-    <row r="2769" spans="1:7">
-      <c r="A2769" s="1" t="s">
+      <c r="F2769" s="14" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:7">
+      <c r="A2770" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="B2769" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="C2769" s="51">
+      <c r="B2770" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2770" s="34">
+        <v>2</v>
+      </c>
+      <c r="D2770" s="55" t="s">
+        <v>3374</v>
+      </c>
+      <c r="E2770" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F2770" s="14" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:7">
+      <c r="A2771" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2771" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2771" s="34">
         <v>3</v>
       </c>
-      <c r="D2769" s="1" t="s">
+      <c r="D2771" s="55" t="s">
+        <v>509</v>
+      </c>
+      <c r="E2771" s="1" t="s">
         <v>3339</v>
       </c>
-      <c r="E2769" s="36"/>
-    </row>
-    <row r="2770" spans="1:7">
-      <c r="A2770" s="1" t="s">
+      <c r="F2771" s="14" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:7">
+      <c r="A2772" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="B2770" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="C2770" s="51">
+      <c r="B2772" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2772" s="34">
+        <v>3</v>
+      </c>
+      <c r="D2772" s="55" t="s">
+        <v>509</v>
+      </c>
+      <c r="E2772" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F2772" s="14" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:7">
+      <c r="A2773" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2773" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2773" s="34">
         <v>4</v>
       </c>
-      <c r="D2770" s="1" t="s">
+      <c r="D2773" s="55" t="s">
+        <v>3375</v>
+      </c>
+      <c r="E2773" s="1" t="s">
         <v>3339</v>
       </c>
-      <c r="E2770" s="36"/>
-    </row>
-    <row r="2771" spans="1:7">
-      <c r="A2771" s="1" t="s">
+      <c r="F2773" s="14" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:7">
+      <c r="A2774" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="B2771" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="C2771" s="51">
+      <c r="B2774" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2774" s="34">
+        <v>4</v>
+      </c>
+      <c r="D2774" s="55" t="s">
+        <v>3375</v>
+      </c>
+      <c r="E2774" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F2774" s="14" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:7">
+      <c r="A2775" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2775" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2775" s="34">
         <v>5</v>
       </c>
-      <c r="D2771" s="1" t="s">
+      <c r="D2775" s="55" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E2775" s="1" t="s">
         <v>3339</v>
       </c>
-      <c r="E2771" s="36"/>
-    </row>
-    <row r="2772" spans="1:7">
-      <c r="A2772" s="1" t="s">
+      <c r="F2775" s="14" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:7">
+      <c r="A2776" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="B2772" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="C2772" s="51">
+      <c r="B2776" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2776" s="34">
+        <v>5</v>
+      </c>
+      <c r="D2776" s="55" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E2776" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F2776" s="14" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:7">
+      <c r="A2777" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2777" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2777" s="34">
         <v>6</v>
       </c>
-      <c r="D2772" s="1" t="s">
+      <c r="D2777" s="55" t="s">
+        <v>3377</v>
+      </c>
+      <c r="E2777" s="1" t="s">
         <v>3339</v>
       </c>
-      <c r="E2772" s="36"/>
-    </row>
-    <row r="2773" spans="1:7">
-      <c r="A2773" s="1" t="s">
+      <c r="F2777" s="14" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:7">
+      <c r="A2778" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="B2773" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="C2773" s="51">
+      <c r="B2778" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2778" s="34">
+        <v>6</v>
+      </c>
+      <c r="D2778" s="55" t="s">
+        <v>3377</v>
+      </c>
+      <c r="E2778" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F2778" s="14" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:7">
+      <c r="A2779" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2779" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2779" s="34">
         <v>7</v>
       </c>
-      <c r="D2773" s="1" t="s">
+      <c r="D2779" s="55" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E2779" s="1" t="s">
         <v>3339</v>
       </c>
-      <c r="E2773" s="36"/>
-    </row>
-    <row r="2774" spans="1:7">
-      <c r="A2774" s="1" t="s">
+      <c r="F2779" s="14" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:7">
+      <c r="A2780" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="B2774" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="C2774" s="51">
+      <c r="B2780" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2780" s="34">
+        <v>7</v>
+      </c>
+      <c r="D2780" s="55" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E2780" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F2780" s="14" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:7">
+      <c r="A2781" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2781" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2781" s="34">
         <v>8</v>
       </c>
-      <c r="D2774" s="1" t="s">
+      <c r="D2781" s="55" t="s">
+        <v>3379</v>
+      </c>
+      <c r="E2781" s="1" t="s">
         <v>3339</v>
       </c>
-      <c r="E2774" s="36"/>
-    </row>
-    <row r="2775" spans="1:7" ht="72">
-      <c r="A2775" s="1" t="s">
+      <c r="F2781" s="14" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:7">
+      <c r="A2782" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2782" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2782" s="34">
+        <v>8</v>
+      </c>
+      <c r="D2782" s="55" t="s">
+        <v>3379</v>
+      </c>
+      <c r="E2782" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F2782" s="14" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:7" ht="72">
+      <c r="A2783" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="D2775" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G2775" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="2776" spans="1:7" ht="72">
-      <c r="A2776" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D2776" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G2776" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="2777" spans="1:7" ht="28.8">
-      <c r="A2777" s="1" t="s">
-        <v>3087</v>
-      </c>
-      <c r="D2777" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2777" s="14" t="s">
-        <v>3294</v>
-      </c>
-      <c r="G2777" s="36" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="2778" spans="1:7" ht="28.8">
-      <c r="A2778" s="1" t="s">
-        <v>3127</v>
-      </c>
-      <c r="D2778" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2778" s="14" t="s">
-        <v>3294</v>
-      </c>
-      <c r="G2778" s="36" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="2779" spans="1:7" ht="28.8">
-      <c r="A2779" s="1" t="s">
-        <v>3161</v>
-      </c>
-      <c r="D2779" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2779" s="14" t="s">
-        <v>3294</v>
-      </c>
-      <c r="G2779" s="36" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="2780" spans="1:7" ht="28.8">
-      <c r="A2780" s="1" t="s">
-        <v>3148</v>
-      </c>
-      <c r="D2780" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2780" s="14" t="s">
-        <v>3294</v>
-      </c>
-      <c r="G2780" s="36" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="2781" spans="1:7" ht="28.8">
-      <c r="A2781" s="1" t="s">
-        <v>3179</v>
-      </c>
-      <c r="D2781" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2781" s="14" t="s">
-        <v>3294</v>
-      </c>
-      <c r="G2781" s="36" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="2782" spans="1:7" ht="28.8">
-      <c r="A2782" s="1" t="s">
-        <v>3162</v>
-      </c>
-      <c r="D2782" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2782" s="14" t="s">
-        <v>3294</v>
-      </c>
-      <c r="G2782" s="36" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="2783" spans="1:7" ht="28.8">
-      <c r="A2783" s="1" t="s">
-        <v>3175</v>
       </c>
       <c r="D2783" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F2783" s="14" t="s">
-        <v>3294</v>
-      </c>
-      <c r="G2783" s="36" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="2784" spans="1:7" ht="28.8">
+      <c r="G2783" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:7" ht="72">
       <c r="A2784" s="1" t="s">
-        <v>3128</v>
+        <v>317</v>
       </c>
       <c r="D2784" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F2784" s="14" t="s">
-        <v>3294</v>
-      </c>
-      <c r="G2784" s="36" t="s">
-        <v>3295</v>
+      <c r="G2784" s="1" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="2785" spans="1:7" ht="28.8">
       <c r="A2785" s="1" t="s">
-        <v>3124</v>
+        <v>3087</v>
       </c>
       <c r="D2785" s="1" t="s">
         <v>350</v>
@@ -71336,7 +71496,7 @@
     </row>
     <row r="2786" spans="1:7" ht="28.8">
       <c r="A2786" s="1" t="s">
-        <v>3123</v>
+        <v>3127</v>
       </c>
       <c r="D2786" s="1" t="s">
         <v>350</v>
@@ -71350,7 +71510,7 @@
     </row>
     <row r="2787" spans="1:7" ht="28.8">
       <c r="A2787" s="1" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="D2787" s="1" t="s">
         <v>350</v>
@@ -71364,7 +71524,7 @@
     </row>
     <row r="2788" spans="1:7" ht="28.8">
       <c r="A2788" s="1" t="s">
-        <v>3163</v>
+        <v>3148</v>
       </c>
       <c r="D2788" s="1" t="s">
         <v>350</v>
@@ -71378,7 +71538,7 @@
     </row>
     <row r="2789" spans="1:7" ht="28.8">
       <c r="A2789" s="1" t="s">
-        <v>3115</v>
+        <v>3179</v>
       </c>
       <c r="D2789" s="1" t="s">
         <v>350</v>
@@ -71392,7 +71552,7 @@
     </row>
     <row r="2790" spans="1:7" ht="28.8">
       <c r="A2790" s="1" t="s">
-        <v>3114</v>
+        <v>3162</v>
       </c>
       <c r="D2790" s="1" t="s">
         <v>350</v>
@@ -71406,7 +71566,7 @@
     </row>
     <row r="2791" spans="1:7" ht="28.8">
       <c r="A2791" s="1" t="s">
-        <v>3110</v>
+        <v>3175</v>
       </c>
       <c r="D2791" s="1" t="s">
         <v>350</v>
@@ -71420,7 +71580,7 @@
     </row>
     <row r="2792" spans="1:7" ht="28.8">
       <c r="A2792" s="1" t="s">
-        <v>3090</v>
+        <v>3128</v>
       </c>
       <c r="D2792" s="1" t="s">
         <v>350</v>
@@ -71434,7 +71594,7 @@
     </row>
     <row r="2793" spans="1:7" ht="28.8">
       <c r="A2793" s="1" t="s">
-        <v>3091</v>
+        <v>3124</v>
       </c>
       <c r="D2793" s="1" t="s">
         <v>350</v>
@@ -71448,7 +71608,7 @@
     </row>
     <row r="2794" spans="1:7" ht="28.8">
       <c r="A2794" s="1" t="s">
-        <v>3108</v>
+        <v>3123</v>
       </c>
       <c r="D2794" s="1" t="s">
         <v>350</v>
@@ -71462,7 +71622,7 @@
     </row>
     <row r="2795" spans="1:7" ht="28.8">
       <c r="A2795" s="1" t="s">
-        <v>3173</v>
+        <v>3166</v>
       </c>
       <c r="D2795" s="1" t="s">
         <v>350</v>
@@ -71476,7 +71636,7 @@
     </row>
     <row r="2796" spans="1:7" ht="28.8">
       <c r="A2796" s="1" t="s">
-        <v>3168</v>
+        <v>3163</v>
       </c>
       <c r="D2796" s="1" t="s">
         <v>350</v>
@@ -71490,7 +71650,7 @@
     </row>
     <row r="2797" spans="1:7" ht="28.8">
       <c r="A2797" s="1" t="s">
-        <v>3170</v>
+        <v>3115</v>
       </c>
       <c r="D2797" s="1" t="s">
         <v>350</v>
@@ -71504,7 +71664,7 @@
     </row>
     <row r="2798" spans="1:7" ht="28.8">
       <c r="A2798" s="1" t="s">
-        <v>3184</v>
+        <v>3114</v>
       </c>
       <c r="D2798" s="1" t="s">
         <v>350</v>
@@ -71518,7 +71678,7 @@
     </row>
     <row r="2799" spans="1:7" ht="28.8">
       <c r="A2799" s="1" t="s">
-        <v>3169</v>
+        <v>3110</v>
       </c>
       <c r="D2799" s="1" t="s">
         <v>350</v>
@@ -71532,7 +71692,7 @@
     </row>
     <row r="2800" spans="1:7" ht="28.8">
       <c r="A2800" s="1" t="s">
-        <v>3164</v>
+        <v>3090</v>
       </c>
       <c r="D2800" s="1" t="s">
         <v>350</v>
@@ -71546,7 +71706,7 @@
     </row>
     <row r="2801" spans="1:7" ht="28.8">
       <c r="A2801" s="1" t="s">
-        <v>3109</v>
+        <v>3091</v>
       </c>
       <c r="D2801" s="1" t="s">
         <v>350</v>
@@ -71560,7 +71720,7 @@
     </row>
     <row r="2802" spans="1:7" ht="28.8">
       <c r="A2802" s="1" t="s">
-        <v>3129</v>
+        <v>3108</v>
       </c>
       <c r="D2802" s="1" t="s">
         <v>350</v>
@@ -71574,7 +71734,7 @@
     </row>
     <row r="2803" spans="1:7" ht="28.8">
       <c r="A2803" s="1" t="s">
-        <v>3167</v>
+        <v>3173</v>
       </c>
       <c r="D2803" s="1" t="s">
         <v>350</v>
@@ -71588,7 +71748,7 @@
     </row>
     <row r="2804" spans="1:7" ht="28.8">
       <c r="A2804" s="1" t="s">
-        <v>3083</v>
+        <v>3168</v>
       </c>
       <c r="D2804" s="1" t="s">
         <v>350</v>
@@ -71602,7 +71762,7 @@
     </row>
     <row r="2805" spans="1:7" ht="28.8">
       <c r="A2805" s="1" t="s">
-        <v>3085</v>
+        <v>3170</v>
       </c>
       <c r="D2805" s="1" t="s">
         <v>350</v>
@@ -71616,7 +71776,7 @@
     </row>
     <row r="2806" spans="1:7" ht="28.8">
       <c r="A2806" s="1" t="s">
-        <v>3201</v>
+        <v>3184</v>
       </c>
       <c r="D2806" s="1" t="s">
         <v>350</v>
@@ -71630,7 +71790,7 @@
     </row>
     <row r="2807" spans="1:7" ht="28.8">
       <c r="A2807" s="1" t="s">
-        <v>3079</v>
+        <v>3169</v>
       </c>
       <c r="D2807" s="1" t="s">
         <v>350</v>
@@ -71644,7 +71804,7 @@
     </row>
     <row r="2808" spans="1:7" ht="28.8">
       <c r="A2808" s="1" t="s">
-        <v>3176</v>
+        <v>3164</v>
       </c>
       <c r="D2808" s="1" t="s">
         <v>350</v>
@@ -71658,7 +71818,7 @@
     </row>
     <row r="2809" spans="1:7" ht="28.8">
       <c r="A2809" s="1" t="s">
-        <v>3126</v>
+        <v>3109</v>
       </c>
       <c r="D2809" s="1" t="s">
         <v>350</v>
@@ -71672,7 +71832,7 @@
     </row>
     <row r="2810" spans="1:7" ht="28.8">
       <c r="A2810" s="1" t="s">
-        <v>3122</v>
+        <v>3129</v>
       </c>
       <c r="D2810" s="1" t="s">
         <v>350</v>
@@ -71686,7 +71846,7 @@
     </row>
     <row r="2811" spans="1:7" ht="28.8">
       <c r="A2811" s="1" t="s">
-        <v>3226</v>
+        <v>3167</v>
       </c>
       <c r="D2811" s="1" t="s">
         <v>350</v>
@@ -71700,7 +71860,7 @@
     </row>
     <row r="2812" spans="1:7" ht="28.8">
       <c r="A2812" s="1" t="s">
-        <v>3225</v>
+        <v>3083</v>
       </c>
       <c r="D2812" s="1" t="s">
         <v>350</v>
@@ -71714,7 +71874,7 @@
     </row>
     <row r="2813" spans="1:7" ht="28.8">
       <c r="A2813" s="1" t="s">
-        <v>3111</v>
+        <v>3085</v>
       </c>
       <c r="D2813" s="1" t="s">
         <v>350</v>
@@ -71728,7 +71888,7 @@
     </row>
     <row r="2814" spans="1:7" ht="28.8">
       <c r="A2814" s="1" t="s">
-        <v>3086</v>
+        <v>3201</v>
       </c>
       <c r="D2814" s="1" t="s">
         <v>350</v>
@@ -71742,7 +71902,7 @@
     </row>
     <row r="2815" spans="1:7" ht="28.8">
       <c r="A2815" s="1" t="s">
-        <v>3125</v>
+        <v>3079</v>
       </c>
       <c r="D2815" s="1" t="s">
         <v>350</v>
@@ -71756,7 +71916,7 @@
     </row>
     <row r="2816" spans="1:7" ht="28.8">
       <c r="A2816" s="1" t="s">
-        <v>3080</v>
+        <v>3176</v>
       </c>
       <c r="D2816" s="1" t="s">
         <v>350</v>
@@ -71770,7 +71930,7 @@
     </row>
     <row r="2817" spans="1:7" ht="28.8">
       <c r="A2817" s="1" t="s">
-        <v>3149</v>
+        <v>3126</v>
       </c>
       <c r="D2817" s="1" t="s">
         <v>350</v>
@@ -71784,7 +71944,7 @@
     </row>
     <row r="2818" spans="1:7" ht="28.8">
       <c r="A2818" s="1" t="s">
-        <v>3074</v>
+        <v>3122</v>
       </c>
       <c r="D2818" s="1" t="s">
         <v>350</v>
@@ -71798,7 +71958,7 @@
     </row>
     <row r="2819" spans="1:7" ht="28.8">
       <c r="A2819" s="1" t="s">
-        <v>3121</v>
+        <v>3226</v>
       </c>
       <c r="D2819" s="1" t="s">
         <v>350</v>
@@ -71812,7 +71972,7 @@
     </row>
     <row r="2820" spans="1:7" ht="28.8">
       <c r="A2820" s="1" t="s">
-        <v>3076</v>
+        <v>3225</v>
       </c>
       <c r="D2820" s="1" t="s">
         <v>350</v>
@@ -71826,7 +71986,7 @@
     </row>
     <row r="2821" spans="1:7" ht="28.8">
       <c r="A2821" s="1" t="s">
-        <v>3159</v>
+        <v>3111</v>
       </c>
       <c r="D2821" s="1" t="s">
         <v>350</v>
@@ -71840,7 +72000,7 @@
     </row>
     <row r="2822" spans="1:7" ht="28.8">
       <c r="A2822" s="1" t="s">
-        <v>3165</v>
+        <v>3086</v>
       </c>
       <c r="D2822" s="1" t="s">
         <v>350</v>
@@ -71854,7 +72014,7 @@
     </row>
     <row r="2823" spans="1:7" ht="28.8">
       <c r="A2823" s="1" t="s">
-        <v>3073</v>
+        <v>3125</v>
       </c>
       <c r="D2823" s="1" t="s">
         <v>350</v>
@@ -71868,7 +72028,7 @@
     </row>
     <row r="2824" spans="1:7" ht="28.8">
       <c r="A2824" s="1" t="s">
-        <v>3177</v>
+        <v>3080</v>
       </c>
       <c r="D2824" s="1" t="s">
         <v>350</v>
@@ -71880,85 +72040,197 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="2825" spans="1:7">
-      <c r="A2825" s="36" t="s">
-        <v>3089</v>
+    <row r="2825" spans="1:7" ht="28.8">
+      <c r="A2825" s="1" t="s">
+        <v>3149</v>
       </c>
       <c r="D2825" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="F2825" s="14" t="s">
+        <v>3294</v>
+      </c>
       <c r="G2825" s="36" t="s">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="2826" spans="1:7">
-      <c r="A2826" s="36" t="s">
-        <v>3160</v>
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:7" ht="28.8">
+      <c r="A2826" s="1" t="s">
+        <v>3074</v>
       </c>
       <c r="D2826" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="F2826" s="14" t="s">
+        <v>3294</v>
+      </c>
       <c r="G2826" s="36" t="s">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="2827" spans="1:7">
-      <c r="A2827" s="36" t="s">
-        <v>3106</v>
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:7" ht="28.8">
+      <c r="A2827" s="1" t="s">
+        <v>3121</v>
       </c>
       <c r="D2827" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="F2827" s="14" t="s">
+        <v>3294</v>
+      </c>
       <c r="G2827" s="36" t="s">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="2828" spans="1:7">
-      <c r="A2828" s="36" t="s">
-        <v>3107</v>
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:7" ht="28.8">
+      <c r="A2828" s="1" t="s">
+        <v>3076</v>
       </c>
       <c r="D2828" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="F2828" s="14" t="s">
+        <v>3294</v>
+      </c>
       <c r="G2828" s="36" t="s">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="2829" spans="1:7">
-      <c r="A2829" s="36" t="s">
-        <v>3120</v>
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:7" ht="28.8">
+      <c r="A2829" s="1" t="s">
+        <v>3159</v>
       </c>
       <c r="D2829" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="F2829" s="14" t="s">
+        <v>3294</v>
+      </c>
       <c r="G2829" s="36" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:7" ht="28.8">
+      <c r="A2830" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D2830" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2830" s="14" t="s">
+        <v>3294</v>
+      </c>
+      <c r="G2830" s="36" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:7" ht="28.8">
+      <c r="A2831" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D2831" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2831" s="14" t="s">
+        <v>3294</v>
+      </c>
+      <c r="G2831" s="36" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:7" ht="28.8">
+      <c r="A2832" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D2832" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2832" s="14" t="s">
+        <v>3294</v>
+      </c>
+      <c r="G2832" s="36" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:7">
+      <c r="A2833" s="36" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D2833" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2833" s="36" t="s">
         <v>3331</v>
       </c>
     </row>
-    <row r="2830" spans="1:7" s="14" customFormat="1">
-      <c r="C2830" s="34"/>
-      <c r="E2830" s="1"/>
-      <c r="G2830" s="1"/>
-    </row>
-    <row r="2831" spans="1:7" s="14" customFormat="1">
-      <c r="C2831" s="34"/>
-      <c r="E2831" s="1"/>
-      <c r="G2831" s="1"/>
-    </row>
-    <row r="2832" spans="1:7" s="14" customFormat="1">
-      <c r="C2832" s="34"/>
-      <c r="E2832" s="1"/>
-      <c r="G2832" s="1"/>
-    </row>
-    <row r="2833" spans="3:7" s="14" customFormat="1">
-      <c r="C2833" s="34"/>
-      <c r="E2833" s="1"/>
-      <c r="G2833" s="1"/>
-    </row>
-    <row r="2834" spans="3:7" s="14" customFormat="1">
-      <c r="C2834" s="34"/>
-      <c r="E2834" s="1"/>
-      <c r="G2834" s="1"/>
+    <row r="2834" spans="1:7">
+      <c r="A2834" s="36" t="s">
+        <v>3160</v>
+      </c>
+      <c r="D2834" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2834" s="36" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:7">
+      <c r="A2835" s="36" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D2835" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2835" s="36" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:7">
+      <c r="A2836" s="36" t="s">
+        <v>3107</v>
+      </c>
+      <c r="D2836" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2836" s="36" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:7">
+      <c r="A2837" s="36" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D2837" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2837" s="36" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:7" s="14" customFormat="1">
+      <c r="C2838" s="34"/>
+      <c r="E2838" s="1"/>
+      <c r="G2838" s="1"/>
+    </row>
+    <row r="2839" spans="1:7" s="14" customFormat="1">
+      <c r="C2839" s="34"/>
+      <c r="E2839" s="1"/>
+      <c r="G2839" s="1"/>
+    </row>
+    <row r="2840" spans="1:7" s="14" customFormat="1">
+      <c r="C2840" s="34"/>
+      <c r="E2840" s="1"/>
+      <c r="G2840" s="1"/>
+    </row>
+    <row r="2841" spans="1:7" s="14" customFormat="1">
+      <c r="C2841" s="34"/>
+      <c r="E2841" s="1"/>
+      <c r="G2841" s="1"/>
+    </row>
+    <row r="2842" spans="1:7" s="14" customFormat="1">
+      <c r="C2842" s="34"/>
+      <c r="E2842" s="1"/>
+      <c r="G2842" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1505E717-EE49-4D4C-8A4B-3D9F84603C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F16DC10-AF9D-465B-B07F-1880F7508183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17424" uniqueCount="3396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17425" uniqueCount="3397">
   <si>
     <t>Name</t>
   </si>
@@ -10352,6 +10352,78 @@
     <t>2026-February-12</t>
   </si>
   <si>
+    <t>+B</t>
+  </si>
+  <si>
+    <t>SYNC+LUM (INPUT)</t>
+  </si>
+  <si>
+    <t>COLOR (INPUT)</t>
+  </si>
+  <si>
+    <t>COMP. (OUTPUT)</t>
+  </si>
+  <si>
+    <t>SYNC+LUM (OUTPUT)</t>
+  </si>
+  <si>
+    <t>COLOR (OUTPUT)</t>
+  </si>
+  <si>
+    <t>AUDIO (INPUT)</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 128/310378/Scope baseline/Images/M1_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>2026-February-21</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -10364,77 +10436,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-February-9</t>
+      <t>2026-February-21</t>
     </r>
-  </si>
-  <si>
-    <t>+B</t>
-  </si>
-  <si>
-    <t>SYNC+LUM (INPUT)</t>
-  </si>
-  <si>
-    <t>COLOR (INPUT)</t>
-  </si>
-  <si>
-    <t>COMP. (OUTPUT)</t>
-  </si>
-  <si>
-    <t>SYNC+LUM (OUTPUT)</t>
-  </si>
-  <si>
-    <t>COLOR (OUTPUT)</t>
-  </si>
-  <si>
-    <t>AUDIO (INPUT)</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_1_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_2_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_3_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_4_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_5_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_6_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_7_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_8_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 128/310378/Scope baseline/Images/M1_8_NTSC.png</t>
   </si>
 </sst>
 </file>
@@ -10713,11 +10716,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11065,7 +11068,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>3372</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -11109,12 +11112,12 @@
         <v>392</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="55" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="28.8">
       <c r="A9" s="21" t="s">
@@ -11323,7 +11326,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421B51B2-79EE-4420-A06F-4DB0AB134ADC}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11372,8 +11375,14 @@
         <v>3371</v>
       </c>
     </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>3395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -71148,14 +71157,14 @@
       <c r="C2767" s="34">
         <v>1</v>
       </c>
-      <c r="D2767" s="55" t="s">
-        <v>3373</v>
+      <c r="D2767" s="54" t="s">
+        <v>3372</v>
       </c>
       <c r="E2767" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2767" s="14" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="2768" spans="1:7">
@@ -71168,14 +71177,14 @@
       <c r="C2768" s="34">
         <v>1</v>
       </c>
-      <c r="D2768" s="55" t="s">
-        <v>3373</v>
+      <c r="D2768" s="54" t="s">
+        <v>3372</v>
       </c>
       <c r="E2768" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2768" s="14" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="2769" spans="1:7">
@@ -71188,14 +71197,14 @@
       <c r="C2769" s="34">
         <v>2</v>
       </c>
-      <c r="D2769" s="55" t="s">
-        <v>3374</v>
+      <c r="D2769" s="54" t="s">
+        <v>3373</v>
       </c>
       <c r="E2769" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2769" s="14" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="2770" spans="1:7">
@@ -71208,14 +71217,14 @@
       <c r="C2770" s="34">
         <v>2</v>
       </c>
-      <c r="D2770" s="55" t="s">
-        <v>3374</v>
+      <c r="D2770" s="54" t="s">
+        <v>3373</v>
       </c>
       <c r="E2770" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2770" s="14" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="2771" spans="1:7">
@@ -71228,14 +71237,14 @@
       <c r="C2771" s="34">
         <v>3</v>
       </c>
-      <c r="D2771" s="55" t="s">
+      <c r="D2771" s="54" t="s">
         <v>509</v>
       </c>
       <c r="E2771" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2771" s="14" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="2772" spans="1:7">
@@ -71248,14 +71257,14 @@
       <c r="C2772" s="34">
         <v>3</v>
       </c>
-      <c r="D2772" s="55" t="s">
+      <c r="D2772" s="54" t="s">
         <v>509</v>
       </c>
       <c r="E2772" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2772" s="14" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="2773" spans="1:7">
@@ -71268,14 +71277,14 @@
       <c r="C2773" s="34">
         <v>4</v>
       </c>
-      <c r="D2773" s="55" t="s">
-        <v>3375</v>
+      <c r="D2773" s="54" t="s">
+        <v>3374</v>
       </c>
       <c r="E2773" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2773" s="14" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="2774" spans="1:7">
@@ -71288,14 +71297,14 @@
       <c r="C2774" s="34">
         <v>4</v>
       </c>
-      <c r="D2774" s="55" t="s">
-        <v>3375</v>
+      <c r="D2774" s="54" t="s">
+        <v>3374</v>
       </c>
       <c r="E2774" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2774" s="14" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="2775" spans="1:7">
@@ -71308,14 +71317,14 @@
       <c r="C2775" s="34">
         <v>5</v>
       </c>
-      <c r="D2775" s="55" t="s">
-        <v>3376</v>
+      <c r="D2775" s="54" t="s">
+        <v>3375</v>
       </c>
       <c r="E2775" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2775" s="14" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="2776" spans="1:7">
@@ -71328,14 +71337,14 @@
       <c r="C2776" s="34">
         <v>5</v>
       </c>
-      <c r="D2776" s="55" t="s">
-        <v>3376</v>
+      <c r="D2776" s="54" t="s">
+        <v>3375</v>
       </c>
       <c r="E2776" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2776" s="14" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="2777" spans="1:7">
@@ -71348,14 +71357,14 @@
       <c r="C2777" s="34">
         <v>6</v>
       </c>
-      <c r="D2777" s="55" t="s">
-        <v>3377</v>
+      <c r="D2777" s="54" t="s">
+        <v>3376</v>
       </c>
       <c r="E2777" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2777" s="14" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="2778" spans="1:7">
@@ -71368,14 +71377,14 @@
       <c r="C2778" s="34">
         <v>6</v>
       </c>
-      <c r="D2778" s="55" t="s">
-        <v>3377</v>
+      <c r="D2778" s="54" t="s">
+        <v>3376</v>
       </c>
       <c r="E2778" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2778" s="14" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="2779" spans="1:7">
@@ -71388,14 +71397,14 @@
       <c r="C2779" s="34">
         <v>7</v>
       </c>
-      <c r="D2779" s="55" t="s">
-        <v>3378</v>
+      <c r="D2779" s="54" t="s">
+        <v>3377</v>
       </c>
       <c r="E2779" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2779" s="14" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="2780" spans="1:7">
@@ -71408,14 +71417,14 @@
       <c r="C2780" s="34">
         <v>7</v>
       </c>
-      <c r="D2780" s="55" t="s">
-        <v>3378</v>
+      <c r="D2780" s="54" t="s">
+        <v>3377</v>
       </c>
       <c r="E2780" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2780" s="14" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="2781" spans="1:7">
@@ -71428,14 +71437,14 @@
       <c r="C2781" s="34">
         <v>8</v>
       </c>
-      <c r="D2781" s="55" t="s">
-        <v>3379</v>
+      <c r="D2781" s="54" t="s">
+        <v>3378</v>
       </c>
       <c r="E2781" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2781" s="14" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="2782" spans="1:7">
@@ -71448,14 +71457,14 @@
       <c r="C2782" s="34">
         <v>8</v>
       </c>
-      <c r="D2782" s="55" t="s">
-        <v>3379</v>
+      <c r="D2782" s="54" t="s">
+        <v>3378</v>
       </c>
       <c r="E2782" s="1" t="s">
         <v>3339</v>
       </c>
       <c r="F2782" s="14" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="2783" spans="1:7" ht="72">

--- a/Data/Commodore 128/310378/Data C128 310378.xlsx
+++ b/Data/Commodore 128/310378/Data C128 310378.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 128\310378\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F16DC10-AF9D-465B-B07F-1880F7508183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3BC958-AADB-4971-A01F-3DDE55FA23C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
